--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -676,7 +676,7 @@
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -697,7 +697,7 @@
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
         <v>1.61</v>
@@ -715,7 +715,7 @@
         <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>2.4</v>
@@ -745,7 +745,7 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -769,7 +769,7 @@
         <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -805,7 +805,7 @@
         <v>1.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
@@ -844,16 +844,16 @@
         <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>5.7</v>
@@ -955,16 +955,16 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -973,28 +973,28 @@
         <v>2.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1114,10 +1114,10 @@
         <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.28</v>
@@ -1210,10 +1210,10 @@
         <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
         <v>3.75</v>
@@ -1360,7 +1360,7 @@
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1381,7 +1381,7 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>1.45</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1519,16 +1519,16 @@
         <v>2.14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1630,13 +1630,13 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
         <v>1.55</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>80</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
         <v>2.04</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.71</v>
+        <v>2.78</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1783,16 +1783,16 @@
         <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.15</v>
@@ -1882,91 +1882,91 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
-        <v>150</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>1.58</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.6</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2056,7 +2056,7 @@
         <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
@@ -2065,37 +2065,37 @@
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
         <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
@@ -2110,19 +2110,19 @@
         <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
         <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2185,7 +2185,7 @@
         <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2200,22 +2200,22 @@
         <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,13 +2224,13 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2242,13 +2242,13 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2305,94 +2305,94 @@
         <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2440,16 +2440,16 @@
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
         <v>1.39</v>
@@ -2458,76 +2458,76 @@
         <v>2.38</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.01</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -2710,94 +2710,94 @@
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
         <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I18" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.01</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.01</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="J21" t="n">
         <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
@@ -3385,13 +3385,13 @@
         <v>7.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3400,7 +3400,7 @@
         <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
         <v>1.71</v>
@@ -3415,40 +3415,40 @@
         <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
         <v>60</v>
       </c>
       <c r="Z22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD22" t="n">
         <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>34</v>
@@ -3457,22 +3457,22 @@
         <v>190</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
         <v>3.9</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,19 +3514,19 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3535,7 +3535,7 @@
         <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -3550,22 +3550,22 @@
         <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
         <v>8</v>
@@ -3574,40 +3574,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>20</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
         <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="H24" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I25" t="n">
         <v>2.06</v>
@@ -3808,7 +3808,7 @@
         <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
         <v>3.2</v>
@@ -3877,7 +3877,7 @@
         <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>2.52</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -3919,10 +3919,10 @@
         <v>3.3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q26" t="n">
         <v>2.32</v>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
@@ -4051,7 +4051,7 @@
         <v>4.8</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>3.85</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>75</v>
@@ -4144,7 +4144,7 @@
         <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO27" t="n">
         <v>110</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.74</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.76</v>
-      </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
         <v>4.2</v>
@@ -4219,7 +4219,7 @@
         <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
         <v>2.12</v>
@@ -4276,7 +4276,7 @@
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN28" t="n">
         <v>10</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
         <v>1.73</v>
@@ -4459,7 +4459,7 @@
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
@@ -4480,7 +4480,7 @@
         <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G31" t="n">
         <v>1.52</v>
@@ -4591,10 +4591,10 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5.2</v>
@@ -4612,7 +4612,7 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q31" t="n">
         <v>1.51</v>
@@ -4621,10 +4621,10 @@
         <v>1.76</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
         <v>2.42</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4651,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>28</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
         <v>70</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5011,13 +5011,13 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q34" t="n">
         <v>2.08</v>
@@ -5029,7 +5029,7 @@
         <v>3.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
         <v>2.08</v>
@@ -5044,7 +5044,7 @@
         <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
         <v>34</v>
@@ -5053,10 +5053,10 @@
         <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
         <v>18</v>
@@ -5125,16 +5125,16 @@
         <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I35" t="n">
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
         <v>3.5</v>
@@ -5164,7 +5164,7 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G36" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
         <v>4.9</v>
@@ -5269,7 +5269,7 @@
         <v>5.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
@@ -5281,16 +5281,16 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
         <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
         <v>1.4</v>
@@ -5311,19 +5311,19 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
@@ -5332,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
         <v>11.5</v>
@@ -5350,13 +5350,13 @@
         <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
         <v>12</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -5941,13 +5941,13 @@
         <v>1.99</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J41" t="n">
         <v>2.86</v>
       </c>
       <c r="K41" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>2.82</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
         <v>3.1</v>
@@ -6082,7 +6082,7 @@
         <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q44" t="n">
         <v>2.1</v>
@@ -6478,7 +6478,7 @@
         <v>1.96</v>
       </c>
       <c r="H45" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I45" t="n">
         <v>5.8</v>
@@ -6502,7 +6502,7 @@
         <v>1.64</v>
       </c>
       <c r="P45" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q45" t="n">
         <v>2.94</v>
@@ -6547,7 +6547,7 @@
         <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF45" t="n">
         <v>9.800000000000001</v>
@@ -6556,25 +6556,25 @@
         <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
         <v>190</v>
       </c>
       <c r="AJ45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="n">
         <v>360</v>
       </c>
       <c r="AN45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO45" t="n">
         <v>290</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G47" t="n">
         <v>21</v>
@@ -6757,7 +6757,7 @@
         <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6766,29 +6766,29 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="R47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.7</v>
       </c>
-      <c r="S47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.74</v>
-      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
@@ -6799,10 +6799,10 @@
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
         <v>11.5</v>
@@ -6817,10 +6817,10 @@
         <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG47" t="n">
         <v>1000</v>
@@ -6838,16 +6838,16 @@
         <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AM47" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN47" t="n">
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="48">
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G48" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
         <v>5.2</v>
@@ -6937,10 +6937,10 @@
         <v>27</v>
       </c>
       <c r="Z48" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA48" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AB48" t="n">
         <v>13.5</v>
@@ -6958,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH48" t="n">
         <v>17.5</v>
@@ -6967,7 +6967,7 @@
         <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
         <v>1.46</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G51" t="n">
         <v>1.62</v>
@@ -7291,7 +7291,7 @@
         <v>2.64</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>1.2</v>
       </c>
       <c r="G54" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H54" t="n">
         <v>19</v>
@@ -7699,10 +7699,10 @@
         <v>21</v>
       </c>
       <c r="J54" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,13 +7717,13 @@
         <v>1.13</v>
       </c>
       <c r="P54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q54" t="n">
         <v>1.41</v>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S54" t="n">
         <v>2.06</v>
@@ -7756,7 +7756,7 @@
         <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="n">
         <v>70</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H55" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K55" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5.3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7846,22 +7846,22 @@
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P55" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R55" t="n">
         <v>1.46</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T55" t="n">
         <v>2.06</v>
@@ -7876,46 +7876,46 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z55" t="n">
         <v>990</v>
       </c>
       <c r="AA55" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE55" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG55" t="n">
         <v>10.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI55" t="n">
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL55" t="n">
         <v>40</v>
@@ -7924,7 +7924,7 @@
         <v>180</v>
       </c>
       <c r="AN55" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -8098,7 +8098,7 @@
         <v>4.3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>2.04</v>
@@ -8131,7 +8131,7 @@
         <v>1.31</v>
       </c>
       <c r="S57" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
         <v>1.95</v>
@@ -8152,7 +8152,7 @@
         <v>8.4</v>
       </c>
       <c r="Z57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA57" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -685,7 +685,7 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -694,7 +694,7 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
         <v>2.46</v>
@@ -718,7 +718,7 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
@@ -769,7 +769,7 @@
         <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -976,7 +976,7 @@
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.68</v>
@@ -1243,76 +1243,76 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
@@ -1354,13 +1354,13 @@
         <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1381,7 +1381,7 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1393,7 +1393,7 @@
         <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1480,16 +1480,16 @@
         <v>4.8</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>9.6</v>
@@ -1624,10 +1624,10 @@
         <v>2.44</v>
       </c>
       <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>1.54</v>
@@ -1636,22 +1636,22 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.55</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.18</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>80</v>
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
@@ -1798,7 +1798,7 @@
         <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,91 +1882,91 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.57</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="U11" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="W11" t="n">
         <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA11" t="n">
         <v>16.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2035,7 +2035,7 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2056,31 +2056,31 @@
         <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2089,40 +2089,40 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
       </c>
       <c r="AI12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>38</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>42</v>
-      </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2290,19 +2290,19 @@
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,88 +2311,88 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
         <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
         <v>50</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2581,13 +2581,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q16" t="n">
         <v>2.08</v>
@@ -2608,7 +2608,7 @@
         <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -2722,7 +2722,7 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q17" t="n">
         <v>2.18</v>
@@ -2743,7 +2743,7 @@
         <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2851,16 +2851,16 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
@@ -3256,16 +3256,16 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3391,28 +3391,28 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q22" t="n">
         <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
         <v>1.06</v>
@@ -3430,16 +3430,16 @@
         <v>160</v>
       </c>
       <c r="AA22" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
         <v>16</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="n">
         <v>260</v>
@@ -3457,7 +3457,7 @@
         <v>190</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK22" t="n">
         <v>13</v>
@@ -3469,10 +3469,10 @@
         <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,10 +3514,10 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3532,10 +3532,10 @@
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -3544,16 +3544,16 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3574,16 +3574,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
@@ -3604,10 +3604,10 @@
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3655,16 +3655,16 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
         <v>1.78</v>
@@ -3673,76 +3673,76 @@
         <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>2.02</v>
@@ -3784,55 +3784,55 @@
         <v>2.06</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
         <v>24</v>
@@ -3850,13 +3850,13 @@
         <v>19.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
@@ -3874,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
         <v>13.5</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
@@ -3925,52 +3925,52 @@
         <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q26" t="n">
         <v>2.32</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
         <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>9</v>
@@ -3979,25 +3979,25 @@
         <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>42</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK26" t="n">
         <v>30</v>
@@ -4006,13 +4006,13 @@
         <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>4.8</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.85</v>
       </c>
-      <c r="K27" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W27" t="n">
         <v>2.12</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC27" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4180,73 +4180,73 @@
         <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
@@ -4255,34 +4255,34 @@
         <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -4312,34 +4312,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
         <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="I29" t="n">
         <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
         <v>1.84</v>
@@ -4348,76 +4348,76 @@
         <v>1.73</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>2.14</v>
@@ -4465,94 +4465,94 @@
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
         <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4591,16 +4591,16 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
         <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4618,25 +4618,25 @@
         <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T31" t="n">
         <v>1.66</v>
       </c>
       <c r="U31" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="X31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4645,7 +4645,7 @@
         <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
@@ -4654,40 +4654,40 @@
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
         <v>5.1</v>
       </c>
       <c r="AO31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
@@ -4720,10 +4720,10 @@
         <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>3.55</v>
@@ -4735,16 +4735,16 @@
         <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P32" t="n">
         <v>1.53</v>
@@ -4753,76 +4753,76 @@
         <v>2.6</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4864,100 +4864,100 @@
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
         <v>1.01</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4996,37 +4996,37 @@
         <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.65</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O34" t="n">
         <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T34" t="n">
         <v>1.9</v>
@@ -5035,52 +5035,52 @@
         <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
         <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
         <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
         <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
         <v>40</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H35" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
@@ -5170,64 +5170,64 @@
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
         <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA35" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB35" t="n">
         <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK35" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO35" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -5257,37 +5257,37 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H36" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.95</v>
       </c>
-      <c r="K36" t="n">
-        <v>4</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" t="n">
         <v>1.91</v>
@@ -5296,7 +5296,7 @@
         <v>1.4</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T36" t="n">
         <v>1.83</v>
@@ -5305,10 +5305,10 @@
         <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X36" t="n">
         <v>16</v>
@@ -5323,7 +5323,7 @@
         <v>140</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T37" t="n">
         <v>1.01</v>
       </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.01</v>
       </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,34 +5662,34 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
         <v>1.24</v>
@@ -5698,76 +5698,76 @@
         <v>1.01</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5797,112 +5797,112 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.01</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G42" t="n">
         <v>2.8</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.82</v>
-      </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
         <v>3.05</v>
@@ -6091,7 +6091,7 @@
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O42" t="n">
         <v>1.52</v>
@@ -6100,7 +6100,7 @@
         <v>1.61</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R42" t="n">
         <v>1.22</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
         <v>9.199999999999999</v>
@@ -6157,7 +6157,7 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
         <v>40</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G44" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H44" t="n">
         <v>3.35</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6475,19 +6475,19 @@
         <v>1.93</v>
       </c>
       <c r="G45" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H45" t="n">
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>32</v>
       </c>
       <c r="AL45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
         <v>360</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="G47" t="n">
         <v>21</v>
@@ -6754,7 +6754,7 @@
         <v>1.28</v>
       </c>
       <c r="J47" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="K47" t="n">
         <v>9.199999999999999</v>
@@ -6766,28 +6766,28 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O47" t="n">
         <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="R47" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S47" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>12.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA47" t="n">
         <v>11.5</v>
@@ -6820,7 +6820,7 @@
         <v>17.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG47" t="n">
         <v>1000</v>
@@ -6838,16 +6838,16 @@
         <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AM47" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN47" t="n">
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I48" t="n">
         <v>5.2</v>
       </c>
       <c r="J48" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K48" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6901,22 +6901,22 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R48" t="n">
         <v>1.7</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T48" t="n">
         <v>1.61</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y48" t="n">
         <v>27</v>
@@ -6949,7 +6949,7 @@
         <v>11.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -6958,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH48" t="n">
         <v>17.5</v>
@@ -6979,7 +6979,7 @@
         <v>65</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO48" t="n">
         <v>42</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H49" t="n">
         <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>1.99</v>
       </c>
       <c r="U49" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J50" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K50" t="n">
         <v>4.9</v>
@@ -7180,7 +7180,7 @@
         <v>1.67</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G51" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="I51" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7315,7 +7315,7 @@
         <v>2.36</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="I52" t="n">
         <v>1.67</v>
@@ -7432,7 +7432,7 @@
         <v>4.1</v>
       </c>
       <c r="K52" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q52" t="n">
         <v>1.57</v>
@@ -7699,10 +7699,10 @@
         <v>21</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,19 +7717,19 @@
         <v>1.13</v>
       </c>
       <c r="P54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.41</v>
       </c>
       <c r="R54" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S54" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U54" t="n">
         <v>1.83</v>
@@ -7762,7 +7762,7 @@
         <v>70</v>
       </c>
       <c r="AE54" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="n">
         <v>9.4</v>
@@ -7777,7 +7777,7 @@
         <v>200</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK54" t="n">
         <v>15</v>
@@ -7786,10 +7786,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G55" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H55" t="n">
         <v>8.199999999999999</v>
@@ -7837,7 +7837,7 @@
         <v>5.1</v>
       </c>
       <c r="K55" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>32</v>
       </c>
       <c r="AE55" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF55" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH55" t="n">
         <v>27</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
         <v>4.1</v>
       </c>
-      <c r="G57" t="n">
-        <v>4.3</v>
-      </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I57" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J57" t="n">
         <v>3.75</v>
@@ -8131,7 +8131,7 @@
         <v>1.31</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T57" t="n">
         <v>1.95</v>
@@ -8152,7 +8152,7 @@
         <v>8.4</v>
       </c>
       <c r="Z57" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA57" t="n">
         <v>24</v>
@@ -8233,34 +8233,34 @@
         <v>4.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I58" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q58" t="n">
         <v>2.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.14</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,7 @@
         <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
         <v>2.48</v>
@@ -712,7 +712,7 @@
         <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -976,7 +976,7 @@
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -985,7 +985,7 @@
         <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
         <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
         <v>3.25</v>
@@ -1228,16 +1228,16 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1249,10 +1249,10 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.45</v>
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1282,7 +1282,7 @@
         <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
         <v>25</v>
@@ -1360,10 +1360,10 @@
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>3.05</v>
@@ -1618,16 +1618,16 @@
         <v>3.8</v>
       </c>
       <c r="H9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.42</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.44</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>1.54</v>
@@ -1660,7 +1660,7 @@
         <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>1.35</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>80</v>
@@ -1885,13 +1885,13 @@
         <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
         <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,34 +1906,34 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1966,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -2023,10 +2023,10 @@
         <v>2.66</v>
       </c>
       <c r="H12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.92</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2035,7 +2035,7 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,10 +2047,10 @@
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
@@ -2059,10 +2059,10 @@
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
@@ -2071,7 +2071,7 @@
         <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2098,10 +2098,10 @@
         <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -2155,13 +2155,13 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2182,7 +2182,7 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.97</v>
@@ -2239,7 +2239,7 @@
         <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>19.5</v>
@@ -2290,13 +2290,13 @@
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
@@ -2320,7 +2320,7 @@
         <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2335,10 +2335,10 @@
         <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2428,13 +2428,13 @@
         <v>6.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q15" t="n">
         <v>2.38</v>
@@ -2467,10 +2467,10 @@
         <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
         <v>1.18</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,7 +2581,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
@@ -2590,13 +2590,13 @@
         <v>1.54</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
         <v>2.8</v>
@@ -2701,7 +2701,7 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2710,13 +2710,13 @@
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>1.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
         <v>1.56</v>
@@ -2770,7 +2770,7 @@
         <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>17.5</v>
@@ -2782,10 +2782,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
         <v>75</v>
@@ -2818,103 +2818,103 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="W18" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2953,103 +2953,103 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.5</v>
       </c>
-      <c r="G19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K19" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.35</v>
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
         <v>1.82</v>
@@ -3148,7 +3148,7 @@
         <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3382,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.24</v>
@@ -3397,16 +3397,16 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
         <v>2.12</v>
@@ -3505,7 +3505,7 @@
         <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,7 +3514,7 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3541,19 +3541,19 @@
         <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="G24" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="R24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.25</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W24" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD24" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>46</v>
-      </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>1.46</v>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>1.58</v>
       </c>
       <c r="H25" t="n">
-        <v>2.02</v>
+        <v>6.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.06</v>
+        <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>1.71</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>1.94</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>1.32</v>
+        <v>2.72</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AE25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>2.04</v>
       </c>
       <c r="J26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.25</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="W26" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="X26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14</v>
-      </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.41</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W27" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD27" t="n">
         <v>14</v>
       </c>
-      <c r="Z27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4210,10 +4210,10 @@
         <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
         <v>3.2</v>
@@ -4222,19 +4222,19 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
         <v>42</v>
@@ -4267,7 +4267,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -4279,7 +4279,7 @@
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO28" t="n">
         <v>75</v>
@@ -4315,7 +4315,7 @@
         <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H29" t="n">
         <v>1.25</v>
@@ -4324,7 +4324,7 @@
         <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>1000</v>
@@ -4345,7 +4345,7 @@
         <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
         <v>1.31</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>1.87</v>
+        <v>6.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>2.88</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>1.87</v>
+        <v>2.46</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>2.92</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
         <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>15</v>
       </c>
-      <c r="AH30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
-      </c>
       <c r="AK30" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>1.87</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
-        <v>2.46</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>2.94</v>
+        <v>1.9</v>
       </c>
       <c r="X31" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>75</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>1.42</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="G34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="X34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y34" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>15</v>
-      </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO34" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5113,118 +5113,118 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W35" t="n">
         <v>2.16</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.82</v>
-      </c>
       <c r="X35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF35" t="n">
         <v>11</v>
       </c>
-      <c r="Y35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ35" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AO35" t="n">
         <v>70</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>2.36</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="W36" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="G37" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="H37" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="J37" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>110</v>
+        <v>6.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>FC Guidonia Montecelio 1937</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="I38" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K38" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,22 +5551,22 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.81</v>
+        <v>1.02</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5575,10 +5575,10 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="H39" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>2.74</v>
       </c>
       <c r="J39" t="n">
         <v>2.78</v>
       </c>
       <c r="K39" t="n">
-        <v>110</v>
+        <v>5.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,22 +5686,22 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.29</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.52</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="J40" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>2.28</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,10 +5845,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="W40" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
-        <v>1.99</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P41" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,126 +6053,126 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="G42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I42" t="n">
         <v>2.8</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J42" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.05</v>
       </c>
-      <c r="K42" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="O42" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="P42" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T42" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AA42" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK42" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM42" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AN42" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.15</v>
       </c>
-      <c r="G43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K43" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="G44" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P44" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>2.94</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.93</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>1.22</v>
       </c>
       <c r="I45" t="n">
-        <v>5.9</v>
+        <v>1.28</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>2.48</v>
+        <v>5.6</v>
       </c>
       <c r="O45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.64</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.17</v>
-      </c>
       <c r="S45" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X45" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>44</v>
+        <v>10.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>230</v>
+        <v>11.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AD45" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>140</v>
+        <v>17.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.800000000000001</v>
+        <v>190</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AM45" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="AN45" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>290</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="46">
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H46" t="n">
         <v>3.05</v>
@@ -6619,106 +6619,106 @@
         <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K46" t="n">
         <v>1000</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.48</v>
       </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11.5</v>
+        <v>1.66</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
-        <v>1.22</v>
+        <v>5.2</v>
       </c>
       <c r="I47" t="n">
-        <v>1.28</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X47" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN47" t="n">
         <v>6.4</v>
       </c>
-      <c r="K47" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>220</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO47" t="n">
-        <v>4.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="G48" t="n">
-        <v>1.68</v>
+        <v>2.34</v>
       </c>
       <c r="H48" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="U48" t="n">
-        <v>2.54</v>
+        <v>1.95</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AA48" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AB48" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF48" t="n">
         <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO48" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.32</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>2.36</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>1.49</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T49" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE49" t="n">
         <v>24</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="n">
         <v>75</v>
       </c>
-      <c r="AB49" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ49" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,126 +7133,126 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>1.44</v>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
-        <v>1.47</v>
+        <v>5.1</v>
       </c>
       <c r="I50" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="J50" t="n">
         <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P50" t="n">
-        <v>1.67</v>
+        <v>2.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R51" t="n">
         <v>1.44</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>950</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,36 +7403,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,66 +7538,66 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,64 +7606,64 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,61 +7678,61 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="G54" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="H54" t="n">
-        <v>19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="K54" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>3.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="S54" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U54" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,55 +7741,55 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>220</v>
+        <v>990</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB54" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AE54" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH54" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AI54" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL54" t="n">
         <v>40</v>
       </c>
       <c r="AM54" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,66 +7808,66 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="G55" t="n">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="J55" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q55" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R55" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -7876,64 +7876,64 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,61 +7948,61 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>1.82</v>
+        <v>4.3</v>
       </c>
       <c r="H56" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P56" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -8011,64 +8011,64 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL56" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,66 +8078,66 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -8146,192 +8146,57 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM57" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO57" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2026-01-04</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Alverca</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Famalicao</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -688,7 +688,7 @@
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>5.3</v>
@@ -697,13 +697,13 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
         <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>2.48</v>
@@ -712,7 +712,7 @@
         <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -727,16 +727,16 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>25</v>
@@ -745,34 +745,34 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +808,7 @@
         <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>5.9</v>
@@ -817,7 +817,7 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -946,16 +946,16 @@
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -976,7 +976,7 @@
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -985,7 +985,7 @@
         <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1213,10 +1213,10 @@
         <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1255,10 +1255,10 @@
         <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
@@ -1300,7 +1300,7 @@
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>75</v>
@@ -1354,13 +1354,13 @@
         <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1393,7 +1393,7 @@
         <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1402,7 +1402,7 @@
         <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>110</v>
@@ -1414,7 +1414,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1426,16 +1426,16 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,7 +1444,7 @@
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>85</v>
@@ -1645,13 +1645,13 @@
         <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.18</v>
@@ -1891,10 +1891,10 @@
         <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
         <v>4.4</v>
@@ -1906,16 +1906,16 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
@@ -1930,7 +1930,7 @@
         <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -1939,16 +1939,16 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -1966,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="AH11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2041,19 +2041,19 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
@@ -2062,16 +2062,16 @@
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2089,7 +2089,7 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>30</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -2110,7 +2110,7 @@
         <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2155,7 +2155,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
         <v>2.02</v>
@@ -2299,10 +2299,10 @@
         <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2464,16 +2464,16 @@
         <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X15" t="n">
         <v>12.5</v>
@@ -2743,7 +2743,7 @@
         <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2830,22 +2830,22 @@
         <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="I18" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2860,13 +2860,13 @@
         <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2968,79 +2968,79 @@
         <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="V19" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="W19" t="n">
         <v>1.12</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG19" t="n">
         <v>38</v>
@@ -3049,7 +3049,7 @@
         <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3130,13 +3130,13 @@
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
@@ -3604,7 +3604,7 @@
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
         <v>100</v>
@@ -3667,7 +3667,7 @@
         <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q24" t="n">
         <v>2.28</v>
@@ -3691,7 +3691,7 @@
         <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
         <v>14</v>
@@ -3706,7 +3706,7 @@
         <v>7.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>19.5</v>
@@ -3739,7 +3739,7 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>100</v>
@@ -3802,7 +3802,7 @@
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
         <v>1.88</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G26" t="n">
         <v>4.1</v>
@@ -3919,13 +3919,13 @@
         <v>2.04</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3940,16 +3940,16 @@
         <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
         <v>2.2</v>
@@ -3958,7 +3958,7 @@
         <v>1.96</v>
       </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3973,10 +3973,10 @@
         <v>24</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
         <v>10.5</v>
@@ -3985,10 +3985,10 @@
         <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -4048,7 +4048,7 @@
         <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>3.45</v>
@@ -4066,13 +4066,13 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.3</v>
@@ -4084,13 +4084,13 @@
         <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
         <v>1.66</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.72</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.73</v>
       </c>
       <c r="H28" t="n">
         <v>5.5</v>
@@ -4189,7 +4189,7 @@
         <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
         <v>4.3</v>
@@ -4207,7 +4207,7 @@
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
         <v>1.91</v>
@@ -4222,13 +4222,13 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X28" t="n">
         <v>16.5</v>
@@ -4252,7 +4252,7 @@
         <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
         <v>9.800000000000001</v>
@@ -4282,7 +4282,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4453,7 +4453,7 @@
         <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>7.2</v>
@@ -4483,10 +4483,10 @@
         <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S30" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T30" t="n">
         <v>1.66</v>
@@ -4498,7 +4498,7 @@
         <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X30" t="n">
         <v>30</v>
@@ -4720,10 +4720,10 @@
         <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
         <v>3.55</v>
@@ -4894,10 +4894,10 @@
         <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>1.27</v>
@@ -4990,7 +4990,7 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.85</v>
@@ -4999,10 +4999,10 @@
         <v>4.1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5011,46 +5011,46 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
         <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S34" t="n">
         <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB34" t="n">
         <v>8</v>
@@ -5092,7 +5092,7 @@
         <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
         <v>5.1</v>
@@ -5137,7 +5137,7 @@
         <v>3.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
@@ -5173,7 +5173,7 @@
         <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5200,10 +5200,10 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH35" t="n">
         <v>19</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G38" t="n">
         <v>2.92</v>
@@ -5575,7 +5575,7 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W38" t="n">
         <v>1.52</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="I39" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="J39" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="W39" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5803,7 +5803,7 @@
         <v>4.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I40" t="n">
         <v>2.64</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
         <v>3.15</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O41" t="n">
         <v>1.52</v>
@@ -5983,7 +5983,7 @@
         <v>1.46</v>
       </c>
       <c r="W41" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X41" t="n">
         <v>8.800000000000001</v>
@@ -6106,7 +6106,7 @@
         <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T42" t="n">
         <v>2.12</v>
@@ -6115,7 +6115,7 @@
         <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>3.3</v>
@@ -6229,76 +6229,76 @@
         <v>1.72</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P43" t="n">
         <v>1.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI43" t="n">
         <v>65</v>
       </c>
-      <c r="AF43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
         <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M44" t="n">
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O44" t="n">
         <v>1.64</v>
@@ -6400,7 +6400,7 @@
         <v>42</v>
       </c>
       <c r="AA44" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB44" t="n">
         <v>5.8</v>
@@ -6424,7 +6424,7 @@
         <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,13 +6436,13 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="n">
         <v>25</v>
       </c>
       <c r="AO44" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -6754,7 +6754,7 @@
         <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K47" t="n">
         <v>4.9</v>
@@ -6775,7 +6775,7 @@
         <v>2.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
         <v>1.7</v>
@@ -6787,7 +6787,7 @@
         <v>1.61</v>
       </c>
       <c r="U47" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V47" t="n">
         <v>1.23</v>
@@ -6796,7 +6796,7 @@
         <v>2.48</v>
       </c>
       <c r="X47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G48" t="n">
         <v>2.34</v>
@@ -6886,10 +6886,10 @@
         <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>3.35</v>
@@ -6922,10 +6922,10 @@
         <v>1.99</v>
       </c>
       <c r="U48" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W48" t="n">
         <v>1.74</v>
@@ -7015,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H49" t="n">
         <v>1.46</v>
@@ -7024,10 +7024,10 @@
         <v>1.49</v>
       </c>
       <c r="J49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7036,7 +7036,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -7045,73 +7045,73 @@
         <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB49" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
         <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH49" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI49" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="n">
         <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="n">
         <v>1000</v>
@@ -7183,7 +7183,7 @@
         <v>1.47</v>
       </c>
       <c r="R50" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>2.16</v>
@@ -7288,13 +7288,13 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
         <v>1.67</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K51" t="n">
         <v>5.9</v>
@@ -7318,7 +7318,7 @@
         <v>1.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S51" t="n">
         <v>2.28</v>
@@ -7339,7 +7339,7 @@
         <v>32</v>
       </c>
       <c r="Y51" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z51" t="n">
         <v>15.5</v>
@@ -7357,7 +7357,7 @@
         <v>14.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7570,7 +7570,7 @@
         <v>8.6</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -7588,22 +7588,22 @@
         <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
       </c>
       <c r="T53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U53" t="n">
         <v>1.83</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="X53" t="n">
         <v>40</v>
@@ -7621,25 +7621,25 @@
         <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD53" t="n">
         <v>70</v>
       </c>
       <c r="AE53" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="n">
         <v>9.4</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH53" t="n">
         <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AJ53" t="n">
         <v>9.199999999999999</v>
@@ -7651,7 +7651,7 @@
         <v>40</v>
       </c>
       <c r="AM53" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN53" t="n">
         <v>3.1</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G54" t="n">
         <v>1.46</v>
@@ -7702,10 +7702,10 @@
         <v>5.1</v>
       </c>
       <c r="K54" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7720,79 +7720,79 @@
         <v>2.18</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
         <v>1.46</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T54" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X54" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
         <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
         <v>32</v>
       </c>
       <c r="AE54" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="n">
         <v>6.8</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55">
@@ -7822,34 +7822,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G55" t="n">
         <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I55" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P55" t="n">
         <v>1.78</v>
@@ -7858,76 +7858,76 @@
         <v>2.18</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7975,7 +7975,7 @@
         <v>3.8</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -7990,7 +7990,7 @@
         <v>1.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R56" t="n">
         <v>1.31</v>
@@ -8005,19 +8005,19 @@
         <v>1.99</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y56" t="n">
         <v>8.4</v>
       </c>
       <c r="Z56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA56" t="n">
         <v>24</v>
@@ -8026,7 +8026,7 @@
         <v>13.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD56" t="n">
         <v>10.5</v>
@@ -8041,13 +8041,13 @@
         <v>16.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI56" t="n">
         <v>42</v>
       </c>
       <c r="AJ56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="n">
         <v>60</v>
@@ -8056,13 +8056,13 @@
         <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO56" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G57" t="n">
         <v>4.3</v>
@@ -8101,25 +8101,25 @@
         <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
         <v>1.72</v>
@@ -8128,76 +8128,76 @@
         <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -697,10 +697,10 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
         <v>1.6</v>
@@ -724,7 +724,7 @@
         <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>46</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>70</v>
@@ -811,7 +811,7 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
         <v>3.7</v>
@@ -940,55 +940,55 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,13 +1099,13 @@
         <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1120,13 +1120,13 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
@@ -1354,13 +1354,13 @@
         <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1393,7 +1393,7 @@
         <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1501,16 +1501,16 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
@@ -1636,13 +1636,13 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.55</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
         <v>2.68</v>
@@ -1657,10 +1657,10 @@
         <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
         <v>1.35</v>
@@ -1669,7 +1669,7 @@
         <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
         <v>12.5</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>80</v>
@@ -1711,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
         <v>80</v>
@@ -1897,7 +1897,7 @@
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,19 +1906,19 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.34</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
         <v>4.7</v>
@@ -1927,7 +1927,7 @@
         <v>2.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
         <v>2.76</v>
@@ -1939,7 +1939,7 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
         <v>8.6</v>
@@ -1954,16 +1954,16 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2050,7 +2050,7 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2155,7 +2155,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2176,7 +2176,7 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
         <v>1.32</v>
@@ -2185,16 +2185,16 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
         <v>2.06</v>
@@ -2215,10 +2215,10 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2230,7 +2230,7 @@
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2242,7 +2242,7 @@
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2299,7 +2299,7 @@
         <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,37 +2446,37 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2743,7 +2743,7 @@
         <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2830,19 +2830,19 @@
         <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>110</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,7 +2875,7 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
         <v>1.25</v>
@@ -2968,10 +2968,10 @@
         <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2986,31 +2986,31 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.64</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
         <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W19" t="n">
         <v>1.12</v>
@@ -3040,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG19" t="n">
         <v>38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3379,7 +3379,7 @@
         <v>15.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
         <v>7.4</v>
@@ -3403,7 +3403,7 @@
         <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
@@ -3433,7 +3433,7 @@
         <v>790</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>16</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,10 +3514,10 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.42</v>
@@ -3535,7 +3535,7 @@
         <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -3547,13 +3547,13 @@
         <v>1.95</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V23" t="n">
         <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3568,7 +3568,7 @@
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3577,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G24" t="n">
         <v>1.89</v>
@@ -3670,7 +3670,7 @@
         <v>1.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
         <v>1.29</v>
@@ -3703,25 +3703,25 @@
         <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>85</v>
@@ -3739,7 +3739,7 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
         <v>100</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I26" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3940,25 +3940,25 @@
         <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
         <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3970,10 +3970,10 @@
         <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
@@ -3985,7 +3985,7 @@
         <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG26" t="n">
         <v>16.5</v>
@@ -3997,22 +3997,22 @@
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
         <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
@@ -4072,7 +4072,7 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
         <v>2.3</v>
@@ -4087,25 +4087,25 @@
         <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
         <v>8.800000000000001</v>
@@ -4114,13 +4114,13 @@
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11.5</v>
@@ -4129,25 +4129,25 @@
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
         <v>1.72</v>
@@ -4186,10 +4186,10 @@
         <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
         <v>4.3</v>
@@ -4210,19 +4210,19 @@
         <v>2.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
@@ -4240,10 +4240,10 @@
         <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>8.800000000000001</v>
@@ -4261,7 +4261,7 @@
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>75</v>
@@ -4549,7 +4549,7 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO30" t="n">
         <v>65</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G31" t="n">
         <v>2.1</v>
@@ -4591,10 +4591,10 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>3.75</v>
@@ -4606,13 +4606,13 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
         <v>1.9</v>
@@ -4642,7 +4642,7 @@
         <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.51</v>
@@ -4879,10 +4879,10 @@
         <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
         <v>2.12</v>
@@ -4990,7 +4990,7 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H34" t="n">
         <v>3.85</v>
@@ -5002,7 +5002,7 @@
         <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5020,7 +5020,7 @@
         <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
@@ -5038,7 +5038,7 @@
         <v>1.32</v>
       </c>
       <c r="W34" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5125,7 +5125,7 @@
         <v>1.82</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
@@ -5134,7 +5134,7 @@
         <v>5.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
         <v>3.95</v>
@@ -5173,13 +5173,13 @@
         <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z35" t="n">
         <v>42</v>
@@ -5224,7 +5224,7 @@
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO35" t="n">
         <v>70</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G36" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J36" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K36" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5290,7 +5290,7 @@
         <v>1.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
@@ -5305,10 +5305,10 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G37" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5443,7 +5443,7 @@
         <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>110</v>
       </c>
       <c r="H38" t="n">
-        <v>2.92</v>
+        <v>1.09</v>
       </c>
       <c r="I38" t="n">
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="K38" t="n">
         <v>1000</v>
@@ -5551,7 +5551,7 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O38" t="n">
         <v>1.01</v>
@@ -5566,7 +5566,7 @@
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5578,7 +5578,7 @@
         <v>1.03</v>
       </c>
       <c r="W38" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5692,7 +5692,7 @@
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q39" t="n">
         <v>2.28</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5941,13 +5941,13 @@
         <v>3.05</v>
       </c>
       <c r="I41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.52</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
         <v>1.52</v>
@@ -5965,7 +5965,7 @@
         <v>1.61</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R41" t="n">
         <v>1.22</v>
@@ -5980,7 +5980,7 @@
         <v>1.88</v>
       </c>
       <c r="V41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
         <v>1.54</v>
@@ -5989,10 +5989,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA41" t="n">
         <v>55</v>
@@ -6115,7 +6115,7 @@
         <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
@@ -6226,13 +6226,13 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
         <v>2.18</v>
@@ -6340,10 +6340,10 @@
         <v>1.95</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="n">
         <v>5.8</v>
@@ -6361,13 +6361,13 @@
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O44" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q44" t="n">
         <v>2.94</v>
@@ -6385,16 +6385,16 @@
         <v>1.62</v>
       </c>
       <c r="V44" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z44" t="n">
         <v>42</v>
@@ -6421,10 +6421,10 @@
         <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,10 +6436,10 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO44" t="n">
         <v>240</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
         <v>21</v>
@@ -6496,7 +6496,7 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
@@ -6505,22 +6505,22 @@
         <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T45" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U45" t="n">
         <v>1.73</v>
       </c>
       <c r="V45" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W45" t="n">
         <v>1.05</v>
@@ -6529,10 +6529,10 @@
         <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA45" t="n">
         <v>11.5</v>
@@ -6541,7 +6541,7 @@
         <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
         <v>14.5</v>
@@ -6745,7 +6745,7 @@
         <v>1.66</v>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H47" t="n">
         <v>5.2</v>
@@ -6775,7 +6775,7 @@
         <v>2.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
         <v>1.7</v>
@@ -6808,13 +6808,13 @@
         <v>120</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
@@ -6832,13 +6832,13 @@
         <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK47" t="n">
         <v>14.5</v>
       </c>
       <c r="AL47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM47" t="n">
         <v>65</v>
@@ -6904,7 +6904,7 @@
         <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P48" t="n">
         <v>1.73</v>
@@ -6916,7 +6916,7 @@
         <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T48" t="n">
         <v>1.99</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G49" t="n">
         <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I49" t="n">
         <v>1.49</v>
@@ -7027,7 +7027,7 @@
         <v>4.5</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7045,13 +7045,13 @@
         <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T49" t="n">
         <v>2.48</v>
@@ -7066,31 +7066,31 @@
         <v>1.11</v>
       </c>
       <c r="X49" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y49" t="n">
         <v>5.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB49" t="n">
         <v>22</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG49" t="n">
         <v>40</v>
@@ -7102,22 +7102,22 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AK49" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -7150,10 +7150,10 @@
         <v>1.44</v>
       </c>
       <c r="G50" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H50" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I50" t="n">
         <v>13.5</v>
@@ -7162,7 +7162,7 @@
         <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,16 +7171,16 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="O50" t="n">
         <v>1.16</v>
       </c>
       <c r="P50" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R50" t="n">
         <v>1.5</v>
@@ -7198,7 +7198,7 @@
         <v>1.08</v>
       </c>
       <c r="W50" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7567,7 +7567,7 @@
         <v>8.4</v>
       </c>
       <c r="K53" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L53" t="n">
         <v>1.19</v>
@@ -7588,7 +7588,7 @@
         <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
@@ -7627,7 +7627,7 @@
         <v>70</v>
       </c>
       <c r="AE53" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="n">
         <v>9.4</v>
@@ -7648,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="AL53" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM53" t="n">
         <v>210</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G54" t="n">
         <v>1.46</v>
@@ -7696,7 +7696,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J54" t="n">
         <v>5.1</v>
@@ -7717,7 +7717,7 @@
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.79</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="G55" t="n">
         <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I55" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>1.45</v>
@@ -7870,13 +7870,13 @@
         <v>1.67</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W55" t="n">
         <v>2.32</v>
       </c>
       <c r="X55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y55" t="n">
         <v>24</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G56" t="n">
         <v>4.3</v>
@@ -7996,19 +7996,19 @@
         <v>1.31</v>
       </c>
       <c r="S56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1.96</v>
       </c>
       <c r="W56" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X56" t="n">
         <v>13</v>
@@ -8101,7 +8101,7 @@
         <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
@@ -8116,7 +8116,7 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -8140,7 +8140,7 @@
         <v>1.94</v>
       </c>
       <c r="V57" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W57" t="n">
         <v>1.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -715,10 +715,10 @@
         <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -817,7 +817,7 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -976,7 +976,7 @@
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
         <v>2.1</v>
@@ -988,7 +988,7 @@
         <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
         <v>2.66</v>
@@ -1222,7 +1222,7 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1372,13 +1372,13 @@
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1387,7 +1387,7 @@
         <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1486,7 +1486,7 @@
         <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
@@ -1513,10 +1513,10 @@
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W8" t="n">
         <v>1.08</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.4</v>
@@ -1645,7 +1645,7 @@
         <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1777,7 +1777,7 @@
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
         <v>1.84</v>
@@ -1786,7 +1786,7 @@
         <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1885,7 +1885,7 @@
         <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.5</v>
@@ -1900,46 +1900,46 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.34</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.44</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="V11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
         <v>8.6</v>
@@ -1957,19 +1957,19 @@
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.84</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2038,7 +2038,7 @@
         <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.3</v>
@@ -2047,7 +2047,7 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
         <v>1.87</v>
@@ -2065,10 +2065,10 @@
         <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2092,10 +2092,10 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2302,7 +2302,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,13 +2311,13 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
         <v>2.26</v>
@@ -2476,7 +2476,7 @@
         <v>1.14</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2560,19 +2560,19 @@
         <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G18" t="n">
-        <v>110</v>
+        <v>5.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="I18" t="n">
-        <v>110</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2965,10 +2965,10 @@
         <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I19" t="n">
         <v>1.84</v>
@@ -2977,7 +2977,7 @@
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -3001,7 +3001,7 @@
         <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
         <v>1.81</v>
@@ -3016,7 +3016,7 @@
         <v>1.12</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -3028,10 +3028,10 @@
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>1.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>970</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G21" t="n">
         <v>12.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I21" t="n">
         <v>1.52</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>5.7</v>
@@ -3265,13 +3265,13 @@
         <v>1.97</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,7 +3280,7 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="W21" t="n">
         <v>1.08</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
@@ -3391,7 +3391,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3409,13 +3409,13 @@
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
         <v>4.8</v>
@@ -3424,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z22" t="n">
         <v>160</v>
@@ -3445,7 +3445,7 @@
         <v>260</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3469,7 +3469,7 @@
         <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,13 +3514,13 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3553,7 +3553,7 @@
         <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G24" t="n">
         <v>1.89</v>
@@ -3667,7 +3667,7 @@
         <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.3</v>
@@ -3694,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
         <v>34</v>
@@ -3715,13 +3715,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>85</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G25" t="n">
         <v>1.58</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3790,46 +3790,46 @@
         <v>4.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>1.71</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W25" t="n">
         <v>2.72</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,43 +3838,43 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
         <v>11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3931,25 +3931,25 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
         <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
         <v>2.18</v>
@@ -3988,13 +3988,13 @@
         <v>27</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
         <v>75</v>
@@ -4003,13 +4003,13 @@
         <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
         <v>14</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
@@ -4072,7 +4072,7 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.3</v>
@@ -4093,7 +4093,7 @@
         <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
@@ -4102,19 +4102,19 @@
         <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
         <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>46</v>
@@ -4141,13 +4141,13 @@
         <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4240,7 +4240,7 @@
         <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
         <v>8.800000000000001</v>
@@ -4261,7 +4261,7 @@
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>75</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="G29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,16 +4336,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.84</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.75</v>
       </c>
       <c r="R29" t="n">
         <v>1.31</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="W29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>7</v>
@@ -4459,10 +4459,10 @@
         <v>7.2</v>
       </c>
       <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.24</v>
@@ -4483,10 +4483,10 @@
         <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
         <v>1.66</v>
@@ -4498,7 +4498,7 @@
         <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="X30" t="n">
         <v>30</v>
@@ -4510,7 +4510,7 @@
         <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4525,7 +4525,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
         <v>9.800000000000001</v>
@@ -4549,7 +4549,7 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO30" t="n">
         <v>65</v>
@@ -4606,7 +4606,7 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -4759,7 +4759,7 @@
         <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
         <v>1.01</v>
@@ -4768,7 +4768,7 @@
         <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -4882,7 +4882,7 @@
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
         <v>2.12</v>
@@ -4993,10 +4993,10 @@
         <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>3.35</v>
@@ -5020,22 +5020,22 @@
         <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
         <v>1.81</v>
@@ -5125,7 +5125,7 @@
         <v>1.82</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
@@ -5134,10 +5134,10 @@
         <v>5.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
@@ -5167,13 +5167,13 @@
         <v>1.82</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5224,7 +5224,7 @@
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO35" t="n">
         <v>70</v>
@@ -5272,7 +5272,7 @@
         <v>2.78</v>
       </c>
       <c r="K36" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5407,7 +5407,7 @@
         <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5431,7 +5431,7 @@
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5530,16 +5530,16 @@
         <v>1.09</v>
       </c>
       <c r="G38" t="n">
-        <v>110</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>1.09</v>
+        <v>2.84</v>
       </c>
       <c r="I38" t="n">
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>1.09</v>
+        <v>2.66</v>
       </c>
       <c r="K38" t="n">
         <v>1000</v>
@@ -5560,13 +5560,13 @@
         <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5575,10 +5575,10 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5692,16 +5692,16 @@
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="W39" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G40" t="n">
         <v>4.8</v>
@@ -5806,13 +5806,13 @@
         <v>2.02</v>
       </c>
       <c r="I40" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="n">
         <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5830,7 +5830,7 @@
         <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W40" t="n">
         <v>1.26</v>
@@ -5941,7 +5941,7 @@
         <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -6097,7 +6097,7 @@
         <v>1.56</v>
       </c>
       <c r="P42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q42" t="n">
         <v>2.66</v>
@@ -6106,7 +6106,7 @@
         <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T42" t="n">
         <v>2.12</v>
@@ -6142,7 +6142,7 @@
         <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF42" t="n">
         <v>21</v>
@@ -6226,16 +6226,16 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
         <v>1.25</v>
@@ -6346,7 +6346,7 @@
         <v>5.5</v>
       </c>
       <c r="I44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6361,7 +6361,7 @@
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O44" t="n">
         <v>1.67</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="G45" t="n">
         <v>21</v>
@@ -6502,7 +6502,7 @@
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="Q45" t="n">
         <v>1.47</v>
@@ -6517,7 +6517,7 @@
         <v>2.12</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V45" t="n">
         <v>4.6</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="G46" t="n">
         <v>1.42</v>
@@ -6616,7 +6616,7 @@
         <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="J46" t="n">
         <v>5.3</v>
@@ -6649,13 +6649,13 @@
         <v>2.18</v>
       </c>
       <c r="T46" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U46" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="V46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="W46" t="n">
         <v>3</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G47" t="n">
         <v>1.68</v>
@@ -6757,7 +6757,7 @@
         <v>4.7</v>
       </c>
       <c r="K47" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6787,13 +6787,13 @@
         <v>1.61</v>
       </c>
       <c r="U47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V47" t="n">
         <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X47" t="n">
         <v>28</v>
@@ -6814,10 +6814,10 @@
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF47" t="n">
         <v>12.5</v>
@@ -6919,7 +6919,7 @@
         <v>4.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U48" t="n">
         <v>1.96</v>
@@ -6961,7 +6961,7 @@
         <v>11.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI48" t="n">
         <v>70</v>
@@ -6976,7 +6976,7 @@
         <v>48</v>
       </c>
       <c r="AM48" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN48" t="n">
         <v>25</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
         <v>1.49</v>
       </c>
       <c r="J49" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7048,10 +7048,10 @@
         <v>2.26</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T49" t="n">
         <v>2.48</v>
@@ -7072,7 +7072,7 @@
         <v>5.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA49" t="n">
         <v>12.5</v>
@@ -7102,19 +7102,19 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="AK49" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AM49" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="n">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="AO49" t="n">
         <v>11</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G50" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="H50" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I50" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="J50" t="n">
         <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="W50" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7288,25 +7288,25 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I51" t="n">
         <v>1.67</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="O51" t="n">
         <v>1.21</v>
@@ -7318,7 +7318,7 @@
         <v>1.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S51" t="n">
         <v>2.28</v>
@@ -7333,43 +7333,43 @@
         <v>2.48</v>
       </c>
       <c r="W51" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X51" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y51" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z51" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA51" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AB51" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD51" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI51" t="n">
         <v>30</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>40</v>
       </c>
       <c r="AJ51" t="n">
         <v>1000</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="G52" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H52" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,22 +7441,22 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
         <v>21</v>
@@ -7705,7 +7705,7 @@
         <v>5.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7828,7 +7828,7 @@
         <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I55" t="n">
         <v>7.6</v>
@@ -7858,7 +7858,7 @@
         <v>2.18</v>
       </c>
       <c r="R55" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
         <v>3.4</v>
@@ -7867,7 +7867,7 @@
         <v>1.87</v>
       </c>
       <c r="U55" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V55" t="n">
         <v>1.15</v>
@@ -7894,7 +7894,7 @@
         <v>12</v>
       </c>
       <c r="AD55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE55" t="n">
         <v>1000</v>
@@ -7972,7 +7972,7 @@
         <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.43</v>
@@ -8002,7 +8002,7 @@
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V56" t="n">
         <v>1.96</v>
@@ -8023,7 +8023,7 @@
         <v>24</v>
       </c>
       <c r="AB56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
         <v>8</v>
@@ -8056,7 +8056,7 @@
         <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN56" t="n">
         <v>65</v>
@@ -8113,10 +8113,10 @@
         <v>1.47</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -8128,16 +8128,16 @@
         <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U57" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V57" t="n">
         <v>1.76</v>
@@ -8146,58 +8146,58 @@
         <v>1.3</v>
       </c>
       <c r="X57" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AG57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
         <v>23</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -673,7 +673,7 @@
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.2</v>
@@ -691,28 +691,28 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.24</v>
@@ -721,58 +721,58 @@
         <v>2.4</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
         <v>29</v>
       </c>
-      <c r="Y2" t="n">
-        <v>26</v>
-      </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
         <v>2.24</v>
@@ -970,13 +970,13 @@
         <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
         <v>2.1</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,52 +1120,52 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
         <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.69</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1261,43 +1261,43 @@
         <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1345,22 +1345,22 @@
         <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1390,7 +1390,7 @@
         <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
@@ -1480,19 +1480,19 @@
         <v>4.8</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I8" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,7 +1510,7 @@
         <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1651,7 +1651,7 @@
         <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.18</v>
@@ -1711,10 +1711,10 @@
         <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
         <v>34</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1906,22 +1906,22 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
         <v>2.34</v>
@@ -2104,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
         <v>38</v>
@@ -2155,7 +2155,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2191,7 +2191,7 @@
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
         <v>1.88</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
         <v>2.02</v>
@@ -2296,13 +2296,13 @@
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2329,13 +2329,13 @@
         <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
         <v>1.98</v>
@@ -2386,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
         <v>4.7</v>
@@ -2566,7 +2566,7 @@
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
         <v>2.8</v>
@@ -2605,7 +2605,7 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
         <v>1.27</v>
@@ -2695,7 +2695,7 @@
         <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -2743,7 +2743,7 @@
         <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>970</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,82 +3232,82 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.97</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="W21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB21" t="n">
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22">
@@ -3406,7 +3406,7 @@
         <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
         <v>2.14</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3541,7 +3541,7 @@
         <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
         <v>1.95</v>
@@ -3553,7 +3553,7 @@
         <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3568,7 +3568,7 @@
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3673,7 +3673,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
         <v>4.3</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.35</v>
@@ -3796,34 +3796,34 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.32</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
         <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X25" t="n">
         <v>970</v>
@@ -3844,7 +3844,7 @@
         <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>970</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL25" t="n">
         <v>48</v>
@@ -3925,7 +3925,7 @@
         <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -4012,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="27">
@@ -4096,7 +4096,7 @@
         <v>1.7</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4318,7 +4318,7 @@
         <v>4.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I29" t="n">
         <v>2.22</v>
@@ -4342,16 +4342,16 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
         <v>1.84</v>
       </c>
       <c r="R29" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4363,7 +4363,7 @@
         <v>1.81</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4453,7 +4453,7 @@
         <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I30" t="n">
         <v>7.2</v>
@@ -4480,7 +4480,7 @@
         <v>2.88</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R30" t="n">
         <v>1.75</v>
@@ -4585,16 +4585,16 @@
         <v>1.99</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I31" t="n">
         <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.75</v>
@@ -4603,16 +4603,16 @@
         <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.89</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
@@ -4621,70 +4621,70 @@
         <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AD31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>2.62</v>
       </c>
       <c r="O32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q32" t="n">
         <v>2.6</v>
@@ -4771,7 +4771,7 @@
         <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
         <v>13.5</v>
@@ -4783,7 +4783,7 @@
         <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -4807,13 +4807,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK32" t="n">
         <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4870,19 +4870,19 @@
         <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
         <v>2.12</v>
@@ -4891,10 +4891,10 @@
         <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
         <v>32</v>
@@ -4939,10 +4939,10 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
@@ -4954,7 +4954,7 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -5020,7 +5020,7 @@
         <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
@@ -5029,7 +5029,7 @@
         <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>1.92</v>
@@ -5038,7 +5038,7 @@
         <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5047,7 +5047,7 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
         <v>90</v>
@@ -5077,7 +5077,7 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
         <v>27</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
@@ -5146,7 +5146,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -5155,25 +5155,25 @@
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
         <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5182,7 +5182,7 @@
         <v>18</v>
       </c>
       <c r="Z35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
         <v>120</v>
@@ -5200,7 +5200,7 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
         <v>9.800000000000001</v>
@@ -5215,7 +5215,7 @@
         <v>19.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL35" t="n">
         <v>38</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="G36" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I36" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
         <v>2.78</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
@@ -5305,10 +5305,10 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5551,10 +5551,10 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
         <v>1.24</v>
@@ -5566,7 +5566,7 @@
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5575,7 +5575,7 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
         <v>1.53</v>
@@ -5662,100 +5662,100 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="I39" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -5950,7 +5950,7 @@
         <v>3.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
@@ -5971,7 +5971,7 @@
         <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T41" t="n">
         <v>2.08</v>
@@ -6100,19 +6100,19 @@
         <v>1.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
         <v>5.6</v>
       </c>
       <c r="T42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V42" t="n">
         <v>1.56</v>
@@ -6166,7 +6166,7 @@
         <v>85</v>
       </c>
       <c r="AM42" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AN42" t="n">
         <v>75</v>
@@ -6223,10 +6223,10 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
@@ -6235,19 +6235,19 @@
         <v>1.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
@@ -6256,52 +6256,52 @@
         <v>1.6</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA43" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB43" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
         <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
         <v>38</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
@@ -6346,7 +6346,7 @@
         <v>5.5</v>
       </c>
       <c r="I44" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6355,13 +6355,13 @@
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M44" t="n">
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O44" t="n">
         <v>1.67</v>
@@ -6379,7 +6379,7 @@
         <v>6.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U44" t="n">
         <v>1.62</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
         <v>21</v>
@@ -6496,28 +6496,28 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S45" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V45" t="n">
         <v>4.6</v>
@@ -6547,7 +6547,7 @@
         <v>14.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>190</v>
@@ -6577,7 +6577,7 @@
         <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="46">
@@ -6760,7 +6760,7 @@
         <v>4.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6895,7 +6895,7 @@
         <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -6904,7 +6904,7 @@
         <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
         <v>1.73</v>
@@ -7036,28 +7036,28 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q49" t="n">
         <v>2.26</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="U49" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1.11</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
         <v>5.8</v>
@@ -7105,7 +7105,7 @@
         <v>520</v>
       </c>
       <c r="AK49" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AL49" t="n">
         <v>230</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G50" t="n">
         <v>1.59</v>
@@ -7159,7 +7159,7 @@
         <v>7.6</v>
       </c>
       <c r="J50" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K50" t="n">
         <v>5.5</v>
@@ -7171,88 +7171,88 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22</v>
+        <v>5.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S50" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V50" t="n">
         <v>1.15</v>
       </c>
       <c r="W50" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -7285,7 +7285,7 @@
         <v>5.2</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>1.56</v>
@@ -7315,19 +7315,19 @@
         <v>2.34</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R51" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V51" t="n">
         <v>2.48</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G52" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="H52" t="n">
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7567,7 +7567,7 @@
         <v>8.4</v>
       </c>
       <c r="K53" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L53" t="n">
         <v>1.19</v>
@@ -7582,13 +7582,13 @@
         <v>1.13</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q53" t="n">
         <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
@@ -7705,7 +7705,7 @@
         <v>5.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="H55" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I55" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
         <v>1.45</v>
@@ -7864,16 +7864,16 @@
         <v>3.4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U55" t="n">
         <v>1.68</v>
       </c>
       <c r="V55" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="X55" t="n">
         <v>17.5</v>
@@ -7888,7 +7888,7 @@
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>12</v>
@@ -7912,7 +7912,7 @@
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK55" t="n">
         <v>30</v>
@@ -7996,7 +7996,7 @@
         <v>1.31</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T56" t="n">
         <v>1.95</v>
@@ -8050,7 +8050,7 @@
         <v>100</v>
       </c>
       <c r="AK56" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL56" t="n">
         <v>70</v>
@@ -8104,7 +8104,7 @@
         <v>2.32</v>
       </c>
       <c r="J57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
         <v>3.4</v>
@@ -8116,16 +8116,16 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
@@ -8140,7 +8140,7 @@
         <v>1.96</v>
       </c>
       <c r="V57" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W57" t="n">
         <v>1.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -688,91 +688,91 @@
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>29</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>38</v>
-      </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -946,7 +946,7 @@
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -970,13 +970,13 @@
         <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
         <v>2.1</v>
@@ -985,7 +985,7 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1078,31 +1078,31 @@
         <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="P5" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
         <v>2.74</v>
@@ -1111,19 +1111,19 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
         <v>8.199999999999999</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
         <v>2.76</v>
@@ -1216,43 +1216,43 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.44</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>60</v>
@@ -1279,7 +1279,7 @@
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
         <v>44</v>
@@ -1303,7 +1303,7 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1348,10 +1348,10 @@
         <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1369,13 +1369,13 @@
         <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1384,13 +1384,13 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
         <v>1.79</v>
@@ -1408,7 +1408,7 @@
         <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>9.199999999999999</v>
@@ -1420,7 +1420,7 @@
         <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="G8" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +1630,7 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
@@ -1660,7 +1660,7 @@
         <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>1.35</v>
@@ -1696,7 +1696,7 @@
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.33</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1912,10 +1912,10 @@
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
         <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2047,10 +2047,10 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2062,10 +2062,10 @@
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>1.58</v>
@@ -2083,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2155,13 +2155,13 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2185,13 +2185,13 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
         <v>1.88</v>
@@ -2203,7 +2203,7 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2290,7 +2290,7 @@
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
@@ -2311,16 +2311,16 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
         <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2329,7 +2329,7 @@
         <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
@@ -2338,7 +2338,7 @@
         <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2440,7 +2440,7 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2560,7 +2560,7 @@
         <v>3.25</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
         <v>2.12</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2608,7 +2608,7 @@
         <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2710,7 +2710,7 @@
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2728,10 +2728,10 @@
         <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
@@ -2764,10 +2764,10 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
         <v>20</v>
@@ -2779,13 +2779,13 @@
         <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
         <v>75</v>
@@ -2854,7 +2854,7 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
         <v>1.77</v>
@@ -2965,16 +2965,16 @@
         <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
         <v>1.62</v>
       </c>
       <c r="I19" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2983,73 +2983,73 @@
         <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X19" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
       </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
       <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH19" t="n">
         <v>26</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>38</v>
-      </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,59 +3097,59 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.75</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="G21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I21" t="n">
         <v>1.51</v>
       </c>
       <c r="J21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
         <v>1.71</v>
@@ -3271,22 +3271,22 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="W21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3406,10 +3406,10 @@
         <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
@@ -3433,7 +3433,7 @@
         <v>790</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
         <v>16</v>
@@ -3511,7 +3511,7 @@
         <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3589,7 +3589,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>19.5</v>
@@ -3643,7 +3643,7 @@
         <v>1.89</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
         <v>4.9</v>
@@ -3694,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
         <v>34</v>
@@ -3739,7 +3739,7 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>100</v>
@@ -3778,13 +3778,13 @@
         <v>1.59</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I25" t="n">
         <v>10.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4.7</v>
@@ -3796,7 +3796,7 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3814,16 +3814,16 @@
         <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V25" t="n">
         <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X25" t="n">
         <v>970</v>
@@ -3913,7 +3913,7 @@
         <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I26" t="n">
         <v>2.1</v>
@@ -3946,7 +3946,7 @@
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
         <v>1.8</v>
@@ -3958,7 +3958,7 @@
         <v>1.92</v>
       </c>
       <c r="W26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3973,7 +3973,7 @@
         <v>25</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
@@ -4060,7 +4060,7 @@
         <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -4072,10 +4072,10 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4093,7 +4093,7 @@
         <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -4129,7 +4129,7 @@
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
         <v>32</v>
@@ -4141,13 +4141,13 @@
         <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G29" t="n">
         <v>4.8</v>
       </c>
       <c r="H29" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4336,16 +4336,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4453,7 +4453,7 @@
         <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>7.2</v>
@@ -4474,7 +4474,7 @@
         <v>6.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
         <v>2.88</v>
@@ -4501,7 +4501,7 @@
         <v>2.9</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
         <v>34</v>
@@ -4510,7 +4510,7 @@
         <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
@@ -4528,7 +4528,7 @@
         <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH30" t="n">
         <v>18.5</v>
@@ -4549,7 +4549,7 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO30" t="n">
         <v>65</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4609,25 +4609,25 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
         <v>1.89</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
         <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
@@ -4648,10 +4648,10 @@
         <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
         <v>970</v>
@@ -4678,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
         <v>130</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
         <v>2.54</v>
@@ -4726,7 +4726,7 @@
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
@@ -4738,88 +4738,88 @@
         <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
         <v>2.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
         <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN32" t="n">
         <v>46</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4861,13 +4861,13 @@
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4939,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4999,28 +4999,28 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
@@ -5029,10 +5029,10 @@
         <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V34" t="n">
         <v>1.33</v>
@@ -5092,7 +5092,7 @@
         <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -5131,7 +5131,7 @@
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
@@ -5155,10 +5155,10 @@
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
         <v>3.3</v>
@@ -5170,7 +5170,7 @@
         <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
         <v>2.16</v>
@@ -5218,13 +5218,13 @@
         <v>18.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO35" t="n">
         <v>70</v>
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.09</v>
+        <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="H38" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G39" t="n">
         <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I39" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
@@ -5695,7 +5695,7 @@
         <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R39" t="n">
         <v>1.19</v>
@@ -5710,13 +5710,13 @@
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W39" t="n">
         <v>1.39</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
         <v>8.6</v>
@@ -5803,16 +5803,16 @@
         <v>4.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I40" t="n">
         <v>2.6</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -6070,7 +6070,7 @@
         <v>3.2</v>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H42" t="n">
         <v>2.62</v>
@@ -6100,7 +6100,7 @@
         <v>1.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R42" t="n">
         <v>1.18</v>
@@ -6109,13 +6109,13 @@
         <v>5.6</v>
       </c>
       <c r="T42" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
@@ -6232,7 +6232,7 @@
         <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
         <v>2.2</v>
@@ -6343,10 +6343,10 @@
         <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6379,7 +6379,7 @@
         <v>6.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U44" t="n">
         <v>1.62</v>
@@ -6424,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
@@ -6496,19 +6496,19 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q45" t="n">
         <v>1.48</v>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
         <v>2.2</v>
@@ -6517,7 +6517,7 @@
         <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V45" t="n">
         <v>4.6</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="I46" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,40 +6631,40 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>2.26</v>
+        <v>5.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="R46" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U46" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V46" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z46" t="n">
         <v>1000</v>
@@ -6673,10 +6673,10 @@
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6685,25 +6685,25 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6748,10 +6748,10 @@
         <v>1.68</v>
       </c>
       <c r="H47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I47" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.3</v>
       </c>
       <c r="J47" t="n">
         <v>4.7</v>
@@ -6772,22 +6772,22 @@
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T47" t="n">
         <v>1.61</v>
       </c>
       <c r="U47" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V47" t="n">
         <v>1.23</v>
@@ -6808,7 +6808,7 @@
         <v>120</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -6817,7 +6817,7 @@
         <v>19.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF47" t="n">
         <v>12.5</v>
@@ -6829,22 +6829,22 @@
         <v>16.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="n">
         <v>18</v>
       </c>
       <c r="AK47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL47" t="n">
         <v>23</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -6883,7 +6883,7 @@
         <v>2.34</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
         <v>3.85</v>
@@ -6895,7 +6895,7 @@
         <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G49" t="n">
         <v>10</v>
@@ -7024,10 +7024,10 @@
         <v>1.49</v>
       </c>
       <c r="J49" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7048,16 +7048,16 @@
         <v>2.26</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1.11</v>
       </c>
       <c r="X49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>5.8</v>
@@ -7102,7 +7102,7 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="AK49" t="n">
         <v>230</v>
@@ -7111,10 +7111,10 @@
         <v>230</v>
       </c>
       <c r="AM49" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="n">
         <v>11</v>
@@ -7168,7 +7168,7 @@
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
         <v>5.3</v>
@@ -7285,19 +7285,19 @@
         <v>5.2</v>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
         <v>1.56</v>
       </c>
       <c r="I51" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7324,13 +7324,13 @@
         <v>2.48</v>
       </c>
       <c r="T51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U51" t="n">
         <v>2.14</v>
       </c>
       <c r="V51" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W51" t="n">
         <v>1.18</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G52" t="n">
         <v>1.79</v>
@@ -7432,7 +7432,7 @@
         <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I53" t="n">
         <v>21</v>
@@ -7570,13 +7570,13 @@
         <v>8.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.13</v>
@@ -7627,7 +7627,7 @@
         <v>70</v>
       </c>
       <c r="AE53" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="n">
         <v>9.4</v>
@@ -7639,7 +7639,7 @@
         <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ53" t="n">
         <v>9.199999999999999</v>
@@ -7648,10 +7648,10 @@
         <v>15</v>
       </c>
       <c r="AL53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM53" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="n">
         <v>3.1</v>
@@ -7693,10 +7693,10 @@
         <v>1.46</v>
       </c>
       <c r="H54" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
         <v>5.1</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G55" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H55" t="n">
         <v>5.3</v>
@@ -7873,7 +7873,7 @@
         <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X55" t="n">
         <v>17.5</v>
@@ -7990,7 +7990,7 @@
         <v>1.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R56" t="n">
         <v>1.31</v>
@@ -8002,7 +8002,7 @@
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1.96</v>
@@ -8047,7 +8047,7 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="n">
         <v>55</v>
@@ -8101,7 +8101,7 @@
         <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
@@ -8116,16 +8116,16 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
@@ -8140,10 +8140,10 @@
         <v>1.96</v>
       </c>
       <c r="V57" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X57" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -673,7 +673,7 @@
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
         <v>5.3</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -976,7 +976,7 @@
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
         <v>2.1</v>
@@ -1078,7 +1078,7 @@
         <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -1111,16 +1111,16 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
         <v>1.57</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
         <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1225,13 +1225,13 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
         <v>1.57</v>
@@ -1273,31 +1273,31 @@
         <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
         <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
         <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
         <v>1.56</v>
@@ -1696,7 +1696,7 @@
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1786,7 +1786,7 @@
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
@@ -2020,10 +2020,10 @@
         <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2062,7 +2062,7 @@
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2071,7 +2071,7 @@
         <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2083,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2116,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
         <v>1.39</v>
@@ -2194,7 +2194,7 @@
         <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
         <v>2.06</v>
@@ -2287,85 +2287,85 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2374,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>26</v>
@@ -2386,13 +2386,13 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2470,7 +2470,7 @@
         <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>1.14</v>
@@ -2596,7 +2596,7 @@
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2725,10 +2725,10 @@
         <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
         <v>3.55</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2770,13 +2770,13 @@
         <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
         <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>90</v>
@@ -2788,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,73 +2962,73 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X19" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>7.4</v>
       </c>
       <c r="Z19" t="n">
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
         <v>970</v>
@@ -3037,19 +3037,19 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>60</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
         <v>1.32</v>
@@ -3136,19 +3136,19 @@
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3271,7 +3271,7 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
         <v>1.96</v>
@@ -3406,13 +3406,13 @@
         <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
         <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
@@ -3427,10 +3427,10 @@
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3526,7 +3526,7 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3544,13 +3544,13 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="n">
         <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
@@ -3667,7 +3667,7 @@
         <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q24" t="n">
         <v>2.3</v>
@@ -3703,7 +3703,7 @@
         <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
@@ -3733,7 +3733,7 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
         <v>150</v>
@@ -3910,13 +3910,13 @@
         <v>3.85</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3940,13 +3940,13 @@
         <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.8</v>
@@ -3958,7 +3958,7 @@
         <v>1.92</v>
       </c>
       <c r="W26" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3994,7 +3994,7 @@
         <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>75</v>
@@ -4012,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
@@ -4054,10 +4054,10 @@
         <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.48</v>
@@ -4081,7 +4081,7 @@
         <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
         <v>1.94</v>
@@ -4093,10 +4093,10 @@
         <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4108,7 +4108,7 @@
         <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
@@ -4186,7 +4186,7 @@
         <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4207,7 +4207,7 @@
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
         <v>1.9</v>
@@ -4279,7 +4279,7 @@
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
         <v>80</v>
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
         <v>1.85</v>
@@ -4363,7 +4363,7 @@
         <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
         <v>1.53</v>
@@ -4483,13 +4483,13 @@
         <v>1.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
         <v>2.46</v>
@@ -4552,7 +4552,7 @@
         <v>5.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4606,25 +4606,25 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S31" t="n">
         <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U31" t="n">
         <v>2.06</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.56</v>
@@ -4747,10 +4747,10 @@
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4768,13 +4768,13 @@
         <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X32" t="n">
         <v>9.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z32" t="n">
         <v>23</v>
@@ -4789,7 +4789,7 @@
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE32" t="n">
         <v>60</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G34" t="n">
         <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5017,7 +5017,7 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
         <v>2.3</v>
@@ -5029,16 +5029,16 @@
         <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>1.93</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5053,13 +5053,13 @@
         <v>90</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
@@ -5074,10 +5074,10 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK34" t="n">
         <v>27</v>
@@ -5089,7 +5089,7 @@
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO34" t="n">
         <v>70</v>
@@ -5134,10 +5134,10 @@
         <v>5.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
@@ -5203,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH35" t="n">
         <v>19</v>
@@ -5536,10 +5536,10 @@
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K38" t="n">
         <v>3.7</v>
@@ -5575,7 +5575,7 @@
         <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
         <v>1.67</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H39" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="I39" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
@@ -5695,7 +5695,7 @@
         <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
         <v>1.19</v>
@@ -5710,10 +5710,10 @@
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5722,13 +5722,13 @@
         <v>8.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
         <v>7.4</v>
@@ -5737,13 +5737,13 @@
         <v>13.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
         <v>23</v>
@@ -5752,10 +5752,10 @@
         <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
         <v>2.06</v>
@@ -5812,7 +5812,7 @@
         <v>2.92</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,16 +5821,16 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
@@ -5848,7 +5848,7 @@
         <v>1.62</v>
       </c>
       <c r="W40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G42" t="n">
         <v>3.45</v>
@@ -6076,10 +6076,10 @@
         <v>2.62</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J42" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K42" t="n">
         <v>3.05</v>
@@ -6091,16 +6091,16 @@
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O42" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P42" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R42" t="n">
         <v>1.18</v>
@@ -6115,16 +6115,16 @@
         <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W42" t="n">
         <v>1.4</v>
       </c>
       <c r="X42" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
         <v>16</v>
@@ -6136,13 +6136,13 @@
         <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="n">
         <v>21</v>
@@ -6172,7 +6172,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -6208,7 +6208,7 @@
         <v>2.64</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>3.4</v>
@@ -6226,16 +6226,16 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
@@ -6244,10 +6244,10 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
@@ -6289,13 +6289,13 @@
         <v>970</v>
       </c>
       <c r="AI43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ43" t="n">
         <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="n">
         <v>50</v>
@@ -6364,7 +6364,7 @@
         <v>2.46</v>
       </c>
       <c r="O44" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P44" t="n">
         <v>1.48</v>
@@ -6487,7 +6487,7 @@
         <v>6.8</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6643,25 +6643,25 @@
         <v>1.56</v>
       </c>
       <c r="R46" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T46" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="V46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W46" t="n">
         <v>3.6</v>
       </c>
       <c r="X46" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
         <v>50</v>
@@ -6826,7 +6826,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI47" t="n">
         <v>44</v>
@@ -6928,7 +6928,7 @@
         <v>1.35</v>
       </c>
       <c r="W48" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X48" t="n">
         <v>10.5</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I49" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J49" t="n">
         <v>4.6</v>
       </c>
       <c r="K49" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7036,28 +7036,28 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T49" t="n">
         <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -7150,7 +7150,7 @@
         <v>1.48</v>
       </c>
       <c r="G50" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H50" t="n">
         <v>6.2</v>
@@ -7174,10 +7174,10 @@
         <v>5.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q50" t="n">
         <v>1.54</v>
@@ -7198,7 +7198,7 @@
         <v>1.15</v>
       </c>
       <c r="W50" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X50" t="n">
         <v>32</v>
@@ -7285,19 +7285,19 @@
         <v>5.2</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J51" t="n">
         <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,7 +7306,7 @@
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O51" t="n">
         <v>1.21</v>
@@ -7321,16 +7321,16 @@
         <v>1.53</v>
       </c>
       <c r="S51" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T51" t="n">
         <v>1.7</v>
       </c>
       <c r="U51" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W51" t="n">
         <v>1.18</v>
@@ -7432,7 +7432,7 @@
         <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7588,7 +7588,7 @@
         <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
@@ -7597,7 +7597,7 @@
         <v>2.12</v>
       </c>
       <c r="U53" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V53" t="n">
         <v>1.05</v>
@@ -7606,7 +7606,7 @@
         <v>5.8</v>
       </c>
       <c r="X53" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="n">
         <v>75</v>
@@ -7621,7 +7621,7 @@
         <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="n">
         <v>70</v>
@@ -7636,25 +7636,25 @@
         <v>13.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AK53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL53" t="n">
         <v>42</v>
       </c>
       <c r="AM53" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7699,10 +7699,10 @@
         <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L54" t="n">
         <v>1.34</v>
@@ -7714,7 +7714,7 @@
         <v>4.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P54" t="n">
         <v>2.2</v>
@@ -7723,10 +7723,10 @@
         <v>1.79</v>
       </c>
       <c r="R54" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
         <v>2.04</v>
@@ -7738,7 +7738,7 @@
         <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X54" t="n">
         <v>19</v>
@@ -7750,10 +7750,10 @@
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
@@ -7789,10 +7789,10 @@
         <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G55" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H55" t="n">
         <v>5.3</v>
       </c>
       <c r="I55" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
@@ -7840,16 +7840,16 @@
         <v>3.95</v>
       </c>
       <c r="L55" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="O55" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
         <v>1.78</v>
@@ -7861,70 +7861,70 @@
         <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U55" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="V55" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W55" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X55" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y55" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD55" t="n">
         <v>24</v>
       </c>
-      <c r="Z55" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>32</v>
-      </c>
       <c r="AE55" t="n">
         <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ55" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK55" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7972,7 +7972,7 @@
         <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.43</v>
@@ -7996,7 +7996,7 @@
         <v>1.31</v>
       </c>
       <c r="S56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
         <v>1.95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -673,7 +673,7 @@
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>5.3</v>
@@ -709,10 +709,10 @@
         <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -808,7 +808,7 @@
         <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>5.8</v>
@@ -817,7 +817,7 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -946,7 +946,7 @@
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1084,13 +1084,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1111,16 +1111,16 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
         <v>1.57</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I6" t="n">
         <v>3.15</v>
@@ -1255,16 +1255,16 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1345,19 +1345,19 @@
         <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1366,34 +1366,34 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1414,7 +1414,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1423,13 +1423,13 @@
         <v>15.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I8" t="n">
         <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.71</v>
@@ -1525,19 +1525,19 @@
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
@@ -1636,7 +1636,7 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1753,7 +1753,7 @@
         <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -2023,7 +2023,7 @@
         <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2119,7 +2119,7 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2155,7 +2155,7 @@
         <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2191,7 +2191,7 @@
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
         <v>1.87</v>
@@ -2203,7 +2203,7 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2290,7 +2290,7 @@
         <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
@@ -2302,7 +2302,7 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2320,25 +2320,25 @@
         <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2353,7 +2353,7 @@
         <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2464,19 +2464,19 @@
         <v>2.42</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>2.12</v>
@@ -2572,7 +2572,7 @@
         <v>2.8</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2608,7 +2608,7 @@
         <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,109 +2692,109 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>1.63</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P17" t="n">
         <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="I18" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -2854,7 +2854,7 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
         <v>1.77</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="G19" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2986,40 +2986,40 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z19" t="n">
         <v>970</v>
@@ -3037,19 +3037,19 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3124,7 +3124,7 @@
         <v>3.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
         <v>1.82</v>
@@ -3139,7 +3139,7 @@
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
@@ -3148,7 +3148,7 @@
         <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3244,7 +3244,7 @@
         <v>1.51</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>5.6</v>
@@ -3271,7 +3271,7 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
         <v>1.96</v>
@@ -3382,7 +3382,7 @@
         <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.24</v>
@@ -3409,10 +3409,10 @@
         <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
@@ -3469,7 +3469,7 @@
         <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
         <v>1.82</v>
@@ -3511,7 +3511,7 @@
         <v>5.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3544,13 +3544,13 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
@@ -3643,7 +3643,7 @@
         <v>1.89</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
         <v>4.9</v>
@@ -3685,7 +3685,7 @@
         <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
         <v>2.12</v>
@@ -3781,7 +3781,7 @@
         <v>7.2</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3940,25 +3940,25 @@
         <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
         <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X26" t="n">
         <v>16</v>
@@ -3970,7 +3970,7 @@
         <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>14.5</v>
@@ -3982,28 +3982,28 @@
         <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
         <v>75</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
         <v>90</v>
@@ -4012,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="27">
@@ -4072,10 +4072,10 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4099,7 +4099,7 @@
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
@@ -4141,13 +4141,13 @@
         <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4186,7 +4186,7 @@
         <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4207,10 +4207,10 @@
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
         <v>1.42</v>
@@ -4222,7 +4222,7 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
@@ -4279,7 +4279,7 @@
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO28" t="n">
         <v>80</v>
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
         <v>1.85</v>
@@ -4474,7 +4474,7 @@
         <v>6.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
         <v>2.88</v>
@@ -4483,13 +4483,13 @@
         <v>1.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S30" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
         <v>2.46</v>
@@ -4501,7 +4501,7 @@
         <v>2.9</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
         <v>34</v>
@@ -4528,7 +4528,7 @@
         <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH30" t="n">
         <v>18.5</v>
@@ -4549,10 +4549,10 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -4606,34 +4606,34 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
         <v>1.35</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4648,7 +4648,7 @@
         <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
         <v>8.199999999999999</v>
@@ -4741,13 +4741,13 @@
         <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
         <v>2.58</v>
@@ -4759,13 +4759,13 @@
         <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
         <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
         <v>1.63</v>
@@ -4855,7 +4855,7 @@
         <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -4876,7 +4876,7 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
@@ -5017,10 +5017,10 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
@@ -5062,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="AE34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="n">
         <v>12.5</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G35" t="n">
         <v>1.86</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
         <v>5.1</v>
@@ -5155,7 +5155,7 @@
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.4</v>
@@ -5167,7 +5167,7 @@
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
         <v>1.24</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G36" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="J36" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W36" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G37" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H37" t="n">
         <v>3.35</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5443,7 +5443,7 @@
         <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5665,16 +5665,16 @@
         <v>3.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>2.34</v>
       </c>
       <c r="I39" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J39" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
@@ -5716,10 +5716,10 @@
         <v>1.34</v>
       </c>
       <c r="X39" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z39" t="n">
         <v>15</v>
@@ -5740,7 +5740,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -5944,13 +5944,13 @@
         <v>3.15</v>
       </c>
       <c r="J41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.1</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
@@ -5977,7 +5977,7 @@
         <v>2.08</v>
       </c>
       <c r="U41" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V41" t="n">
         <v>1.47</v>
@@ -5986,10 +5986,10 @@
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z41" t="n">
         <v>18</v>
@@ -6172,7 +6172,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -6211,7 +6211,7 @@
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
@@ -6220,7 +6220,7 @@
         <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
@@ -6244,16 +6244,16 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
@@ -6517,7 +6517,7 @@
         <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V45" t="n">
         <v>4.6</v>
@@ -6643,10 +6643,10 @@
         <v>1.56</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
         <v>1.97</v>
@@ -6661,55 +6661,55 @@
         <v>3.6</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK46" t="n">
         <v>15</v>
       </c>
-      <c r="AH46" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>20</v>
-      </c>
       <c r="AL46" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H47" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J47" t="n">
         <v>4.7</v>
@@ -6787,13 +6787,13 @@
         <v>1.61</v>
       </c>
       <c r="U47" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V47" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W47" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X47" t="n">
         <v>28</v>
@@ -6802,19 +6802,19 @@
         <v>27</v>
       </c>
       <c r="Z47" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA47" t="n">
         <v>120</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="n">
         <v>50</v>
@@ -6826,13 +6826,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI47" t="n">
         <v>44</v>
       </c>
       <c r="AJ47" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK47" t="n">
         <v>14</v>
@@ -6844,7 +6844,7 @@
         <v>60</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -6922,7 +6922,7 @@
         <v>1.98</v>
       </c>
       <c r="U48" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
         <v>1.35</v>
@@ -6946,7 +6946,7 @@
         <v>8.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD48" t="n">
         <v>16</v>
@@ -7015,19 +7015,19 @@
         <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J49" t="n">
         <v>4.6</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7036,13 +7036,13 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q49" t="n">
         <v>2.28</v>
@@ -7051,13 +7051,13 @@
         <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T49" t="n">
         <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
@@ -7102,10 +7102,10 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AK49" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AL49" t="n">
         <v>230</v>
@@ -7147,85 +7147,85 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="G50" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="H50" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I50" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J50" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K50" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.16</v>
       </c>
-      <c r="P50" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W50" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="X50" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y50" t="n">
         <v>32</v>
       </c>
-      <c r="Y50" t="n">
-        <v>36</v>
-      </c>
       <c r="Z50" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE50" t="n">
         <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
         <v>12.5</v>
@@ -7234,25 +7234,25 @@
         <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ50" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AO50" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -7285,52 +7285,52 @@
         <v>5.2</v>
       </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H51" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I51" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J51" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S51" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T51" t="n">
         <v>1.7</v>
       </c>
       <c r="U51" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="W51" t="n">
         <v>1.18</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="52">
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I52" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
@@ -7450,13 +7450,13 @@
         <v>1.61</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7468,7 +7468,7 @@
         <v>1.16</v>
       </c>
       <c r="W52" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="I53" t="n">
         <v>21</v>
@@ -7588,13 +7588,13 @@
         <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
       </c>
       <c r="T53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U53" t="n">
         <v>1.84</v>
@@ -7621,7 +7621,7 @@
         <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD53" t="n">
         <v>70</v>
@@ -7642,7 +7642,7 @@
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7654,7 +7654,7 @@
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7696,13 +7696,13 @@
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K54" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.3</v>
       </c>
       <c r="L54" t="n">
         <v>1.34</v>
@@ -7717,10 +7717,10 @@
         <v>1.26</v>
       </c>
       <c r="P54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R54" t="n">
         <v>1.47</v>
@@ -7738,7 +7738,7 @@
         <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X54" t="n">
         <v>19</v>
@@ -7822,88 +7822,88 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G55" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H55" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I55" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J55" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K55" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U55" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V55" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X55" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA55" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB55" t="n">
         <v>7.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE55" t="n">
         <v>1000</v>
       </c>
       <c r="AF55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG55" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>11</v>
       </c>
       <c r="AH55" t="n">
         <v>24</v>
@@ -7972,7 +7972,7 @@
         <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.43</v>
@@ -8002,7 +8002,7 @@
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V56" t="n">
         <v>1.96</v>
@@ -8095,19 +8095,19 @@
         <v>3.9</v>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I57" t="n">
         <v>2.28</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L57" t="n">
         <v>1.47</v>
@@ -8119,25 +8119,25 @@
         <v>3.15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q57" t="n">
         <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S57" t="n">
         <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U57" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V57" t="n">
         <v>1.78</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
         <v>1.71</v>
@@ -682,7 +682,7 @@
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -700,13 +700,13 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
         <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -721,37 +721,37 @@
         <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -760,10 +760,10 @@
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>75</v>
@@ -772,7 +772,7 @@
         <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -814,10 +814,10 @@
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -961,7 +961,7 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -970,7 +970,7 @@
         <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
@@ -979,13 +979,13 @@
         <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
         <v>3.35</v>
@@ -1105,7 +1105,7 @@
         <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1114,13 +1114,13 @@
         <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
         <v>1.57</v>
@@ -1132,7 +1132,7 @@
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I6" t="n">
         <v>3.15</v>
@@ -1225,7 +1225,7 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1255,10 +1255,10 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
@@ -1267,7 +1267,7 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>60</v>
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
         <v>38</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -1357,10 +1357,10 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1372,7 +1372,7 @@
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
         <v>2.08</v>
@@ -1384,16 +1384,16 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.56</v>
@@ -1516,25 +1516,25 @@
         <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>13.5</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
         <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
         <v>2.42</v>
@@ -1630,22 +1630,22 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1654,7 +1654,7 @@
         <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.79</v>
@@ -1666,10 +1666,10 @@
         <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z9" t="n">
         <v>12.5</v>
@@ -1705,7 +1705,7 @@
         <v>80</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
         <v>85</v>
@@ -1717,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1768,7 +1768,7 @@
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>3.4</v>
@@ -1777,7 +1777,7 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
         <v>1.56</v>
@@ -1897,28 +1897,28 @@
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
         <v>4.3</v>
@@ -1930,10 +1930,10 @@
         <v>1.61</v>
       </c>
       <c r="V11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1945,31 +1945,31 @@
         <v>8.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.68</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.7</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2047,28 +2047,28 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2089,10 +2089,10 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>18</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -2182,7 +2182,7 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
         <v>1.95</v>
@@ -2191,7 +2191,7 @@
         <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
         <v>1.87</v>
@@ -2200,10 +2200,10 @@
         <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2221,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>19</v>
@@ -2290,19 +2290,19 @@
         <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2326,19 +2326,19 @@
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2386,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2443,13 +2443,13 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
         <v>1.48</v>
@@ -2461,22 +2461,22 @@
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2719,19 +2719,19 @@
         <v>2.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
         <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
         <v>1.93</v>
@@ -2764,16 +2764,16 @@
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>70</v>
       </c>
       <c r="AF17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>14</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -2782,10 +2782,10 @@
         <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
@@ -2818,79 +2818,79 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="I18" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.18</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,19 +2902,19 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="I19" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
         <v>46</v>
       </c>
-      <c r="AG19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3139,16 +3139,16 @@
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3244,13 +3244,13 @@
         <v>1.51</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
         <v>5.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3271,7 +3271,7 @@
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
         <v>1.96</v>
@@ -3373,7 +3373,7 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
         <v>15.5</v>
@@ -3403,7 +3403,7 @@
         <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S22" t="n">
         <v>2.34</v>
@@ -3505,7 +3505,7 @@
         <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.4</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
         <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD24" t="n">
         <v>34</v>
       </c>
-      <c r="AA24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>20</v>
-      </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>2.12</v>
       </c>
       <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.35</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.68</v>
-      </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="V26" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN26" t="n">
         <v>26</v>
       </c>
-      <c r="AB26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL26" t="n">
+      <c r="AO26" t="n">
         <v>50</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>14.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,37 +4033,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="G27" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
         <v>3.25</v>
@@ -4075,79 +4075,79 @@
         <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK27" t="n">
         <v>22</v>
       </c>
-      <c r="AA27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AL27" t="n">
         <v>46</v>
       </c>
-      <c r="AF27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>48</v>
-      </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
         <v>1.72</v>
@@ -4186,16 +4186,16 @@
         <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
         <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4207,10 +4207,10 @@
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
         <v>1.42</v>
@@ -4258,10 +4258,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>75</v>
@@ -4324,7 +4324,7 @@
         <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>4.1</v>
@@ -4363,7 +4363,7 @@
         <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.24</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="X30" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
         <v>32</v>
       </c>
-      <c r="Y30" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>65</v>
-      </c>
       <c r="AA30" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
         <v>13</v>
       </c>
-      <c r="AC30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>25</v>
       </c>
-      <c r="AE30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
       <c r="AK30" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.1</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>2.24</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="X31" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>1.56</v>
@@ -4747,7 +4747,7 @@
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
         <v>2.58</v>
@@ -4759,70 +4759,70 @@
         <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB32" t="n">
         <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
         <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4861,7 +4861,7 @@
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -4870,7 +4870,7 @@
         <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4882,7 +4882,7 @@
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
         <v>2.12</v>
@@ -4894,7 +4894,7 @@
         <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -5050,7 +5050,7 @@
         <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="n">
         <v>8.199999999999999</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
         <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
@@ -5170,10 +5170,10 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J36" t="n">
         <v>3.05</v>
@@ -5281,7 +5281,7 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
@@ -5305,10 +5305,10 @@
         <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X36" t="n">
         <v>13.5</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="G37" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5668,10 +5668,10 @@
         <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I39" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J39" t="n">
         <v>2.92</v>
@@ -5710,7 +5710,7 @@
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
         <v>1.34</v>
@@ -5719,7 +5719,7 @@
         <v>9.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z39" t="n">
         <v>15</v>
@@ -5734,7 +5734,7 @@
         <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
         <v>36</v>
@@ -5749,10 +5749,10 @@
         <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -5806,13 +5806,13 @@
         <v>2.06</v>
       </c>
       <c r="I40" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J40" t="n">
         <v>2.92</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W40" t="n">
         <v>1.27</v>
@@ -5938,7 +5938,7 @@
         <v>2.82</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
         <v>3.15</v>
@@ -5986,7 +5986,7 @@
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
         <v>9.199999999999999</v>
@@ -6076,22 +6076,22 @@
         <v>2.62</v>
       </c>
       <c r="I42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J42" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O42" t="n">
         <v>1.57</v>
@@ -6100,10 +6100,10 @@
         <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
         <v>5.6</v>
@@ -6115,13 +6115,13 @@
         <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X42" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -6136,7 +6136,7 @@
         <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD42" t="n">
         <v>13.5</v>
@@ -6154,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ42" t="n">
         <v>70</v>
@@ -6163,7 +6163,7 @@
         <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="n">
         <v>200</v>
@@ -6172,7 +6172,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -6229,7 +6229,7 @@
         <v>3.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P43" t="n">
         <v>1.72</v>
@@ -6244,7 +6244,7 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
         <v>2</v>
@@ -6265,13 +6265,13 @@
         <v>23</v>
       </c>
       <c r="AA43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD43" t="n">
         <v>15</v>
@@ -6280,7 +6280,7 @@
         <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6295,7 +6295,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
         <v>50</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G44" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
         <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6388,7 +6388,7 @@
         <v>1.21</v>
       </c>
       <c r="W44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X44" t="n">
         <v>7.4</v>
@@ -6403,7 +6403,7 @@
         <v>190</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC44" t="n">
         <v>7.8</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>2.34</v>
       </c>
       <c r="H45" t="n">
-        <v>1.22</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1.28</v>
+        <v>3.85</v>
       </c>
       <c r="J45" t="n">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>2.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.74</v>
       </c>
-      <c r="V45" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.05</v>
-      </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y45" t="n">
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AA45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG45" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL45" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO45" t="n">
-        <v>4.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
@@ -6610,7 +6610,7 @@
         <v>1.31</v>
       </c>
       <c r="G46" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H46" t="n">
         <v>10.5</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.65</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>5.3</v>
+        <v>1.22</v>
       </c>
       <c r="I47" t="n">
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="J47" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R47" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="V47" t="n">
-        <v>1.22</v>
+        <v>4.6</v>
       </c>
       <c r="W47" t="n">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>48</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA47" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>12.5</v>
+        <v>190</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="AM47" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="G48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S48" t="n">
         <v>2.34</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="U48" t="n">
-        <v>1.98</v>
+        <v>2.54</v>
       </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="W48" t="n">
-        <v>1.75</v>
+        <v>2.48</v>
       </c>
       <c r="X48" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AA48" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM48" t="n">
         <v>55</v>
       </c>
-      <c r="AF48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>130</v>
-      </c>
       <c r="AN48" t="n">
-        <v>25</v>
+        <v>6.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="G49" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I49" t="n">
         <v>1.49</v>
       </c>
       <c r="J49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K49" t="n">
         <v>4.8</v>
@@ -7036,7 +7036,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -7045,7 +7045,7 @@
         <v>1.68</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
         <v>1.24</v>
@@ -7057,10 +7057,10 @@
         <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W49" t="n">
         <v>1.11</v>
@@ -7102,7 +7102,7 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="AK49" t="n">
         <v>240</v>
@@ -7165,7 +7165,7 @@
         <v>5.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -7183,10 +7183,10 @@
         <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S50" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T50" t="n">
         <v>1.76</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="G51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J51" t="n">
         <v>4.1</v>
@@ -7330,7 +7330,7 @@
         <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W51" t="n">
         <v>1.18</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H52" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J52" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K52" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
         <v>1.4</v>
@@ -7441,22 +7441,22 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W52" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
         <v>21</v>
@@ -7576,7 +7576,7 @@
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
         <v>1.13</v>
@@ -7585,16 +7585,16 @@
         <v>3.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
       </c>
       <c r="T53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U53" t="n">
         <v>1.84</v>
@@ -7642,7 +7642,7 @@
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H54" t="n">
         <v>8.4</v>
@@ -7699,7 +7699,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>5.2</v>
@@ -7741,7 +7741,7 @@
         <v>3.15</v>
       </c>
       <c r="X54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
         <v>28</v>
@@ -7750,7 +7750,7 @@
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB54" t="n">
         <v>8.4</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="G55" t="n">
-        <v>1.88</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5.9</v>
+        <v>2.04</v>
       </c>
       <c r="J55" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R55" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U55" t="n">
         <v>2.02</v>
       </c>
-      <c r="U55" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="X55" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG55" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z55" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH55" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ55" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM55" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN55" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,121 +7948,121 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>1.88</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="I56" t="n">
-        <v>2.04</v>
+        <v>5.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="V56" t="n">
-        <v>1.96</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>1.3</v>
+        <v>2.14</v>
       </c>
       <c r="X56" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AA56" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH56" t="n">
         <v>24</v>
       </c>
-      <c r="AB56" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE56" t="n">
+      <c r="AI56" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK56" t="n">
         <v>23</v>
       </c>
-      <c r="AF56" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>55</v>
-      </c>
       <c r="AL56" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM56" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN56" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AO56" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8128,7 +8128,7 @@
         <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
         <v>4.1</v>
@@ -8198,6 +8198,141 @@
       </c>
       <c r="AO57" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K58" t="n">
+        <v>950</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -697,52 +697,52 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -763,16 +763,16 @@
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G3" t="n">
         <v>2.1</v>
@@ -814,7 +814,7 @@
         <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>5.1</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
         <v>2.22</v>
@@ -958,7 +958,7 @@
         <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>2.62</v>
@@ -1090,7 +1090,7 @@
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1099,7 +1099,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P5" t="n">
         <v>1.46</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
         <v>2.84</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1231,13 +1231,13 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>2.26</v>
@@ -1255,10 +1255,10 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1294,13 +1294,13 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1345,19 +1345,19 @@
         <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1390,10 +1390,10 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
         <v>7.6</v>
@@ -1486,13 +1486,13 @@
         <v>1.56</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1510,7 +1510,7 @@
         <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>1.52</v>
@@ -1525,7 +1525,7 @@
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W8" t="n">
         <v>1.16</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1642,10 +1642,10 @@
         <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1654,16 +1654,16 @@
         <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
         <v>8.800000000000001</v>
@@ -1711,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
         <v>85</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
         <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -1762,13 +1762,13 @@
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>3.4</v>
@@ -1777,7 +1777,7 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1816,7 +1816,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1915,7 +1915,7 @@
         <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.25</v>
@@ -2035,19 +2035,19 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
         <v>1.87</v>
@@ -2062,7 +2062,7 @@
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
@@ -2089,13 +2089,13 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2110,7 +2110,7 @@
         <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
         <v>1.83</v>
@@ -2164,10 +2164,10 @@
         <v>5.2</v>
       </c>
       <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
@@ -2182,22 +2182,22 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
         <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>1.23</v>
@@ -2224,7 +2224,7 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
@@ -2299,7 +2299,7 @@
         <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>3.45</v>
@@ -2317,10 +2317,10 @@
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2335,10 +2335,10 @@
         <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2470,7 +2470,7 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W15" t="n">
         <v>1.2</v>
@@ -2557,91 +2557,91 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G16" t="n">
         <v>3.35</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -2710,7 +2710,7 @@
         <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2725,13 +2725,13 @@
         <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
         <v>1.93</v>
@@ -2833,7 +2833,7 @@
         <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I18" t="n">
         <v>1.95</v>
@@ -2842,7 +2842,7 @@
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2851,7 +2851,7 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2860,7 +2860,7 @@
         <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
@@ -2869,10 +2869,10 @@
         <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>2.04</v>
@@ -2974,13 +2974,13 @@
         <v>2.28</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -2992,16 +2992,16 @@
         <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3013,7 +3013,7 @@
         <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3034,7 +3034,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3145,10 +3145,10 @@
         <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
@@ -3247,7 +3247,7 @@
         <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -3259,22 +3259,22 @@
         <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
         <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
@@ -3373,19 +3373,19 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3400,22 +3400,22 @@
         <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
         <v>4.8</v>
@@ -3424,16 +3424,16 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="n">
         <v>780</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>16</v>
@@ -3460,16 +3460,16 @@
         <v>9.4</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
         <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3508,16 +3508,16 @@
         <v>1.83</v>
       </c>
       <c r="H23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I23" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.5</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3526,7 +3526,7 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3544,7 +3544,7 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
@@ -3601,10 +3601,10 @@
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>100</v>
@@ -3646,16 +3646,16 @@
         <v>7.2</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3673,7 +3673,7 @@
         <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
         <v>3.55</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.85</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.39</v>
@@ -3805,40 +3805,40 @@
         <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
         <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
@@ -3850,34 +3850,34 @@
         <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
         <v>16.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
         <v>2.42</v>
@@ -3934,7 +3934,7 @@
         <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
         <v>1.75</v>
@@ -3973,7 +3973,7 @@
         <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
         <v>13.5</v>
@@ -4006,7 +4006,7 @@
         <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
@@ -4075,10 +4075,10 @@
         <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
         <v>4.3</v>
@@ -4087,7 +4087,7 @@
         <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
         <v>1.25</v>
@@ -4111,7 +4111,7 @@
         <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>20</v>
@@ -4120,7 +4120,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
         <v>5.5</v>
@@ -4189,10 +4189,10 @@
         <v>5.6</v>
       </c>
       <c r="J28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.36</v>
@@ -4201,19 +4201,19 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
         <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4258,7 +4258,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4315,88 +4315,88 @@
         <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
         <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -4450,13 +4450,13 @@
         <v>2.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
@@ -4471,22 +4471,22 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
         <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
         <v>1.81</v>
@@ -4501,13 +4501,13 @@
         <v>1.9</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
         <v>110</v>
@@ -4519,7 +4519,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
         <v>55</v>
@@ -4531,25 +4531,25 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
         <v>7</v>
@@ -4594,7 +4594,7 @@
         <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
         <v>5.2</v>
@@ -4606,7 +4606,7 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.16</v>
@@ -4633,7 +4633,7 @@
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="X31" t="n">
         <v>32</v>
@@ -4645,7 +4645,7 @@
         <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
@@ -4720,7 +4720,7 @@
         <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
@@ -4741,13 +4741,13 @@
         <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O32" t="n">
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
         <v>2.58</v>
@@ -4768,7 +4768,7 @@
         <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X32" t="n">
         <v>9.199999999999999</v>
@@ -4816,7 +4816,7 @@
         <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
         <v>38</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4885,7 +4885,7 @@
         <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G34" t="n">
         <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5017,7 +5017,7 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
         <v>2.32</v>
@@ -5035,10 +5035,10 @@
         <v>1.93</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5050,10 +5050,10 @@
         <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
@@ -5089,7 +5089,7 @@
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO34" t="n">
         <v>70</v>
@@ -5128,7 +5128,7 @@
         <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -5140,13 +5140,13 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -5173,7 +5173,7 @@
         <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5188,7 +5188,7 @@
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>8.6</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="G37" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1.79</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W37" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -5545,7 +5545,7 @@
         <v>3.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5569,7 +5569,7 @@
         <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
         <v>1.78</v>
@@ -5683,31 +5683,31 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P39" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
         <v>1.6</v>
@@ -5740,7 +5740,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
         <v>17</v>
@@ -5836,7 +5836,7 @@
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5956,13 +5956,13 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P41" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q41" t="n">
         <v>2.58</v>
@@ -5986,7 +5986,7 @@
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>9.199999999999999</v>
@@ -6031,7 +6031,7 @@
         <v>65</v>
       </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN41" t="n">
         <v>42</v>
@@ -6073,7 +6073,7 @@
         <v>3.45</v>
       </c>
       <c r="H42" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I42" t="n">
         <v>2.74</v>
@@ -6097,7 +6097,7 @@
         <v>1.57</v>
       </c>
       <c r="P42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q42" t="n">
         <v>2.66</v>
@@ -6118,7 +6118,7 @@
         <v>1.57</v>
       </c>
       <c r="W42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
         <v>8.6</v>
@@ -6142,7 +6142,7 @@
         <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
         <v>21</v>
@@ -6172,7 +6172,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -6262,7 +6262,7 @@
         <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
         <v>65</v>
@@ -6277,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF43" t="n">
         <v>19</v>
@@ -6286,19 +6286,19 @@
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
         <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM43" t="n">
         <v>140</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G44" t="n">
         <v>1.96</v>
@@ -6379,13 +6379,13 @@
         <v>6.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U44" t="n">
         <v>1.62</v>
       </c>
       <c r="V44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
         <v>2.04</v>
@@ -6478,16 +6478,16 @@
         <v>2.34</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.25</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -6499,7 +6499,7 @@
         <v>3.15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
         <v>1.73</v>
@@ -6613,10 +6613,10 @@
         <v>1.36</v>
       </c>
       <c r="H46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
         <v>5.5</v>
@@ -6745,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
         <v>1.22</v>
@@ -6757,7 +6757,7 @@
         <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,7 +6766,7 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O47" t="n">
         <v>1.16</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H48" t="n">
         <v>5.3</v>
       </c>
       <c r="I48" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J48" t="n">
         <v>4.7</v>
@@ -6907,25 +6907,25 @@
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R48" t="n">
         <v>1.71</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
         <v>1.61</v>
       </c>
       <c r="U48" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W48" t="n">
         <v>2.48</v>
@@ -6940,7 +6940,7 @@
         <v>48</v>
       </c>
       <c r="AA48" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB48" t="n">
         <v>13</v>
@@ -6949,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
         <v>48</v>
@@ -6967,7 +6967,7 @@
         <v>48</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
         <v>14</v>
@@ -6979,7 +6979,7 @@
         <v>55</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO48" t="n">
         <v>40</v>
@@ -7018,16 +7018,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J49" t="n">
         <v>4.7</v>
       </c>
       <c r="K49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7042,13 +7042,13 @@
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
@@ -7108,7 +7108,7 @@
         <v>240</v>
       </c>
       <c r="AL49" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
@@ -7183,7 +7183,7 @@
         <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>2.46</v>
@@ -7285,19 +7285,19 @@
         <v>5.5</v>
       </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I51" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7312,7 +7312,7 @@
         <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
@@ -7321,7 +7321,7 @@
         <v>1.51</v>
       </c>
       <c r="S51" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T51" t="n">
         <v>1.7</v>
@@ -7330,10 +7330,10 @@
         <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="W51" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X51" t="n">
         <v>25</v>
@@ -7561,10 +7561,10 @@
         <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>8.6</v>
@@ -7576,7 +7576,7 @@
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.13</v>
@@ -7603,10 +7603,10 @@
         <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="n">
         <v>75</v>
@@ -7642,7 +7642,7 @@
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G54" t="n">
         <v>1.47</v>
@@ -7696,7 +7696,7 @@
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
@@ -7708,19 +7708,19 @@
         <v>1.34</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
         <v>4.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R54" t="n">
         <v>1.47</v>
@@ -7735,10 +7735,10 @@
         <v>1.9</v>
       </c>
       <c r="V54" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
@@ -7789,7 +7789,7 @@
         <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO54" t="n">
         <v>160</v>
@@ -7831,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
@@ -7855,7 +7855,7 @@
         <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
         <v>1.31</v>
@@ -7870,7 +7870,7 @@
         <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W55" t="n">
         <v>1.3</v>
@@ -7972,7 +7972,7 @@
         <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.46</v>
@@ -8008,7 +8008,7 @@
         <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X56" t="n">
         <v>14.5</v>
@@ -8092,25 +8092,25 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G57" t="n">
         <v>3.9</v>
       </c>
-      <c r="G57" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H57" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I57" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="J57" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M57" t="n">
         <v>1.09</v>
@@ -8134,34 +8134,34 @@
         <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U57" t="n">
         <v>1.97</v>
       </c>
       <c r="V57" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="W57" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X57" t="n">
         <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA57" t="n">
         <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
         <v>11.5</v>
@@ -8170,31 +8170,31 @@
         <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG57" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="n">
         <v>150</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO57" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.72</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.73</v>
-      </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -691,43 +691,43 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
         <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>120</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -760,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>44</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -844,10 +844,10 @@
         <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.2</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>2.22</v>
@@ -970,10 +970,10 @@
         <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
         <v>5.1</v>
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1117,7 +1117,7 @@
         <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
         <v>1.34</v>
@@ -1210,16 +1210,16 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.84</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
@@ -1249,16 +1249,16 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
@@ -1279,7 +1279,7 @@
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1354,7 +1354,7 @@
         <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1438,13 +1438,13 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>80</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
         <v>7.6</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.85</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1636,7 +1636,7 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1660,16 +1660,16 @@
         <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
         <v>12.5</v>
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
@@ -1738,91 +1738,91 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>8.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1834,7 +1834,7 @@
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1873,97 +1873,97 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>2.76</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>1.11</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2050,13 +2050,13 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
@@ -2065,7 +2065,7 @@
         <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>1.59</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
         <v>5.2</v>
@@ -2176,10 +2176,10 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2188,22 +2188,22 @@
         <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
         <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2221,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>19.5</v>
@@ -2470,10 +2470,10 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
@@ -2560,7 +2560,7 @@
         <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>2.46</v>
@@ -2569,7 +2569,7 @@
         <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2596,7 +2596,7 @@
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.88</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -2818,79 +2818,79 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
         <v>4.9</v>
       </c>
-      <c r="G18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.28</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,19 +2902,19 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.55</v>
       </c>
-      <c r="G19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>1.94</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V19" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3241,7 +3241,7 @@
         <v>1.41</v>
       </c>
       <c r="I21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
@@ -3280,7 +3280,7 @@
         <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>1.1</v>
@@ -3376,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -3406,7 +3406,7 @@
         <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
         <v>2.12</v>
@@ -3418,7 +3418,7 @@
         <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X22" t="n">
         <v>30</v>
@@ -3469,7 +3469,7 @@
         <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3505,19 +3505,19 @@
         <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3529,13 +3529,13 @@
         <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
         <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -3544,31 +3544,31 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
         <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3586,16 +3586,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>85</v>
       </c>
       <c r="AJ23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK23" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
@@ -3646,7 +3646,7 @@
         <v>7.2</v>
       </c>
       <c r="I24" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3655,7 +3655,7 @@
         <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3670,7 +3670,7 @@
         <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>1.31</v>
@@ -3682,19 +3682,19 @@
         <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W24" t="n">
         <v>2.68</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="Y24" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3706,40 +3706,40 @@
         <v>7.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="AD24" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.04</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.06</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3796,16 +3796,16 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R25" t="n">
         <v>1.41</v>
@@ -3820,10 +3820,10 @@
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3832,37 +3832,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="n">
         <v>46</v>
@@ -3877,7 +3877,7 @@
         <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26">
@@ -3916,7 +3916,7 @@
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
@@ -3943,7 +3943,7 @@
         <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="n">
         <v>4.3</v>
@@ -3952,16 +3952,16 @@
         <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
         <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>11.5</v>
@@ -3991,7 +3991,7 @@
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
@@ -4006,13 +4006,13 @@
         <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4048,16 +4048,16 @@
         <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.45</v>
@@ -4066,7 +4066,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
@@ -4084,7 +4084,7 @@
         <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
         <v>1.9</v>
@@ -4099,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z27" t="n">
         <v>34</v>
@@ -4111,16 +4111,16 @@
         <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4183,10 +4183,10 @@
         <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4195,13 +4195,13 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -4213,7 +4213,7 @@
         <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4234,10 +4234,10 @@
         <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
         <v>140</v>
@@ -4261,7 +4261,7 @@
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>75</v>
@@ -4315,7 +4315,7 @@
         <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -4324,7 +4324,7 @@
         <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
         <v>1.86</v>
@@ -4351,7 +4351,7 @@
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T29" t="n">
         <v>1.73</v>
@@ -4363,61 +4363,61 @@
         <v>1.84</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X29" t="n">
         <v>19</v>
       </c>
       <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC29" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
         <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4477,16 +4477,16 @@
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
         <v>1.81</v>
@@ -4495,22 +4495,22 @@
         <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
         <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB30" t="n">
         <v>9.4</v>
@@ -4519,10 +4519,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE30" t="n">
         <v>980</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>55</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -4606,28 +4606,28 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q31" t="n">
         <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S31" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
@@ -4636,7 +4636,7 @@
         <v>2.94</v>
       </c>
       <c r="X31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4663,7 +4663,7 @@
         <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>18.5</v>
@@ -4720,7 +4720,7 @@
         <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
@@ -4744,7 +4744,7 @@
         <v>2.72</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
         <v>1.58</v>
@@ -4765,16 +4765,16 @@
         <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
         <v>22</v>
@@ -4858,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
@@ -4867,7 +4867,7 @@
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4882,10 +4882,10 @@
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
@@ -4894,10 +4894,10 @@
         <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -4918,7 +4918,7 @@
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC33" t="n">
         <v>7.8</v>
@@ -4990,10 +4990,10 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
@@ -5038,7 +5038,7 @@
         <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5059,10 +5059,10 @@
         <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
         <v>12.5</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G35" t="n">
         <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5170,7 +5170,7 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
         <v>2.16</v>
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
@@ -5395,22 +5395,22 @@
         <v>2.14</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5431,16 +5431,16 @@
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
         <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
         <v>1.72</v>
@@ -5449,13 +5449,13 @@
         <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="n">
         <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
@@ -5467,7 +5467,7 @@
         <v>18</v>
       </c>
       <c r="AE37" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF37" t="n">
         <v>18</v>
@@ -5497,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="AO37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -5686,7 +5686,7 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O39" t="n">
         <v>1.46</v>
@@ -5797,79 +5797,79 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G40" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="I40" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>1.55</v>
+        <v>2.76</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P40" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="W40" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5878,10 +5878,10 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.8</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.82</v>
-      </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
         <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L41" t="n">
         <v>1.56</v>
@@ -5956,7 +5956,7 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
         <v>1.51</v>
@@ -5971,7 +5971,7 @@
         <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T41" t="n">
         <v>2.08</v>
@@ -5980,10 +5980,10 @@
         <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W41" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -6010,7 +6010,7 @@
         <v>44</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G44" t="n">
         <v>1.96</v>
@@ -6349,7 +6349,7 @@
         <v>5.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>3.25</v>
@@ -6370,7 +6370,7 @@
         <v>1.48</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
         <v>1.17</v>
@@ -6418,7 +6418,7 @@
         <v>9.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH44" t="n">
         <v>32</v>
@@ -6484,7 +6484,7 @@
         <v>3.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
         <v>3.35</v>
@@ -6496,10 +6496,10 @@
         <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
         <v>1.73</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G46" t="n">
         <v>1.36</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I46" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
         <v>5.5</v>
@@ -6637,28 +6637,28 @@
         <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
         <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T46" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X46" t="n">
         <v>32</v>
@@ -6670,7 +6670,7 @@
         <v>130</v>
       </c>
       <c r="AA46" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AB46" t="n">
         <v>10.5</v>
@@ -6682,7 +6682,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF46" t="n">
         <v>9.199999999999999</v>
@@ -6694,7 +6694,7 @@
         <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
         <v>11.5</v>
@@ -6706,7 +6706,7 @@
         <v>38</v>
       </c>
       <c r="AM46" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
         <v>5</v>
@@ -6757,7 +6757,7 @@
         <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G48" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H48" t="n">
         <v>5.3</v>
@@ -6889,13 +6889,13 @@
         <v>5.4</v>
       </c>
       <c r="J48" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -6904,7 +6904,7 @@
         <v>6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
         <v>2.78</v>
@@ -6913,7 +6913,7 @@
         <v>1.55</v>
       </c>
       <c r="R48" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S48" t="n">
         <v>2.36</v>
@@ -6928,10 +6928,10 @@
         <v>1.23</v>
       </c>
       <c r="W48" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="X48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -6949,10 +6949,10 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF48" t="n">
         <v>12.5</v>
@@ -6961,13 +6961,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK48" t="n">
         <v>14</v>
@@ -6976,10 +6976,10 @@
         <v>23</v>
       </c>
       <c r="AM48" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO48" t="n">
         <v>40</v>
@@ -7015,19 +7015,19 @@
         <v>8.6</v>
       </c>
       <c r="G49" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I49" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J49" t="n">
         <v>4.7</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7048,7 +7048,7 @@
         <v>2.28</v>
       </c>
       <c r="R49" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
@@ -7069,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z49" t="n">
         <v>7.2</v>
@@ -7078,10 +7078,10 @@
         <v>12.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
@@ -7108,7 +7108,7 @@
         <v>240</v>
       </c>
       <c r="AL49" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
@@ -7186,7 +7186,7 @@
         <v>1.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="T50" t="n">
         <v>1.76</v>
@@ -7249,7 +7249,7 @@
         <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO50" t="n">
         <v>100</v>
@@ -7285,10 +7285,10 @@
         <v>5.5</v>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="I51" t="n">
         <v>1.68</v>
@@ -7300,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7312,10 +7312,10 @@
         <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R51" t="n">
         <v>1.51</v>
@@ -7336,40 +7336,40 @@
         <v>1.17</v>
       </c>
       <c r="X51" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -7420,16 +7420,16 @@
         <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H52" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="I52" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J52" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K52" t="n">
         <v>3.85</v>
@@ -7438,13 +7438,13 @@
         <v>1.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>1.62</v>
+        <v>2.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P52" t="n">
         <v>1.62</v>
@@ -7453,10 +7453,10 @@
         <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S52" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W52" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7483,10 +7483,10 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G53" t="n">
         <v>1.21</v>
@@ -7564,10 +7564,10 @@
         <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K53" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L53" t="n">
         <v>1.21</v>
@@ -7588,10 +7588,10 @@
         <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
         <v>2.12</v>
@@ -7603,10 +7603,10 @@
         <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X53" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="n">
         <v>75</v>
@@ -7642,7 +7642,7 @@
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7654,7 +7654,7 @@
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7696,7 +7696,7 @@
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
@@ -7708,16 +7708,16 @@
         <v>1.34</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q54" t="n">
         <v>1.79</v>
@@ -7729,10 +7729,10 @@
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
@@ -7744,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
@@ -7777,13 +7777,13 @@
         <v>120</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK54" t="n">
         <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
         <v>150</v>
@@ -7984,7 +7984,7 @@
         <v>3.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P56" t="n">
         <v>1.76</v>
@@ -8101,13 +8101,13 @@
         <v>2.24</v>
       </c>
       <c r="I57" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L57" t="n">
         <v>1.46</v>
@@ -8140,61 +8140,61 @@
         <v>1.97</v>
       </c>
       <c r="V57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W57" t="n">
         <v>1.34</v>
       </c>
       <c r="X57" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z57" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA57" t="n">
         <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE57" t="n">
         <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK57" t="n">
         <v>60</v>
       </c>
-      <c r="AJ57" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>65</v>
-      </c>
       <c r="AL57" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN57" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO57" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -670,13 +670,13 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -694,13 +694,13 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
         <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
         <v>1.61</v>
@@ -712,16 +712,16 @@
         <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>25</v>
@@ -742,13 +742,13 @@
         <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -772,7 +772,7 @@
         <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -808,31 +808,31 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -844,13 +844,13 @@
         <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>1.9</v>
@@ -943,10 +943,10 @@
         <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -970,7 +970,7 @@
         <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1081,13 +1081,13 @@
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.6</v>
@@ -1117,7 +1117,7 @@
         <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
         <v>1.34</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>2.84</v>
@@ -1225,7 +1225,7 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -1360,7 +1360,7 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1369,19 +1369,19 @@
         <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
@@ -1393,7 +1393,7 @@
         <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1444,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>80</v>
@@ -1510,7 +1510,7 @@
         <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
         <v>1.52</v>
@@ -1519,7 +1519,7 @@
         <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
@@ -1636,7 +1636,7 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1645,7 +1645,7 @@
         <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1657,13 +1657,13 @@
         <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
         <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
         <v>8.800000000000001</v>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -1696,7 +1696,7 @@
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1753,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.56</v>
@@ -1762,7 +1762,7 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
@@ -1783,7 +1783,7 @@
         <v>2.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
         <v>4.3</v>
@@ -1885,25 +1885,25 @@
         <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.4</v>
@@ -1912,13 +1912,13 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>3.15</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -2038,10 +2038,10 @@
         <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2053,16 +2053,16 @@
         <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2092,7 +2092,7 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
@@ -2104,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>38</v>
@@ -2116,7 +2116,7 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
         <v>20</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2176,16 +2176,16 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
         <v>1.4</v>
@@ -2200,10 +2200,10 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2221,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>19.5</v>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
@@ -2242,13 +2242,13 @@
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>1.87</v>
       </c>
       <c r="I15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>3.3</v>
@@ -2572,7 +2572,7 @@
         <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
         <v>4.2</v>
@@ -2701,13 +2701,13 @@
         <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2725,22 +2725,22 @@
         <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>1.32</v>
@@ -2752,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
         <v>32</v>
@@ -2767,13 +2767,13 @@
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
         <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2842,10 +2842,10 @@
         <v>2.92</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2965,7 +2965,7 @@
         <v>4.9</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
         <v>1.78</v>
@@ -3016,7 +3016,7 @@
         <v>1.18</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>8.4</v>
@@ -3031,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>990</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>12</v>
@@ -3100,7 +3100,7 @@
         <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -3127,10 +3127,10 @@
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
@@ -3148,7 +3148,7 @@
         <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3241,7 +3241,7 @@
         <v>1.41</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I22" t="n">
         <v>16</v>
       </c>
-      <c r="I22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -3424,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="n">
         <v>160</v>
@@ -3469,7 +3469,7 @@
         <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO22" t="n">
         <v>280</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,10 +3514,10 @@
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3529,7 +3529,7 @@
         <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
         <v>1.87</v>
@@ -3544,7 +3544,7 @@
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
@@ -3553,7 +3553,7 @@
         <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3568,10 +3568,10 @@
         <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
@@ -3592,7 +3592,7 @@
         <v>85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK23" t="n">
         <v>19.5</v>
@@ -3679,10 +3679,10 @@
         <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
         <v>1.12</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.04</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3805,10 +3805,10 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
         <v>3.3</v>
@@ -3820,10 +3820,10 @@
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3832,7 +3832,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
         <v>23</v>
@@ -3841,10 +3841,10 @@
         <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -3865,19 +3865,19 @@
         <v>95</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
         <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -3913,10 +3913,10 @@
         <v>2.42</v>
       </c>
       <c r="H26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
@@ -3928,22 +3928,22 @@
         <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
         <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
         <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
         <v>4.3</v>
@@ -3955,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
         <v>1.7</v>
@@ -3970,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB26" t="n">
         <v>8.6</v>
@@ -3985,7 +3985,7 @@
         <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
@@ -4000,19 +4000,19 @@
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
         <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
         <v>4.9</v>
@@ -4054,10 +4054,10 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.45</v>
@@ -4072,13 +4072,13 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
         <v>4.3</v>
@@ -4093,7 +4093,7 @@
         <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
@@ -4108,13 +4108,13 @@
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC27" t="n">
         <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
@@ -4138,7 +4138,7 @@
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
         <v>150</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.72</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.73</v>
-      </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4201,7 +4201,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -4213,7 +4213,7 @@
         <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4231,7 +4231,7 @@
         <v>2.38</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>19.5</v>
@@ -4267,10 +4267,10 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
         <v>34</v>
@@ -4315,16 +4315,16 @@
         <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -4351,7 +4351,7 @@
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T29" t="n">
         <v>1.73</v>
@@ -4360,7 +4360,7 @@
         <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W29" t="n">
         <v>1.28</v>
@@ -4450,7 +4450,7 @@
         <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H30" t="n">
         <v>3.95</v>
@@ -4498,10 +4498,10 @@
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
         <v>14.5</v>
@@ -4585,19 +4585,19 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="I31" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.24</v>
@@ -4618,25 +4618,25 @@
         <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S31" t="n">
         <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
         <v>2.42</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="X31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4675,16 +4675,16 @@
         <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
         <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO31" t="n">
         <v>65</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G32" t="n">
         <v>2.56</v>
@@ -4726,7 +4726,7 @@
         <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4768,7 +4768,7 @@
         <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
         <v>9.199999999999999</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
         <v>4.4</v>
@@ -4903,7 +4903,7 @@
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
         <v>12.5</v>
@@ -4918,7 +4918,7 @@
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC33" t="n">
         <v>7.8</v>
@@ -4939,10 +4939,10 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
@@ -4993,10 +4993,10 @@
         <v>2.2</v>
       </c>
       <c r="H34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -5011,10 +5011,10 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
         <v>1.71</v>
@@ -5041,7 +5041,7 @@
         <v>1.83</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
@@ -5059,7 +5059,7 @@
         <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.9</v>
       </c>
-      <c r="I35" t="n">
-        <v>5.1</v>
-      </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5149,13 +5149,13 @@
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
         <v>1.4</v>
@@ -5164,19 +5164,19 @@
         <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U35" t="n">
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
         <v>2.16</v>
       </c>
       <c r="X35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
         <v>18</v>
@@ -5212,7 +5212,7 @@
         <v>70</v>
       </c>
       <c r="AJ35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="n">
         <v>18.5</v>
@@ -5224,10 +5224,10 @@
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G37" t="n">
         <v>2.38</v>
@@ -5425,7 +5425,7 @@
         <v>1.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
@@ -5560,7 +5560,7 @@
         <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
@@ -5575,7 +5575,7 @@
         <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W38" t="n">
         <v>1.67</v>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U39" t="n">
         <v>1.82</v>
@@ -5800,16 +5800,16 @@
         <v>3.7</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>3.45</v>
@@ -5821,19 +5821,19 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
         <v>4.7</v>
@@ -5842,16 +5842,16 @@
         <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V40" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
         <v>9.199999999999999</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -5980,10 +5980,10 @@
         <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -6016,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
         <v>70</v>
@@ -6037,7 +6037,7 @@
         <v>42</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
@@ -6070,10 +6070,10 @@
         <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I42" t="n">
         <v>2.74</v>
@@ -6100,28 +6100,28 @@
         <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R42" t="n">
         <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T42" t="n">
         <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V42" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X42" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -6208,7 +6208,7 @@
         <v>2.64</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
         <v>3.5</v>
@@ -6232,7 +6232,7 @@
         <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q43" t="n">
         <v>2.22</v>
@@ -6283,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>1000</v>
@@ -6340,10 +6340,10 @@
         <v>1.94</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I44" t="n">
         <v>5.8</v>
@@ -6361,13 +6361,13 @@
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q44" t="n">
         <v>3</v>
@@ -6376,13 +6376,13 @@
         <v>1.17</v>
       </c>
       <c r="S44" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U44" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V44" t="n">
         <v>1.2</v>
@@ -6418,13 +6418,13 @@
         <v>9.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,13 +6436,13 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
       </c>
       <c r="AO44" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J45" t="n">
         <v>3.3</v>
@@ -6502,19 +6502,19 @@
         <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R45" t="n">
         <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U45" t="n">
         <v>1.98</v>
@@ -6523,7 +6523,7 @@
         <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6532,16 +6532,16 @@
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="n">
         <v>8.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
         <v>16</v>
@@ -6571,13 +6571,13 @@
         <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN45" t="n">
         <v>25</v>
       </c>
       <c r="AO45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K46" t="n">
         <v>6.6</v>
@@ -6631,34 +6631,34 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
         <v>2.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R46" t="n">
         <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X46" t="n">
         <v>32</v>
@@ -6667,7 +6667,7 @@
         <v>40</v>
       </c>
       <c r="Z46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA46" t="n">
         <v>460</v>
@@ -6697,7 +6697,7 @@
         <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
         <v>15</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I47" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J47" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6769,7 +6769,7 @@
         <v>5.7</v>
       </c>
       <c r="O47" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
         <v>2.68</v>
@@ -6787,13 +6787,13 @@
         <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V47" t="n">
         <v>4.6</v>
       </c>
       <c r="W47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6811,7 +6811,7 @@
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD47" t="n">
         <v>14.5</v>
@@ -6820,7 +6820,7 @@
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AG47" t="n">
         <v>1000</v>
@@ -6835,10 +6835,10 @@
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AL47" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="n">
         <v>220</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G48" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H48" t="n">
         <v>5.3</v>
@@ -6889,13 +6889,13 @@
         <v>5.4</v>
       </c>
       <c r="J48" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K48" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -6907,7 +6907,7 @@
         <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q48" t="n">
         <v>1.55</v>
@@ -6916,7 +6916,7 @@
         <v>1.7</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T48" t="n">
         <v>1.61</v>
@@ -6928,16 +6928,16 @@
         <v>1.23</v>
       </c>
       <c r="W48" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA48" t="n">
         <v>120</v>
@@ -6949,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -6964,10 +6964,10 @@
         <v>16.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
         <v>14</v>
@@ -6976,10 +6976,10 @@
         <v>23</v>
       </c>
       <c r="AM48" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO48" t="n">
         <v>40</v>
@@ -7015,7 +7015,7 @@
         <v>8.6</v>
       </c>
       <c r="G49" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H49" t="n">
         <v>1.47</v>
@@ -7036,28 +7036,28 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U49" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V49" t="n">
         <v>3.05</v>
@@ -7078,7 +7078,7 @@
         <v>12.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AC49" t="n">
         <v>10.5</v>
@@ -7108,7 +7108,7 @@
         <v>240</v>
       </c>
       <c r="AL49" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
@@ -7150,13 +7150,13 @@
         <v>1.53</v>
       </c>
       <c r="G50" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H50" t="n">
         <v>5.9</v>
       </c>
       <c r="I50" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>4.3</v>
@@ -7177,19 +7177,19 @@
         <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q50" t="n">
         <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S50" t="n">
         <v>2.58</v>
       </c>
       <c r="T50" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="n">
         <v>2.08</v>
@@ -7198,13 +7198,13 @@
         <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X50" t="n">
         <v>27</v>
       </c>
       <c r="Y50" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z50" t="n">
         <v>65</v>
@@ -7228,7 +7228,7 @@
         <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
         <v>25</v>
@@ -7237,7 +7237,7 @@
         <v>90</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK50" t="n">
         <v>19</v>
@@ -7294,10 +7294,10 @@
         <v>1.68</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L51" t="n">
         <v>1.26</v>
@@ -7312,16 +7312,16 @@
         <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R51" t="n">
         <v>1.51</v>
       </c>
       <c r="S51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T51" t="n">
         <v>1.7</v>
@@ -7336,7 +7336,7 @@
         <v>1.17</v>
       </c>
       <c r="X51" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Y51" t="n">
         <v>1000</v>
@@ -7348,7 +7348,7 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC51" t="n">
         <v>1000</v>
@@ -7363,10 +7363,10 @@
         <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI51" t="n">
         <v>980</v>
@@ -7459,10 +7459,10 @@
         <v>3.85</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V52" t="n">
         <v>1.19</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G53" t="n">
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I53" t="n">
         <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K53" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.21</v>
@@ -7588,10 +7588,10 @@
         <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T53" t="n">
         <v>2.12</v>
@@ -7603,7 +7603,7 @@
         <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X53" t="n">
         <v>42</v>
@@ -7618,7 +7618,7 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC53" t="n">
         <v>19.5</v>
@@ -7636,13 +7636,13 @@
         <v>13.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7654,7 +7654,7 @@
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G54" t="n">
         <v>1.47</v>
       </c>
       <c r="H54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
@@ -7729,16 +7729,16 @@
         <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X54" t="n">
         <v>18</v>
@@ -7825,7 +7825,7 @@
         <v>4.1</v>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L55" t="n">
         <v>1.43</v>
@@ -7852,7 +7852,7 @@
         <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
         <v>2.14</v>
@@ -7867,13 +7867,13 @@
         <v>1.95</v>
       </c>
       <c r="U55" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V55" t="n">
         <v>1.98</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -7891,7 +7891,7 @@
         <v>14</v>
       </c>
       <c r="AC55" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD55" t="n">
         <v>10.5</v>
@@ -7903,7 +7903,7 @@
         <v>30</v>
       </c>
       <c r="AG55" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH55" t="n">
         <v>20</v>
@@ -7969,7 +7969,7 @@
         <v>5.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
         <v>3.8</v>
@@ -7984,7 +7984,7 @@
         <v>3.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
         <v>1.76</v>
@@ -7993,16 +7993,16 @@
         <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V56" t="n">
         <v>1.2</v>
@@ -8017,7 +8017,7 @@
         <v>16.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA56" t="n">
         <v>190</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
         <v>21</v>
@@ -8053,10 +8053,10 @@
         <v>23</v>
       </c>
       <c r="AL56" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM56" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN56" t="n">
         <v>16</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G57" t="n">
         <v>3.9</v>
       </c>
       <c r="H57" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I57" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J57" t="n">
         <v>3.35</v>
@@ -8140,7 +8140,7 @@
         <v>1.97</v>
       </c>
       <c r="V57" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W57" t="n">
         <v>1.34</v>
@@ -8152,13 +8152,13 @@
         <v>10</v>
       </c>
       <c r="Z57" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA57" t="n">
         <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
         <v>8.6</v>
@@ -8170,7 +8170,7 @@
         <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG57" t="n">
         <v>18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -670,22 +670,22 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -697,28 +697,28 @@
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -733,7 +733,7 @@
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -814,7 +814,7 @@
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
@@ -844,7 +844,7 @@
         <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
         <v>1.68</v>
@@ -853,7 +853,7 @@
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -973,7 +973,7 @@
         <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
         <v>5.1</v>
@@ -985,7 +985,7 @@
         <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1081,7 +1081,7 @@
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2.84</v>
@@ -1090,7 +1090,7 @@
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1225,7 +1225,7 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1357,7 +1357,7 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1480,19 +1480,19 @@
         <v>5.5</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
         <v>1.56</v>
       </c>
       <c r="I8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,43 +1501,43 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.8</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.85</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1639,10 +1639,10 @@
         <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
         <v>2.7</v>
@@ -1660,16 +1660,16 @@
         <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
         <v>12.5</v>
@@ -1717,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -1756,46 +1756,46 @@
         <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
@@ -1822,7 +1822,7 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1912,13 +1912,13 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>3.15</v>
@@ -1927,13 +1927,13 @@
         <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2029,16 +2029,16 @@
         <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.3</v>
@@ -2050,7 +2050,7 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2059,7 +2059,7 @@
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>2.34</v>
@@ -2074,7 +2074,7 @@
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>19</v>
@@ -2104,22 +2104,22 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2164,7 +2164,7 @@
         <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2182,10 +2182,10 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
         <v>1.4</v>
@@ -2206,7 +2206,7 @@
         <v>2.14</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
@@ -2215,10 +2215,10 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2227,16 +2227,16 @@
         <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2311,7 +2311,7 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2365,7 +2365,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2425,13 +2425,13 @@
         <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2443,19 +2443,19 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O15" t="n">
         <v>1.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2464,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U15" t="n">
         <v>1.64</v>
@@ -2473,7 +2473,7 @@
         <v>1.89</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
         <v>2.46</v>
@@ -2569,7 +2569,7 @@
         <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2581,10 +2581,10 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
         <v>1.69</v>
@@ -2608,7 +2608,7 @@
         <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>4.2</v>
@@ -2704,7 +2704,7 @@
         <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.75</v>
@@ -2722,10 +2722,10 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2758,7 +2758,7 @@
         <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2833,13 +2833,13 @@
         <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
         <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
         <v>3.9</v>
@@ -2851,25 +2851,25 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="I19" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2986,52 +2986,52 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
         <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
         <v>12</v>
@@ -3046,7 +3046,7 @@
         <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="20">
@@ -3130,7 +3130,7 @@
         <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
@@ -3139,13 +3139,13 @@
         <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
         <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
         <v>1.71</v>
@@ -3241,7 +3241,7 @@
         <v>1.41</v>
       </c>
       <c r="I21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
         <v>4.7</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
         <v>15.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
       </c>
       <c r="J22" t="n">
         <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3397,28 +3397,28 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
         <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X22" t="n">
         <v>30</v>
@@ -3427,10 +3427,10 @@
         <v>55</v>
       </c>
       <c r="Z22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3442,7 +3442,7 @@
         <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="n">
         <v>8.199999999999999</v>
@@ -3454,7 +3454,7 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.4</v>
@@ -3472,7 +3472,7 @@
         <v>3.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.82</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.83</v>
-      </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.8</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3535,7 +3535,7 @@
         <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -3547,16 +3547,16 @@
         <v>1.97</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
@@ -3571,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
@@ -3580,16 +3580,16 @@
         <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
         <v>18.5</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="X24" t="n">
         <v>990</v>
@@ -3715,7 +3715,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AG24" t="n">
         <v>990</v>
@@ -3778,10 +3778,10 @@
         <v>4.2</v>
       </c>
       <c r="H25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.02</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3805,7 +3805,7 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
@@ -3817,10 +3817,10 @@
         <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>1.31</v>
@@ -3847,10 +3847,10 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
@@ -3862,13 +3862,13 @@
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="n">
         <v>48</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
         <v>90</v>
@@ -3877,7 +3877,7 @@
         <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
@@ -3937,10 +3937,10 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
         <v>1.28</v>
@@ -3949,7 +3949,7 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -3958,13 +3958,13 @@
         <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>22</v>
@@ -3973,13 +3973,13 @@
         <v>65</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
         <v>44</v>
@@ -3994,19 +3994,19 @@
         <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
         <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
         <v>26</v>
@@ -4048,16 +4048,16 @@
         <v>1.91</v>
       </c>
       <c r="H27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I27" t="n">
         <v>4.9</v>
       </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.45</v>
@@ -4066,13 +4066,13 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
@@ -4096,7 +4096,7 @@
         <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>14.5</v>
@@ -4135,19 +4135,19 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
         <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H28" t="n">
         <v>5.5</v>
@@ -4201,7 +4201,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -4213,7 +4213,7 @@
         <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4222,13 +4222,13 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -4237,7 +4237,7 @@
         <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
         <v>140</v>
@@ -4252,7 +4252,7 @@
         <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
         <v>9.800000000000001</v>
@@ -4267,7 +4267,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
@@ -4276,7 +4276,7 @@
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN28" t="n">
         <v>9.800000000000001</v>
@@ -4315,7 +4315,7 @@
         <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>1.99</v>
@@ -4351,7 +4351,7 @@
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
         <v>1.73</v>
@@ -4363,7 +4363,7 @@
         <v>1.86</v>
       </c>
       <c r="W29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
         <v>19</v>
@@ -4474,13 +4474,13 @@
         <v>3.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
         <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
@@ -4489,7 +4489,7 @@
         <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U30" t="n">
         <v>2.08</v>
@@ -4585,13 +4585,13 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -4615,22 +4615,22 @@
         <v>2.88</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R31" t="n">
         <v>1.76</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U31" t="n">
         <v>2.42</v>
       </c>
       <c r="V31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
         <v>2.9</v>
@@ -4675,10 +4675,10 @@
         <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
         <v>75</v>
@@ -4717,79 +4717,79 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
         <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
         <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>55</v>
@@ -4804,13 +4804,13 @@
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
@@ -4819,10 +4819,10 @@
         <v>180</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4885,7 +4885,7 @@
         <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
@@ -4900,16 +4900,16 @@
         <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
         <v>32</v>
@@ -4939,10 +4939,10 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
         <v>22</v>
@@ -4954,7 +4954,7 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -4996,7 +4996,7 @@
         <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -5017,7 +5017,7 @@
         <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q34" t="n">
         <v>2.32</v>
@@ -5029,7 +5029,7 @@
         <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
         <v>1.93</v>
@@ -5053,13 +5053,13 @@
         <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
@@ -5125,16 +5125,16 @@
         <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
         <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -5149,13 +5149,13 @@
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R35" t="n">
         <v>1.4</v>
@@ -5170,13 +5170,13 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y35" t="n">
         <v>18</v>
@@ -5224,7 +5224,7 @@
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
@@ -5422,7 +5422,7 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Q37" t="n">
         <v>1.58</v>
@@ -5533,7 +5533,7 @@
         <v>2.48</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
         <v>4.5</v>
@@ -5548,7 +5548,7 @@
         <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
         <v>2.62</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5671,10 +5671,10 @@
         <v>2.36</v>
       </c>
       <c r="I39" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
@@ -5710,13 +5710,13 @@
         <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
         <v>1.34</v>
       </c>
       <c r="X39" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y39" t="n">
         <v>8.199999999999999</v>
@@ -5803,10 +5803,10 @@
         <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I40" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5827,7 +5827,7 @@
         <v>1.47</v>
       </c>
       <c r="P40" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q40" t="n">
         <v>2.38</v>
@@ -5836,7 +5836,7 @@
         <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
@@ -5845,7 +5845,7 @@
         <v>1.81</v>
       </c>
       <c r="V40" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G41" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
@@ -5974,7 +5974,7 @@
         <v>5.3</v>
       </c>
       <c r="T41" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U41" t="n">
         <v>1.89</v>
@@ -5983,7 +5983,7 @@
         <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -5998,7 +5998,7 @@
         <v>55</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC41" t="n">
         <v>7</v>
@@ -6010,16 +6010,16 @@
         <v>44</v>
       </c>
       <c r="AF41" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
         <v>44</v>
@@ -6034,7 +6034,7 @@
         <v>160</v>
       </c>
       <c r="AN41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO41" t="n">
         <v>50</v>
@@ -6070,13 +6070,13 @@
         <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I42" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -6091,7 +6091,7 @@
         <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.57</v>
@@ -6100,7 +6100,7 @@
         <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R42" t="n">
         <v>1.19</v>
@@ -6109,19 +6109,19 @@
         <v>5.7</v>
       </c>
       <c r="T42" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U42" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V42" t="n">
         <v>1.58</v>
       </c>
       <c r="W42" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X42" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -6139,7 +6139,7 @@
         <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
         <v>980</v>
@@ -6205,16 +6205,16 @@
         <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
         <v>3.3</v>
@@ -6226,19 +6226,19 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S43" t="n">
         <v>4.1</v>
@@ -6247,13 +6247,13 @@
         <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
@@ -6286,7 +6286,7 @@
         <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI43" t="n">
         <v>60</v>
@@ -6364,16 +6364,16 @@
         <v>2.44</v>
       </c>
       <c r="O44" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P44" t="n">
         <v>1.47</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S44" t="n">
         <v>6.6</v>
@@ -6436,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H45" t="n">
         <v>3.75</v>
@@ -6484,7 +6484,7 @@
         <v>3.85</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
         <v>3.35</v>
@@ -6511,7 +6511,7 @@
         <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T45" t="n">
         <v>1.99</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G46" t="n">
         <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>5.6</v>
@@ -6637,16 +6637,16 @@
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S46" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -6655,7 +6655,7 @@
         <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W46" t="n">
         <v>3.7</v>
@@ -6670,10 +6670,10 @@
         <v>120</v>
       </c>
       <c r="AA46" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AB46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC46" t="n">
         <v>14.5</v>
@@ -6682,7 +6682,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="n">
         <v>9.199999999999999</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G47" t="n">
         <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I47" t="n">
         <v>1.27</v>
       </c>
       <c r="J47" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,16 +6766,16 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R47" t="n">
         <v>1.67</v>
@@ -6787,10 +6787,10 @@
         <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="W47" t="n">
         <v>1.08</v>
@@ -6835,7 +6835,7 @@
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AL47" t="n">
         <v>170</v>
@@ -6895,7 +6895,7 @@
         <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -6907,22 +6907,22 @@
         <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q48" t="n">
         <v>1.55</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S48" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
         <v>1.61</v>
       </c>
       <c r="U48" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V48" t="n">
         <v>1.23</v>
@@ -6934,7 +6934,7 @@
         <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
         <v>46</v>
@@ -6943,7 +6943,7 @@
         <v>120</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
@@ -6952,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="AE48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF48" t="n">
         <v>12.5</v>
@@ -6973,10 +6973,10 @@
         <v>14</v>
       </c>
       <c r="AL48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN48" t="n">
         <v>6.6</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I49" t="n">
         <v>1.47</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.49</v>
-      </c>
       <c r="J49" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7039,13 +7039,13 @@
         <v>3.05</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P49" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
         <v>1.25</v>
@@ -7054,13 +7054,13 @@
         <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U49" t="n">
         <v>1.59</v>
       </c>
       <c r="V49" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W49" t="n">
         <v>1.11</v>
@@ -7069,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z49" t="n">
         <v>7.2</v>
@@ -7096,7 +7096,7 @@
         <v>40</v>
       </c>
       <c r="AH49" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="n">
         <v>65</v>
@@ -7105,16 +7105,16 @@
         <v>490</v>
       </c>
       <c r="AK49" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
       </c>
       <c r="AN49" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="AO49" t="n">
         <v>11</v>
@@ -7189,7 +7189,7 @@
         <v>2.58</v>
       </c>
       <c r="T50" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="n">
         <v>2.08</v>
@@ -7285,13 +7285,13 @@
         <v>5.5</v>
       </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I51" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7306,31 +7306,31 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="n">
         <v>2.58</v>
       </c>
       <c r="T51" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U51" t="n">
         <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="W51" t="n">
         <v>1.17</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="52">
@@ -7420,16 +7420,16 @@
         <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H52" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J52" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>3.85</v>
@@ -7447,7 +7447,7 @@
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q52" t="n">
         <v>2.08</v>
@@ -7459,16 +7459,16 @@
         <v>3.85</v>
       </c>
       <c r="T52" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U52" t="n">
         <v>1.04</v>
       </c>
       <c r="V52" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W52" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7483,7 +7483,7 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
         <v>9.6</v>
@@ -7558,13 +7558,13 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>8.4</v>
@@ -7576,7 +7576,7 @@
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
         <v>1.13</v>
@@ -7588,7 +7588,7 @@
         <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
@@ -7603,10 +7603,10 @@
         <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="n">
         <v>75</v>
@@ -7654,7 +7654,7 @@
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G54" t="n">
         <v>1.47</v>
@@ -7702,7 +7702,7 @@
         <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.34</v>
@@ -7744,13 +7744,13 @@
         <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB54" t="n">
         <v>8.4</v>
@@ -7783,16 +7783,16 @@
         <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM54" t="n">
         <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55">
@@ -7825,22 +7825,22 @@
         <v>4.1</v>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K55" t="n">
         <v>3.75</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L55" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -7855,7 +7855,7 @@
         <v>1.85</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R55" t="n">
         <v>1.31</v>
@@ -7864,16 +7864,16 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U55" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -7897,7 +7897,7 @@
         <v>10.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF55" t="n">
         <v>30</v>
@@ -7915,19 +7915,19 @@
         <v>95</v>
       </c>
       <c r="AK55" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL55" t="n">
         <v>70</v>
       </c>
       <c r="AM55" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN55" t="n">
         <v>65</v>
       </c>
       <c r="AO55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="56">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G56" t="n">
         <v>1.88</v>
@@ -7966,25 +7966,25 @@
         <v>5.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.46</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P56" t="n">
         <v>1.76</v>
@@ -7993,25 +7993,25 @@
         <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V56" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W56" t="n">
         <v>2.12</v>
       </c>
       <c r="X56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
         <v>16.5</v>
@@ -8098,10 +8098,10 @@
         <v>3.9</v>
       </c>
       <c r="H57" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J57" t="n">
         <v>3.35</v>
@@ -8122,10 +8122,10 @@
         <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
@@ -8134,13 +8134,13 @@
         <v>4.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U57" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V57" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W57" t="n">
         <v>1.34</v>
@@ -8158,7 +8158,7 @@
         <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC57" t="n">
         <v>8.6</v>
@@ -8182,7 +8182,7 @@
         <v>48</v>
       </c>
       <c r="AJ57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="n">
         <v>60</v>
@@ -8194,7 +8194,7 @@
         <v>130</v>
       </c>
       <c r="AN57" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO57" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -673,7 +673,7 @@
         <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.2</v>
@@ -685,34 +685,34 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.6</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -733,25 +733,25 @@
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>2.22</v>
@@ -946,13 +946,13 @@
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
         <v>1.47</v>
@@ -961,10 +961,10 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P4" t="n">
         <v>1.54</v>
@@ -979,7 +979,7 @@
         <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -988,13 +988,13 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,31 +1003,31 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1114,7 +1114,7 @@
         <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
@@ -1123,7 +1123,7 @@
         <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
         <v>8.199999999999999</v>
@@ -1135,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>8.800000000000001</v>
@@ -1147,13 +1147,13 @@
         <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>30</v>
@@ -1168,7 +1168,7 @@
         <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.84</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
         <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1291,19 +1291,19 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1366,34 +1366,34 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1405,7 +1405,7 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>9.800000000000001</v>
@@ -1417,37 +1417,37 @@
         <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G8" t="n">
         <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.56</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1501,19 +1501,19 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
         <v>2.62</v>
@@ -1522,46 +1522,46 @@
         <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="W8" t="n">
         <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1639,7 +1639,7 @@
         <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
         <v>1.57</v>
@@ -1654,16 +1654,16 @@
         <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
         <v>8.4</v>
@@ -1675,7 +1675,7 @@
         <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
         <v>10.5</v>
@@ -1696,7 +1696,7 @@
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
@@ -1717,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1750,25 +1750,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.05</v>
@@ -1777,25 +1777,25 @@
         <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
@@ -1810,7 +1810,7 @@
         <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="n">
         <v>60</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1906,7 +1906,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1924,22 +1924,22 @@
         <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,31 +1951,31 @@
         <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2035,7 +2035,7 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2044,7 +2044,7 @@
         <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
         <v>2.12</v>
@@ -2053,16 +2053,16 @@
         <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2071,7 +2071,7 @@
         <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2083,13 +2083,13 @@
         <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>28</v>
@@ -2098,7 +2098,7 @@
         <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2110,16 +2110,16 @@
         <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2155,16 +2155,16 @@
         <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2176,7 +2176,7 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.32</v>
@@ -2185,7 +2185,7 @@
         <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
         <v>1.4</v>
@@ -2209,22 +2209,22 @@
         <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>19.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
         <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,13 +2311,13 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
         <v>2.3</v>
@@ -2347,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>140</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -2386,13 +2386,13 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
@@ -2455,7 +2455,7 @@
         <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2470,16 +2470,16 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2491,10 +2491,10 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
         <v>2.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2581,19 +2581,19 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
         <v>4.1</v>
@@ -2608,10 +2608,10 @@
         <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -2620,7 +2620,7 @@
         <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
         <v>11.5</v>
@@ -2644,13 +2644,13 @@
         <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2716,16 +2716,16 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2734,70 +2734,70 @@
         <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
         <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2860,7 +2860,7 @@
         <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
@@ -2875,10 +2875,10 @@
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2908,19 +2908,19 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="G19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="I19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2986,16 +2986,16 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
@@ -3004,10 +3004,10 @@
         <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V19" t="n">
         <v>2.32</v>
@@ -3016,10 +3016,10 @@
         <v>1.16</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3031,10 +3031,10 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3046,7 +3046,7 @@
         <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3112,7 +3112,7 @@
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -3121,13 +3121,13 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
         <v>2.26</v>
@@ -3136,16 +3136,16 @@
         <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
         <v>1.71</v>
@@ -3160,28 +3160,28 @@
         <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
         <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>90</v>
@@ -3193,7 +3193,7 @@
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3265,55 +3265,55 @@
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.84</v>
       </c>
-      <c r="T21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>14.5</v>
+        <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>1.26</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
         <v>7.2</v>
@@ -3409,13 +3409,13 @@
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
         <v>4.8</v>
@@ -3424,13 +3424,13 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z22" t="n">
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3454,7 +3454,7 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.4</v>
@@ -3466,13 +3466,13 @@
         <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -3505,19 +3505,19 @@
         <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I23" t="n">
         <v>5.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -3526,19 +3526,19 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
         <v>3.85</v>
@@ -3643,7 +3643,7 @@
         <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>10</v>
@@ -3670,7 +3670,7 @@
         <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.33</v>
@@ -3688,13 +3688,13 @@
         <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X24" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>7.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>990</v>
@@ -3718,7 +3718,7 @@
         <v>8.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>990</v>
@@ -3727,10 +3727,10 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3778,16 +3778,16 @@
         <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.39</v>
@@ -3814,13 +3814,13 @@
         <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W25" t="n">
         <v>1.31</v>
@@ -3847,7 +3847,7 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>30</v>
@@ -3859,7 +3859,7 @@
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
         <v>85</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
@@ -3925,7 +3925,7 @@
         <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -3937,10 +3937,10 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.28</v>
@@ -3952,13 +3952,13 @@
         <v>1.95</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -3967,52 +3967,52 @@
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G27" t="n">
         <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
         <v>4.9</v>
@@ -4099,7 +4099,7 @@
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
         <v>34</v>
@@ -4120,7 +4120,7 @@
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4135,10 +4135,10 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
         <v>150</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.73</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
         <v>5.6</v>
@@ -4207,13 +4207,13 @@
         <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4222,16 +4222,16 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>19.5</v>
@@ -4315,7 +4315,7 @@
         <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
         <v>1.99</v>
@@ -4324,7 +4324,7 @@
         <v>2.16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -4336,58 +4336,58 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
         <v>1.96</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
         <v>1.86</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
         <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>36</v>
@@ -4396,7 +4396,7 @@
         <v>19.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>44</v>
@@ -4408,10 +4408,10 @@
         <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>60</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G30" t="n">
         <v>2.14</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
         <v>4.2</v>
@@ -4462,7 +4462,7 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.41</v>
@@ -4477,7 +4477,7 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
         <v>2</v>
@@ -4486,7 +4486,7 @@
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
         <v>1.82</v>
@@ -4501,7 +4501,7 @@
         <v>1.87</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="n">
         <v>14.5</v>
@@ -4540,7 +4540,7 @@
         <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
         <v>980</v>
@@ -4585,7 +4585,7 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
         <v>7</v>
@@ -4612,13 +4612,13 @@
         <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>2.28</v>
@@ -4627,7 +4627,7 @@
         <v>1.68</v>
       </c>
       <c r="U31" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
@@ -4672,7 +4672,7 @@
         <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK31" t="n">
         <v>13.5</v>
@@ -4681,7 +4681,7 @@
         <v>24</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
         <v>5.2</v>
@@ -4720,7 +4720,7 @@
         <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
@@ -4729,10 +4729,10 @@
         <v>3.3</v>
       </c>
       <c r="J32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>1.56</v>
@@ -4741,28 +4741,28 @@
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
         <v>1.43</v>
@@ -4786,7 +4786,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>15</v>
@@ -4867,7 +4867,7 @@
         <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4882,7 +4882,7 @@
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q33" t="n">
         <v>2.1</v>
@@ -4906,7 +4906,7 @@
         <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
         <v>15</v>
@@ -4918,7 +4918,7 @@
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC33" t="n">
         <v>7.8</v>
@@ -4990,10 +4990,10 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
         <v>3.95</v>
@@ -5125,19 +5125,19 @@
         <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H35" t="n">
         <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5146,7 +5146,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -5158,22 +5158,22 @@
         <v>1.89</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
         <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U35" t="n">
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5188,7 +5188,7 @@
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC35" t="n">
         <v>8.6</v>
@@ -5200,13 +5200,13 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>9.6</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI35" t="n">
         <v>70</v>
@@ -5263,7 +5263,7 @@
         <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I36" t="n">
         <v>2.94</v>
@@ -5272,10 +5272,10 @@
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
@@ -5347,7 +5347,7 @@
         <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
         <v>46</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G37" t="n">
         <v>2.38</v>
@@ -5410,7 +5410,7 @@
         <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5422,7 +5422,7 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
         <v>1.58</v>
@@ -5440,7 +5440,7 @@
         <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
         <v>1.72</v>
@@ -5482,7 +5482,7 @@
         <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
         <v>29</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G38" t="n">
         <v>2.48</v>
@@ -5539,10 +5539,10 @@
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -5551,7 +5551,7 @@
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O38" t="n">
         <v>1.43</v>
@@ -5560,7 +5560,7 @@
         <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
         <v>1.21</v>
@@ -5665,13 +5665,13 @@
         <v>3.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H39" t="n">
         <v>2.36</v>
       </c>
       <c r="I39" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J39" t="n">
         <v>2.96</v>
@@ -5695,7 +5695,7 @@
         <v>1.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
         <v>1.2</v>
@@ -5710,10 +5710,10 @@
         <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
         <v>9.800000000000001</v>
@@ -5725,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>2.18</v>
       </c>
       <c r="I40" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5836,16 +5836,16 @@
         <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -5935,7 +5935,7 @@
         <v>2.82</v>
       </c>
       <c r="G41" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
@@ -5959,7 +5959,7 @@
         <v>2.84</v>
       </c>
       <c r="O41" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P41" t="n">
         <v>1.6</v>
@@ -5983,7 +5983,7 @@
         <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -6091,7 +6091,7 @@
         <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O42" t="n">
         <v>1.57</v>
@@ -6205,7 +6205,7 @@
         <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
@@ -6226,7 +6226,7 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
@@ -6235,25 +6235,25 @@
         <v>1.77</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U43" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.95</v>
       </c>
       <c r="H44" t="n">
         <v>5.7</v>
@@ -6355,7 +6355,7 @@
         <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M44" t="n">
         <v>1.15</v>
@@ -6364,10 +6364,10 @@
         <v>2.44</v>
       </c>
       <c r="O44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q44" t="n">
         <v>3.05</v>
@@ -6382,13 +6382,13 @@
         <v>2.56</v>
       </c>
       <c r="U44" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V44" t="n">
         <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X44" t="n">
         <v>7.4</v>
@@ -6409,13 +6409,13 @@
         <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE44" t="n">
         <v>130</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6427,7 +6427,7 @@
         <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
         <v>30</v>
@@ -6436,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
@@ -6478,7 +6478,7 @@
         <v>2.34</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
         <v>3.85</v>
@@ -6487,7 +6487,7 @@
         <v>3.25</v>
       </c>
       <c r="K45" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -6538,7 +6538,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7</v>
@@ -6553,7 +6553,7 @@
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>20</v>
@@ -6610,19 +6610,19 @@
         <v>1.32</v>
       </c>
       <c r="G46" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K46" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6640,16 +6640,16 @@
         <v>2.42</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="R46" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S46" t="n">
         <v>2.5</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
         <v>1.83</v>
@@ -6658,7 +6658,7 @@
         <v>1.09</v>
       </c>
       <c r="W46" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="X46" t="n">
         <v>32</v>
@@ -6691,7 +6691,7 @@
         <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AI46" t="n">
         <v>150</v>
@@ -6703,7 +6703,7 @@
         <v>15</v>
       </c>
       <c r="AL46" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM46" t="n">
         <v>170</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G47" t="n">
         <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="I47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J47" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,58 +6766,58 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S47" t="n">
         <v>2.2</v>
       </c>
       <c r="T47" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V47" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA47" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB47" t="n">
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
         <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF47" t="n">
         <v>150</v>
@@ -6841,13 +6841,13 @@
         <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G48" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J48" t="n">
         <v>4.6</v>
@@ -6904,10 +6904,10 @@
         <v>6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q48" t="n">
         <v>1.55</v>
@@ -6916,19 +6916,19 @@
         <v>1.71</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T48" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U48" t="n">
         <v>2.56</v>
       </c>
       <c r="V48" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W48" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X48" t="n">
         <v>28</v>
@@ -6937,19 +6937,19 @@
         <v>25</v>
       </c>
       <c r="Z48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA48" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
         <v>55</v>
@@ -6961,13 +6961,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH48" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK48" t="n">
         <v>14</v>
@@ -6982,7 +6982,7 @@
         <v>6.6</v>
       </c>
       <c r="AO48" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -7015,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>1.45</v>
@@ -7036,7 +7036,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
         <v>1.45</v>
@@ -7045,10 +7045,10 @@
         <v>1.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R49" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
@@ -7057,13 +7057,13 @@
         <v>2.56</v>
       </c>
       <c r="U49" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V49" t="n">
         <v>3.1</v>
       </c>
       <c r="W49" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -7114,7 +7114,7 @@
         <v>360</v>
       </c>
       <c r="AN49" t="n">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="AO49" t="n">
         <v>11</v>
@@ -7198,7 +7198,7 @@
         <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X50" t="n">
         <v>27</v>
@@ -7222,10 +7222,10 @@
         <v>30</v>
       </c>
       <c r="AE50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
@@ -7234,7 +7234,7 @@
         <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
         <v>18</v>
@@ -7249,7 +7249,7 @@
         <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO50" t="n">
         <v>100</v>
@@ -7288,7 +7288,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I51" t="n">
         <v>1.64</v>
@@ -7306,7 +7306,7 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.21</v>
@@ -7354,7 +7354,7 @@
         <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G52" t="n">
         <v>1.94</v>
@@ -7429,7 +7429,7 @@
         <v>6.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
         <v>3.85</v>
@@ -7450,7 +7450,7 @@
         <v>1.57</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
         <v>1.24</v>
@@ -7468,7 +7468,7 @@
         <v>1.17</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.21</v>
       </c>
       <c r="H53" t="n">
         <v>20</v>
@@ -7564,10 +7564,10 @@
         <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K53" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L53" t="n">
         <v>1.21</v>
@@ -7588,7 +7588,7 @@
         <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
         <v>2.02</v>
@@ -7603,7 +7603,7 @@
         <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X53" t="n">
         <v>40</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.46</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.47</v>
       </c>
       <c r="H54" t="n">
         <v>8.6</v>
@@ -7717,22 +7717,22 @@
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.79</v>
       </c>
       <c r="R54" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T54" t="n">
         <v>2.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V54" t="n">
         <v>1.12</v>
@@ -7750,7 +7750,7 @@
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB54" t="n">
         <v>8.4</v>
@@ -7768,7 +7768,7 @@
         <v>8.4</v>
       </c>
       <c r="AG54" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH54" t="n">
         <v>26</v>
@@ -7792,7 +7792,7 @@
         <v>6.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G55" t="n">
         <v>4.3</v>
@@ -7831,22 +7831,22 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J55" t="n">
         <v>3.7</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O55" t="n">
         <v>1.38</v>
@@ -7867,16 +7867,16 @@
         <v>1.94</v>
       </c>
       <c r="U55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W55" t="n">
         <v>1.3</v>
       </c>
       <c r="X55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y55" t="n">
         <v>8.4</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G56" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H56" t="n">
         <v>5.2</v>
@@ -7969,7 +7969,7 @@
         <v>5.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K56" t="n">
         <v>3.75</v>
@@ -8008,7 +8008,7 @@
         <v>1.21</v>
       </c>
       <c r="W56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X56" t="n">
         <v>14</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H57" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I57" t="n">
         <v>2.26</v>
       </c>
       <c r="J57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.45</v>
       </c>
       <c r="L57" t="n">
         <v>1.46</v>
@@ -8116,34 +8116,34 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O57" t="n">
         <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U57" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V57" t="n">
         <v>1.79</v>
       </c>
       <c r="W57" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X57" t="n">
         <v>11</v>
@@ -8158,7 +8158,7 @@
         <v>30</v>
       </c>
       <c r="AB57" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
         <v>8.6</v>
@@ -8185,7 +8185,7 @@
         <v>80</v>
       </c>
       <c r="AK57" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL57" t="n">
         <v>70</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="G58" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H58" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="I58" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J58" t="n">
-        <v>1.02</v>
+        <v>2.26</v>
       </c>
       <c r="K58" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8275,10 +8275,10 @@
         <v>1.01</v>
       </c>
       <c r="V58" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -670,7 +670,7 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -691,16 +691,16 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
         <v>1.6</v>
@@ -709,7 +709,7 @@
         <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.42</v>
@@ -718,13 +718,13 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
@@ -733,10 +733,10 @@
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>19.5</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>17.5</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>7.6</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -820,7 +820,7 @@
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -832,10 +832,10 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -844,7 +844,7 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -940,7 +940,7 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
@@ -961,16 +961,16 @@
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
         <v>1.51</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
@@ -988,7 +988,7 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>9.4</v>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>980</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,13 +1075,13 @@
         <v>2.46</v>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
         <v>2.82</v>
@@ -1117,10 +1117,10 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
         <v>1.58</v>
@@ -1132,7 +1132,7 @@
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
         <v>2.94</v>
@@ -1267,13 +1267,13 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1291,10 +1291,10 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ6" t="n">
         <v>130</v>
@@ -1303,7 +1303,7 @@
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
         <v>2.16</v>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1366,16 +1366,16 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
@@ -1387,7 +1387,7 @@
         <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
         <v>7.8</v>
@@ -1486,13 +1486,13 @@
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.26</v>
@@ -1525,7 +1525,7 @@
         <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="W8" t="n">
         <v>1.17</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
         <v>3.9</v>
@@ -1639,13 +1639,13 @@
         <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
         <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1654,7 +1654,7 @@
         <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -1666,7 +1666,7 @@
         <v>1.34</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1777,7 +1777,7 @@
         <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
         <v>2.16</v>
@@ -1804,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z10" t="n">
         <v>8.6</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="AH10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
         <v>60</v>
@@ -1885,19 +1885,19 @@
         <v>1.72</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
@@ -1912,10 +1912,10 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
@@ -1936,10 +1936,10 @@
         <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>46</v>
@@ -2023,10 +2023,10 @@
         <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2035,7 +2035,7 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2050,16 +2050,16 @@
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2083,7 +2083,7 @@
         <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2107,13 +2107,13 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
         <v>36</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.85</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2185,13 +2185,13 @@
         <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
         <v>1.86</v>
@@ -2200,10 +2200,10 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
         <v>14</v>
@@ -2224,7 +2224,7 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>19.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
@@ -2305,22 +2305,22 @@
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2338,7 +2338,7 @@
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2365,7 +2365,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -2392,7 +2392,7 @@
         <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
         <v>1.12</v>
@@ -2452,34 +2452,34 @@
         <v>1.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
         <v>3.45</v>
@@ -2572,10 +2572,10 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2584,13 +2584,13 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
         <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2644,13 +2644,13 @@
         <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2710,7 +2710,7 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2725,13 +2725,13 @@
         <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.78</v>
@@ -2743,13 +2743,13 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
         <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2773,7 +2773,7 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2833,10 +2833,10 @@
         <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2845,7 +2845,7 @@
         <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2857,31 +2857,31 @@
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
         <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2899,19 +2899,19 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,46 +2992,46 @@
         <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="W19" t="n">
         <v>1.16</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
         <v>21</v>
@@ -3040,13 +3040,13 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AH19" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
         <v>2.4</v>
@@ -3112,10 +3112,10 @@
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3130,13 +3130,13 @@
         <v>1.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.94</v>
@@ -3145,10 +3145,10 @@
         <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3187,7 +3187,7 @@
         <v>90</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
         <v>36</v>
@@ -3265,19 +3265,19 @@
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
         <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T21" t="n">
         <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
         <v>2.84</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.25</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3403,7 +3403,7 @@
         <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
@@ -3415,10 +3415,10 @@
         <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X22" t="n">
         <v>30</v>
@@ -3445,7 +3445,7 @@
         <v>240</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,10 +3514,10 @@
         <v>5.4</v>
       </c>
       <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -3538,7 +3538,7 @@
         <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
         <v>3.85</v>
@@ -3553,7 +3553,7 @@
         <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
@@ -3586,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>80</v>
@@ -3805,19 +3805,19 @@
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
         <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
         <v>2.02</v>
@@ -3856,10 +3856,10 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>85</v>
@@ -3874,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO25" t="n">
         <v>12.5</v>
@@ -3919,10 +3919,10 @@
         <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
@@ -3952,7 +3952,7 @@
         <v>1.95</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>1.44</v>
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
         <v>1.91</v>
@@ -4051,7 +4051,7 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4090,7 +4090,7 @@
         <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
         <v>2.08</v>
@@ -4111,10 +4111,10 @@
         <v>7.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
@@ -4135,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>44</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I28" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4207,13 +4207,13 @@
         <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4225,10 +4225,10 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X28" t="n">
         <v>16</v>
@@ -4249,7 +4249,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
@@ -4267,7 +4267,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
@@ -4279,10 +4279,10 @@
         <v>95</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G29" t="n">
         <v>4.3</v>
       </c>
       <c r="H29" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
         <v>1.89</v>
@@ -4360,7 +4360,7 @@
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W29" t="n">
         <v>1.3</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4498,13 +4498,13 @@
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
         <v>980</v>
@@ -4513,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
@@ -4531,25 +4531,25 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK30" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="n">
         <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
         <v>7</v>
@@ -4606,10 +4606,10 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
         <v>2.84</v>
@@ -4618,13 +4618,13 @@
         <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S31" t="n">
         <v>2.28</v>
       </c>
       <c r="T31" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
         <v>2.4</v>
@@ -4633,7 +4633,7 @@
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X31" t="n">
         <v>32</v>
@@ -4651,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
         <v>25</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G32" t="n">
         <v>2.72</v>
@@ -4741,7 +4741,7 @@
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O32" t="n">
         <v>1.54</v>
@@ -4753,10 +4753,10 @@
         <v>2.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T32" t="n">
         <v>2.12</v>
@@ -4774,7 +4774,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z32" t="n">
         <v>20</v>
@@ -4861,10 +4861,10 @@
         <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>3.65</v>
@@ -4876,31 +4876,31 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
         <v>2.02</v>
@@ -4921,7 +4921,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
         <v>18</v>
@@ -4933,13 +4933,13 @@
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4951,10 +4951,10 @@
         <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.9</v>
       </c>
-      <c r="I34" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5017,7 +5017,7 @@
         <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
         <v>2.32</v>
@@ -5032,13 +5032,13 @@
         <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
@@ -5053,13 +5053,13 @@
         <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
         <v>60</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -5170,10 +5170,10 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5188,7 +5188,7 @@
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC35" t="n">
         <v>8.6</v>
@@ -5263,7 +5263,7 @@
         <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I36" t="n">
         <v>2.94</v>
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
@@ -5314,7 +5314,7 @@
         <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>22</v>
@@ -5326,13 +5326,13 @@
         <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
         <v>15.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
         <v>24</v>
@@ -5344,7 +5344,7 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>55</v>
@@ -5356,13 +5356,13 @@
         <v>65</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
@@ -5422,16 +5422,16 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
         <v>1.7</v>
@@ -5443,61 +5443,61 @@
         <v>1.37</v>
       </c>
       <c r="W37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM37" t="n">
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -5545,7 +5545,7 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
@@ -5575,19 +5575,19 @@
         <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
         <v>1.67</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5596,22 +5596,22 @@
         <v>8.6</v>
       </c>
       <c r="AC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD38" t="n">
         <v>990</v>
       </c>
-      <c r="AD38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5668,7 +5668,7 @@
         <v>3.85</v>
       </c>
       <c r="H39" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I39" t="n">
         <v>2.56</v>
@@ -5734,7 +5734,7 @@
         <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
         <v>36</v>
@@ -5743,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH39" t="n">
         <v>23</v>
@@ -5752,19 +5752,19 @@
         <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO39" t="n">
         <v>38</v>
@@ -5797,31 +5797,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="I40" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O40" t="n">
         <v>1.47</v>
@@ -5830,7 +5830,7 @@
         <v>1.59</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.21</v>
@@ -5839,43 +5839,43 @@
         <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="W40" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
         <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB40" t="n">
         <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5971,10 +5971,10 @@
         <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U41" t="n">
         <v>1.89</v>
@@ -6016,10 +6016,10 @@
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ41" t="n">
         <v>44</v>
@@ -6037,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="AO41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="AF42" t="n">
         <v>21</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G43" t="n">
         <v>2.6</v>
@@ -6211,7 +6211,7 @@
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
         <v>3.15</v>
@@ -6232,28 +6232,28 @@
         <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
         <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
         <v>2.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
@@ -6262,16 +6262,16 @@
         <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA43" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB43" t="n">
         <v>9.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD43" t="n">
         <v>15</v>
@@ -6280,7 +6280,7 @@
         <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
         <v>12.5</v>
@@ -6289,22 +6289,22 @@
         <v>19</v>
       </c>
       <c r="AI43" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ43" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL43" t="n">
         <v>980</v>
       </c>
       <c r="AM43" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>1.93</v>
       </c>
       <c r="G44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
         <v>5.7</v>
@@ -6388,7 +6388,7 @@
         <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X44" t="n">
         <v>7.4</v>
@@ -6424,10 +6424,10 @@
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK44" t="n">
         <v>30</v>
@@ -6475,10 +6475,10 @@
         <v>2.3</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
         <v>3.85</v>
@@ -6487,7 +6487,7 @@
         <v>3.25</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -6505,19 +6505,19 @@
         <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
         <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
         <v>1.35</v>
@@ -6664,7 +6664,7 @@
         <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="n">
         <v>120</v>
@@ -6679,13 +6679,13 @@
         <v>14.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE46" t="n">
         <v>190</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG46" t="n">
         <v>11.5</v>
@@ -6742,25 +6742,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G47" t="n">
         <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J47" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6790,7 +6790,7 @@
         <v>1.71</v>
       </c>
       <c r="V47" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="W47" t="n">
         <v>1.06</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H48" t="n">
         <v>5.4</v>
@@ -6889,10 +6889,10 @@
         <v>5.5</v>
       </c>
       <c r="J48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.7</v>
       </c>
       <c r="L48" t="n">
         <v>1.28</v>
@@ -6916,10 +6916,10 @@
         <v>1.71</v>
       </c>
       <c r="S48" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U48" t="n">
         <v>2.56</v>
@@ -6928,7 +6928,7 @@
         <v>1.22</v>
       </c>
       <c r="W48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X48" t="n">
         <v>28</v>
@@ -6949,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
         <v>55</v>
@@ -6961,10 +6961,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI48" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ48" t="n">
         <v>17</v>
@@ -6973,7 +6973,7 @@
         <v>14</v>
       </c>
       <c r="AL48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM48" t="n">
         <v>60</v>
@@ -6982,7 +6982,7 @@
         <v>6.6</v>
       </c>
       <c r="AO48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
@@ -7015,16 +7015,16 @@
         <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I49" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J49" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K49" t="n">
         <v>4.9</v>
@@ -7048,13 +7048,13 @@
         <v>2.36</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
         <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U49" t="n">
         <v>1.58</v>
@@ -7063,7 +7063,7 @@
         <v>3.1</v>
       </c>
       <c r="W49" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -7087,7 +7087,7 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF49" t="n">
         <v>85</v>
@@ -7108,7 +7108,7 @@
         <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
@@ -7288,10 +7288,10 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7330,7 +7330,7 @@
         <v>2.18</v>
       </c>
       <c r="V51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W51" t="n">
         <v>1.17</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G52" t="n">
         <v>1.94</v>
@@ -7558,16 +7558,16 @@
         <v>1.2</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L53" t="n">
         <v>1.21</v>
@@ -7591,7 +7591,7 @@
         <v>1.93</v>
       </c>
       <c r="S53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
         <v>2.12</v>
@@ -7600,7 +7600,7 @@
         <v>1.84</v>
       </c>
       <c r="V53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W53" t="n">
         <v>6</v>
@@ -7612,7 +7612,7 @@
         <v>75</v>
       </c>
       <c r="Z53" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7639,7 +7639,7 @@
         <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ53" t="n">
         <v>9</v>
@@ -7690,19 +7690,19 @@
         <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H54" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I54" t="n">
         <v>8.6</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.34</v>
@@ -7714,37 +7714,37 @@
         <v>4.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P54" t="n">
         <v>2.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R54" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V54" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
         <v>3.15</v>
       </c>
       <c r="X54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
@@ -7753,7 +7753,7 @@
         <v>290</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
@@ -7765,25 +7765,25 @@
         <v>140</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI54" t="n">
         <v>120</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK54" t="n">
         <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
         <v>150</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G55" t="n">
         <v>4.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I55" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J55" t="n">
         <v>3.7</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L55" t="n">
         <v>1.45</v>
@@ -7852,7 +7852,7 @@
         <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q55" t="n">
         <v>2.12</v>
@@ -7861,16 +7861,16 @@
         <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T55" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U55" t="n">
         <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W55" t="n">
         <v>1.3</v>
@@ -7885,13 +7885,13 @@
         <v>11.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB55" t="n">
         <v>14</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD55" t="n">
         <v>10.5</v>
@@ -7903,10 +7903,10 @@
         <v>30</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI55" t="n">
         <v>42</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G56" t="n">
         <v>1.87</v>
@@ -7972,7 +7972,7 @@
         <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.46</v>
@@ -7981,7 +7981,7 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.41</v>
@@ -8017,7 +8017,7 @@
         <v>16.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA56" t="n">
         <v>190</v>
@@ -8053,7 +8053,7 @@
         <v>23</v>
       </c>
       <c r="AL56" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM56" t="n">
         <v>180</v>
@@ -8098,10 +8098,10 @@
         <v>3.95</v>
       </c>
       <c r="H57" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I57" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J57" t="n">
         <v>3.3</v>
@@ -8134,13 +8134,13 @@
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W57" t="n">
         <v>1.33</v>
@@ -8266,19 +8266,19 @@
         <v>1.18</v>
       </c>
       <c r="S58" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
         <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,25 +700,25 @@
         <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>7.6</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
@@ -814,28 +814,28 @@
         <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
         <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -844,10 +844,10 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -946,7 +946,7 @@
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -955,7 +955,7 @@
         <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -988,7 +988,7 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
         <v>9.4</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
         <v>110</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1084,28 +1084,28 @@
         <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="O5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
@@ -1114,67 +1114,67 @@
         <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
         <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="AL5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.3</v>
@@ -1231,25 +1231,25 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
@@ -1258,7 +1258,7 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
@@ -1267,13 +1267,13 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1282,37 +1282,37 @@
         <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
         <v>290</v>
       </c>
       <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL6" t="n">
         <v>130</v>
       </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>290</v>
-      </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1345,19 +1345,19 @@
         <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1369,13 +1369,13 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
@@ -1390,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1402,7 +1402,7 @@
         <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1423,7 +1423,7 @@
         <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
@@ -1432,13 +1432,13 @@
         <v>380</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1447,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,61 +1507,61 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="W8" t="n">
         <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1570,10 +1570,10 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1645,7 +1645,7 @@
         <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
@@ -1654,10 +1654,10 @@
         <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
         <v>1.72</v>
@@ -1666,7 +1666,7 @@
         <v>1.34</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1696,10 +1696,10 @@
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>80</v>
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
@@ -1717,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1765,7 +1765,7 @@
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1780,7 +1780,7 @@
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
@@ -1792,10 +1792,10 @@
         <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
@@ -1822,16 +1822,16 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AH10" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
         <v>60</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
         <v>1.85</v>
@@ -1891,37 +1891,37 @@
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.87</v>
@@ -1936,7 +1936,7 @@
         <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
@@ -1948,34 +1948,34 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2047,28 +2047,28 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2089,7 +2089,7 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>28</v>
@@ -2119,7 +2119,7 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
         <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
@@ -2176,10 +2176,10 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
         <v>2.02</v>
@@ -2203,13 +2203,13 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
@@ -2218,13 +2218,13 @@
         <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2236,13 +2236,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
         <v>75</v>
@@ -2296,7 +2296,7 @@
         <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
@@ -2305,34 +2305,34 @@
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
         <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
@@ -2341,7 +2341,7 @@
         <v>1.94</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
@@ -2350,16 +2350,16 @@
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="AB14" t="n">
         <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>75</v>
@@ -2374,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>26</v>
@@ -2392,7 +2392,7 @@
         <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
         <v>5.9</v>
@@ -2437,10 +2437,10 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.12</v>
@@ -2455,7 +2455,7 @@
         <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2464,13 +2464,13 @@
         <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
         <v>1.21</v>
@@ -2575,7 +2575,7 @@
         <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2584,13 +2584,13 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
         <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2611,10 +2611,10 @@
         <v>1.41</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
         <v>19.5</v>
@@ -2626,7 +2626,7 @@
         <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
         <v>14</v>
@@ -2641,10 +2641,10 @@
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2704,13 +2704,13 @@
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2722,10 +2722,10 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
@@ -2743,7 +2743,7 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>15.5</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.8</v>
@@ -2866,10 +2866,10 @@
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
@@ -2878,7 +2878,7 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
         <v>990</v>
@@ -2899,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="I19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2989,10 +2989,10 @@
         <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
@@ -3001,28 +3001,28 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
         <v>1.16</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>7.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA19" t="n">
         <v>50</v>
@@ -3034,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3043,7 +3043,7 @@
         <v>220</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AH19" t="n">
         <v>70</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -3112,10 +3112,10 @@
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3127,7 +3127,7 @@
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>
@@ -3145,10 +3145,10 @@
         <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3232,34 +3232,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G21" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
         <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
         <v>2.12</v>
@@ -3268,25 +3268,25 @@
         <v>1.76</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
         <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
         <v>8.800000000000001</v>
@@ -3298,7 +3298,7 @@
         <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>22</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>1.27</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -3385,7 +3385,7 @@
         <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3403,16 +3403,16 @@
         <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
         <v>1.06</v>
@@ -3430,7 +3430,7 @@
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3445,7 +3445,7 @@
         <v>240</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
         <v>1.84</v>
@@ -3520,7 +3520,7 @@
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
         <v>8.199999999999999</v>
@@ -3652,7 +3652,7 @@
         <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
@@ -3661,16 +3661,16 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
         <v>1.33</v>
@@ -3679,16 +3679,16 @@
         <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V24" t="n">
         <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="X24" t="n">
         <v>90</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="I25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3799,13 +3799,13 @@
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
@@ -3820,10 +3820,10 @@
         <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3838,7 +3838,7 @@
         <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
@@ -3859,13 +3859,13 @@
         <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
         <v>50</v>
@@ -3910,7 +3910,7 @@
         <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
@@ -3958,7 +3958,7 @@
         <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -3979,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
         <v>40</v>
@@ -4051,7 +4051,7 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4060,7 +4060,7 @@
         <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4069,10 +4069,10 @@
         <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
@@ -4090,7 +4090,7 @@
         <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
         <v>2.08</v>
@@ -4114,7 +4114,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
@@ -4135,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>44</v>
@@ -4180,13 +4180,13 @@
         <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
@@ -4195,7 +4195,7 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4228,7 +4228,7 @@
         <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
         <v>16</v>
@@ -4267,7 +4267,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
@@ -4312,58 +4312,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X29" t="n">
         <v>18.5</v>
@@ -4381,16 +4381,16 @@
         <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
         <v>19.5</v>
@@ -4399,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4408,16 +4408,16 @@
         <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -4465,31 +4465,31 @@
         <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
         <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
         <v>2.08</v>
@@ -4507,7 +4507,7 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA30" t="n">
         <v>100</v>
@@ -4594,13 +4594,13 @@
         <v>7.2</v>
       </c>
       <c r="J31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
       </c>
-      <c r="K31" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4612,7 +4612,7 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q31" t="n">
         <v>1.53</v>
@@ -4624,7 +4624,7 @@
         <v>2.28</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
         <v>2.4</v>
@@ -4636,7 +4636,7 @@
         <v>2.92</v>
       </c>
       <c r="X31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4684,7 +4684,7 @@
         <v>70</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO31" t="n">
         <v>65</v>
@@ -4720,7 +4720,7 @@
         <v>2.66</v>
       </c>
       <c r="G32" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
@@ -4735,22 +4735,22 @@
         <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4798,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
@@ -4888,10 +4888,10 @@
         <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T33" t="n">
         <v>1.92</v>
@@ -4990,13 +4990,13 @@
         <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5017,10 +5017,10 @@
         <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
         <v>1.26</v>
@@ -5029,7 +5029,7 @@
         <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>1.94</v>
@@ -5038,7 +5038,7 @@
         <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
@@ -5065,7 +5065,7 @@
         <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
         <v>1.87</v>
@@ -5131,13 +5131,13 @@
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5155,13 +5155,13 @@
         <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
         <v>1.81</v>
@@ -5170,7 +5170,7 @@
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
         <v>2.14</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G37" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
         <v>3.8</v>
@@ -5407,10 +5407,10 @@
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5422,82 +5422,82 @@
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
         <v>1.37</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
         <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE37" t="n">
         <v>42</v>
       </c>
       <c r="AF37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>20</v>
-      </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="n">
         <v>30</v>
       </c>
       <c r="AK37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO37" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="G38" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="H38" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
         <v>3.45</v>
@@ -5548,25 +5548,25 @@
         <v>1.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O38" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T38" t="n">
         <v>1.92</v>
@@ -5581,37 +5581,37 @@
         <v>1.67</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD38" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5680,7 +5680,7 @@
         <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5707,7 +5707,7 @@
         <v>1.99</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
         <v>1.66</v>
@@ -5962,7 +5962,7 @@
         <v>1.52</v>
       </c>
       <c r="P41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q41" t="n">
         <v>2.58</v>
@@ -5986,7 +5986,7 @@
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
         <v>9.199999999999999</v>
@@ -6016,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
         <v>70</v>
@@ -6028,16 +6028,16 @@
         <v>38</v>
       </c>
       <c r="AL41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
         <v>44</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
@@ -6076,7 +6076,7 @@
         <v>2.66</v>
       </c>
       <c r="I42" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -6085,13 +6085,13 @@
         <v>3.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O42" t="n">
         <v>1.57</v>
@@ -6100,7 +6100,7 @@
         <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R42" t="n">
         <v>1.19</v>
@@ -6118,10 +6118,10 @@
         <v>1.58</v>
       </c>
       <c r="W42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X42" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -6136,7 +6136,7 @@
         <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>13</v>
@@ -6205,10 +6205,10 @@
         <v>2.5</v>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
         <v>3.45</v>
@@ -6226,34 +6226,34 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U43" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X43" t="n">
         <v>11.5</v>
@@ -6265,7 +6265,7 @@
         <v>42</v>
       </c>
       <c r="AA43" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="AB43" t="n">
         <v>9.6</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I44" t="n">
         <v>5.7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M44" t="n">
         <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O44" t="n">
         <v>1.67</v>
@@ -6370,13 +6370,13 @@
         <v>1.46</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R44" t="n">
         <v>1.16</v>
       </c>
       <c r="S44" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T44" t="n">
         <v>2.56</v>
@@ -6409,13 +6409,13 @@
         <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE44" t="n">
         <v>130</v>
       </c>
       <c r="AF44" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6424,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
@@ -6505,10 +6505,10 @@
         <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S45" t="n">
         <v>4.5</v>
@@ -6517,7 +6517,7 @@
         <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V45" t="n">
         <v>1.35</v>
@@ -6535,7 +6535,7 @@
         <v>25</v>
       </c>
       <c r="AA45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="n">
         <v>8.199999999999999</v>
@@ -6553,13 +6553,13 @@
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH45" t="n">
         <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
         <v>30</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
         <v>1.34</v>
       </c>
       <c r="H46" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>5.8</v>
@@ -6625,25 +6625,25 @@
         <v>6.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O46" t="n">
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R46" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S46" t="n">
         <v>2.5</v>
@@ -6652,7 +6652,7 @@
         <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V46" t="n">
         <v>1.09</v>
@@ -6697,7 +6697,7 @@
         <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK46" t="n">
         <v>15</v>
@@ -6709,7 +6709,7 @@
         <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G47" t="n">
         <v>16</v>
@@ -6751,16 +6751,16 @@
         <v>1.19</v>
       </c>
       <c r="I47" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J47" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6772,25 +6772,25 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>1.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T47" t="n">
         <v>2.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="W47" t="n">
         <v>1.06</v>
@@ -6817,7 +6817,7 @@
         <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
         <v>150</v>
@@ -6841,7 +6841,7 @@
         <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN47" t="n">
         <v>1000</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G49" t="n">
         <v>9.4</v>
@@ -7021,7 +7021,7 @@
         <v>1.46</v>
       </c>
       <c r="I49" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J49" t="n">
         <v>4.7</v>
@@ -7030,31 +7030,31 @@
         <v>4.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P49" t="n">
         <v>1.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R49" t="n">
         <v>1.25</v>
       </c>
       <c r="S49" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T49" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U49" t="n">
         <v>1.58</v>
@@ -7108,7 +7108,7 @@
         <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AM49" t="n">
         <v>360</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G50" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H50" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K50" t="n">
         <v>5.1</v>
@@ -7198,7 +7198,7 @@
         <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X50" t="n">
         <v>27</v>
@@ -7207,22 +7207,22 @@
         <v>27</v>
       </c>
       <c r="Z50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD50" t="n">
         <v>30</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF50" t="n">
         <v>12.5</v>
@@ -7234,7 +7234,7 @@
         <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ50" t="n">
         <v>18</v>
@@ -7252,7 +7252,7 @@
         <v>7.2</v>
       </c>
       <c r="AO50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7288,7 +7288,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I51" t="n">
         <v>1.63</v>
@@ -7339,25 +7339,25 @@
         <v>990</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
         <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB51" t="n">
         <v>990</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD51" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
@@ -7423,10 +7423,10 @@
         <v>1.94</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J52" t="n">
         <v>3.3</v>
@@ -7435,7 +7435,7 @@
         <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
@@ -7447,34 +7447,34 @@
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S52" t="n">
         <v>3.85</v>
       </c>
       <c r="T52" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U52" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W52" t="n">
         <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
@@ -7483,34 +7483,34 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC52" t="n">
         <v>9.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="n">
         <v>1000</v>
@@ -7519,7 +7519,7 @@
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7555,13 +7555,13 @@
         <v>1.19</v>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J53" t="n">
         <v>8.199999999999999</v>
@@ -7588,22 +7588,22 @@
         <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U53" t="n">
         <v>1.84</v>
       </c>
       <c r="V53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X53" t="n">
         <v>40</v>
@@ -7612,16 +7612,16 @@
         <v>75</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD53" t="n">
         <v>70</v>
@@ -7630,7 +7630,7 @@
         <v>350</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG53" t="n">
         <v>13.5</v>
@@ -7696,7 +7696,7 @@
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
@@ -7732,7 +7732,7 @@
         <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
@@ -7828,7 +7828,7 @@
         <v>4.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
         <v>2.04</v>
@@ -7855,19 +7855,19 @@
         <v>1.86</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S55" t="n">
         <v>3.95</v>
       </c>
       <c r="T55" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V55" t="n">
         <v>1.96</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G56" t="n">
         <v>1.87</v>
@@ -7966,37 +7966,37 @@
         <v>5.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M56" t="n">
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O56" t="n">
         <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R56" t="n">
         <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T56" t="n">
         <v>2.04</v>
@@ -8020,7 +8020,7 @@
         <v>44</v>
       </c>
       <c r="AA56" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB56" t="n">
         <v>7.6</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AJ56" t="n">
         <v>21</v>
@@ -8056,7 +8056,7 @@
         <v>46</v>
       </c>
       <c r="AM56" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
         <v>16</v>
@@ -8110,13 +8110,13 @@
         <v>3.35</v>
       </c>
       <c r="L57" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M57" t="n">
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O57" t="n">
         <v>1.41</v>
@@ -8137,7 +8137,7 @@
         <v>1.94</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V57" t="n">
         <v>1.78</v>
@@ -8260,7 +8260,7 @@
         <v>1.24</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,103 +802,103 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
@@ -955,40 +955,40 @@
         <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
         <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T4" t="n">
         <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X4" t="n">
         <v>9.4</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO5" t="n">
         <v>600</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1225,7 +1225,7 @@
         <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1237,19 +1237,19 @@
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
@@ -1258,22 +1258,22 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1288,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>36</v>
@@ -1297,7 +1297,7 @@
         <v>290</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AK6" t="n">
         <v>110</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1369,10 +1369,10 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
@@ -1381,7 +1381,7 @@
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1390,64 +1390,64 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>14</v>
       </c>
-      <c r="Y7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>370</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>380</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1507,61 +1507,61 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
         <v>990</v>
       </c>
       <c r="Y8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1570,10 +1570,10 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
         <v>2.36</v>
@@ -1630,31 +1630,31 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="R9" t="n">
         <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
         <v>1.79</v>
@@ -1663,10 +1663,10 @@
         <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1690,19 +1690,19 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
         <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
         <v>65</v>
@@ -1711,7 +1711,7 @@
         <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
         <v>85</v>
@@ -1762,7 +1762,7 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.49</v>
@@ -1771,28 +1771,28 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
         <v>2.8</v>
@@ -1807,7 +1807,7 @@
         <v>6.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA10" t="n">
         <v>13.5</v>
@@ -1819,7 +1819,7 @@
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1828,13 +1828,13 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1915,31 +1915,31 @@
         <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,22 +1960,22 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2044,13 +2044,13 @@
         <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2077,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2095,7 +2095,7 @@
         <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.82</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.84</v>
-      </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2170,13 +2170,13 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
@@ -2197,25 +2197,25 @@
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,10 +2224,10 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.51</v>
@@ -2311,49 +2311,49 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
@@ -2365,34 +2365,34 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2470,16 +2470,16 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
         <v>3.45</v>
@@ -2566,16 +2566,16 @@
         <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2584,22 +2584,22 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
         <v>1.94</v>
@@ -2608,37 +2608,37 @@
         <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AH16" t="n">
         <v>40</v>
@@ -2647,22 +2647,22 @@
         <v>290</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2698,43 +2698,43 @@
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I17" t="n">
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
@@ -2746,7 +2746,7 @@
         <v>1.27</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.199999999999999</v>
@@ -2773,13 +2773,13 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
         <v>100</v>
@@ -2788,7 +2788,7 @@
         <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
@@ -2827,70 +2827,70 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
         <v>990</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
         <v>18</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.45</v>
@@ -2986,70 +2986,70 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
         <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
         <v>9.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
         <v>220</v>
       </c>
       <c r="AG19" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AH19" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3100,58 +3100,58 @@
         <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>14.5</v>
@@ -3166,13 +3166,13 @@
         <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
@@ -3181,16 +3181,16 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AJ20" t="n">
         <v>36</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>1.44</v>
@@ -3247,40 +3247,40 @@
         <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>1.12</v>
@@ -3289,7 +3289,7 @@
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z21" t="n">
         <v>19</v>
@@ -3301,10 +3301,10 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>14.5</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -3385,7 +3385,7 @@
         <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3400,13 +3400,13 @@
         <v>2.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
         <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
         <v>2.1</v>
@@ -3430,19 +3430,19 @@
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="n">
         <v>8.199999999999999</v>
@@ -3454,7 +3454,7 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.4</v>
@@ -3469,7 +3469,7 @@
         <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
         <v>260</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3520,43 +3520,43 @@
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
         <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
@@ -3568,7 +3568,7 @@
         <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3580,7 +3580,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
@@ -3589,7 +3589,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>18.5</v>
@@ -3601,7 +3601,7 @@
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
         <v>13</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G24" t="n">
         <v>1.53</v>
@@ -3652,10 +3652,10 @@
         <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3670,19 +3670,19 @@
         <v>1.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
         <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
         <v>1.11</v>
@@ -3694,7 +3694,7 @@
         <v>90</v>
       </c>
       <c r="Y24" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC24" t="n">
         <v>19</v>
@@ -3715,7 +3715,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
         <v>18</v>
@@ -3781,7 +3781,7 @@
         <v>1.94</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3796,16 +3796,16 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
@@ -3835,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
         <v>16</v>
@@ -3865,16 +3865,16 @@
         <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
         <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
         <v>12.5</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
         <v>3.25</v>
@@ -3925,64 +3925,64 @@
         <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
         <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4000,10 +4000,10 @@
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.7</v>
       </c>
-      <c r="K27" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
         <v>2.06</v>
@@ -4090,31 +4090,31 @@
         <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X27" t="n">
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>7.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
@@ -4132,22 +4132,22 @@
         <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
         <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4177,85 +4177,85 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>9.6</v>
@@ -4264,22 +4264,22 @@
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK28" t="n">
         <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM28" t="n">
         <v>95</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO28" t="n">
         <v>75</v>
@@ -4312,100 +4312,100 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="I29" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="J29" t="n">
         <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>4.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R29" t="n">
         <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB29" t="n">
         <v>32</v>
       </c>
-      <c r="AB29" t="n">
-        <v>18</v>
-      </c>
       <c r="AC29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD29" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH29" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4462,64 +4462,64 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>980</v>
@@ -4531,28 +4531,28 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
         <v>42</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,49 +4582,49 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I31" t="n">
         <v>7</v>
       </c>
-      <c r="I31" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q31" t="n">
         <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
         <v>2.4</v>
@@ -4633,10 +4633,10 @@
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4645,10 +4645,10 @@
         <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
         <v>11.5</v>
@@ -4663,19 +4663,19 @@
         <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
         <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
         <v>14.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>1.57</v>
@@ -4741,10 +4741,10 @@
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
         <v>1.59</v>
@@ -4759,43 +4759,43 @@
         <v>5.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
@@ -4804,25 +4804,25 @@
         <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G33" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H33" t="n">
         <v>4.6</v>
@@ -4876,7 +4876,7 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
@@ -4885,13 +4885,13 @@
         <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
         <v>1.92</v>
@@ -4936,7 +4936,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
         <v>70</v>
@@ -4993,7 +4993,7 @@
         <v>2.22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
         <v>3.95</v>
@@ -5005,46 +5005,46 @@
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z34" t="n">
         <v>26</v>
@@ -5053,7 +5053,7 @@
         <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
@@ -5062,16 +5062,16 @@
         <v>16</v>
       </c>
       <c r="AE34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
         <v>70</v>
@@ -5080,19 +5080,19 @@
         <v>28</v>
       </c>
       <c r="AK34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -5122,73 +5122,73 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U35" t="n">
         <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
         <v>38</v>
       </c>
       <c r="AA35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>8.6</v>
@@ -5200,7 +5200,7 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
         <v>9.6</v>
@@ -5209,7 +5209,7 @@
         <v>18.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
         <v>20</v>
@@ -5221,10 +5221,10 @@
         <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G36" t="n">
         <v>3.2</v>
@@ -5266,70 +5266,70 @@
         <v>2.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
         <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
         <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
         <v>36</v>
@@ -5341,7 +5341,7 @@
         <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>55</v>
@@ -5353,7 +5353,7 @@
         <v>46</v>
       </c>
       <c r="AL36" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
@@ -5362,7 +5362,7 @@
         <v>42</v>
       </c>
       <c r="AO36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>3.35</v>
@@ -5404,100 +5404,100 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P37" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
         <v>190</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
         <v>15.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM37" t="n">
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AO37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,91 +5527,91 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="H38" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="n">
         <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="O38" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R38" t="n">
         <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W38" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
         <v>990</v>
       </c>
-      <c r="Y38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5662,73 +5662,73 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
         <v>2.72</v>
       </c>
       <c r="O39" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="R39" t="n">
         <v>1.2</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W39" t="n">
         <v>1.35</v>
       </c>
       <c r="X39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
         <v>7.4</v>
@@ -5737,10 +5737,10 @@
         <v>12.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG39" t="n">
         <v>16.5</v>
@@ -5752,22 +5752,22 @@
         <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="n">
         <v>150</v>
       </c>
       <c r="AL39" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AO39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="I40" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
@@ -5815,46 +5815,46 @@
         <v>3.45</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="O40" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Q40" t="n">
         <v>2.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W40" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
         <v>14.5</v>
@@ -5869,19 +5869,19 @@
         <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5944,40 +5944,40 @@
         <v>3.1</v>
       </c>
       <c r="J41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.1</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="M41" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="P41" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="R41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S41" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="V41" t="n">
         <v>1.47</v>
@@ -5986,10 +5986,10 @@
         <v>1.54</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z41" t="n">
         <v>18</v>
@@ -5998,46 +5998,46 @@
         <v>55</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF41" t="n">
         <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="n">
         <v>70</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="n">
+      <c r="AM41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO41" t="n">
         <v>60</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="42">
@@ -6067,112 +6067,112 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H42" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N42" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="O42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.57</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
         <v>44</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
         <v>7</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AF42" t="n">
         <v>21</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="n">
         <v>70</v>
       </c>
       <c r="AK42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN42" t="n">
         <v>80</v>
       </c>
-      <c r="AM42" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>75</v>
-      </c>
       <c r="AO42" t="n">
-        <v>44</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>2.5</v>
       </c>
       <c r="G43" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
@@ -6214,19 +6214,19 @@
         <v>3.45</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
         <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
@@ -6235,7 +6235,7 @@
         <v>1.79</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>1.3</v>
@@ -6244,31 +6244,31 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AA43" t="n">
         <v>340</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC43" t="n">
         <v>7.8</v>
@@ -6277,28 +6277,28 @@
         <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG43" t="n">
         <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM43" t="n">
         <v>580</v>
@@ -6307,7 +6307,7 @@
         <v>70</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
@@ -6337,40 +6337,40 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I44" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.2</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M44" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O44" t="n">
         <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R44" t="n">
         <v>1.16</v>
@@ -6379,16 +6379,16 @@
         <v>6.8</v>
       </c>
       <c r="T44" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="U44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V44" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
         <v>7.4</v>
@@ -6397,25 +6397,25 @@
         <v>12.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB44" t="n">
         <v>5.7</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD44" t="n">
         <v>25</v>
       </c>
       <c r="AE44" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6424,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ44" t="n">
         <v>22</v>
@@ -6436,13 +6436,13 @@
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="n">
         <v>27</v>
       </c>
       <c r="AO44" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I45" t="n">
         <v>3.75</v>
       </c>
-      <c r="I45" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
         <v>3.35</v>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -6508,31 +6508,31 @@
         <v>2.34</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
         <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U45" t="n">
         <v>1.98</v>
       </c>
       <c r="V45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA45" t="n">
         <v>75</v>
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
         <v>55</v>
@@ -6574,7 +6574,7 @@
         <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
         <v>65</v>
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G46" t="n">
         <v>1.34</v>
       </c>
       <c r="H46" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
         <v>6.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -6637,61 +6637,61 @@
         <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S46" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U46" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V46" t="n">
         <v>1.09</v>
       </c>
       <c r="W46" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y46" t="n">
         <v>38</v>
       </c>
       <c r="Z46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA46" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AB46" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD46" t="n">
         <v>40</v>
       </c>
       <c r="AE46" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI46" t="n">
         <v>150</v>
@@ -6700,10 +6700,10 @@
         <v>10.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
         <v>170</v>
@@ -6712,7 +6712,7 @@
         <v>4.9</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
@@ -6742,25 +6742,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="I47" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="J47" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6769,85 +6769,85 @@
         <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="R47" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="S47" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="T47" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AA47" t="n">
         <v>10.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC47" t="n">
         <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF47" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>490</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>180</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM47" t="n">
         <v>150</v>
       </c>
-      <c r="AG47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>270</v>
-      </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G48" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I48" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J48" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
         <v>1.28</v>
@@ -6901,43 +6901,43 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R48" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T48" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U48" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W48" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA48" t="n">
         <v>130</v>
@@ -6949,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
         <v>55</v>
@@ -6964,13 +6964,13 @@
         <v>17</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ48" t="n">
         <v>17</v>
       </c>
       <c r="AK48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL48" t="n">
         <v>23</v>
@@ -6979,7 +6979,7 @@
         <v>60</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO48" t="n">
         <v>48</v>
@@ -7012,73 +7012,73 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G49" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="I49" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="J49" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O49" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P49" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="R49" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S49" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U49" t="n">
         <v>1.58</v>
       </c>
       <c r="V49" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="W49" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z49" t="n">
         <v>7.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="n">
         <v>10.5</v>
@@ -7087,13 +7087,13 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
         <v>85</v>
       </c>
       <c r="AG49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH49" t="n">
         <v>40</v>
@@ -7102,10 +7102,10 @@
         <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="AK49" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AL49" t="n">
         <v>240</v>
@@ -7114,10 +7114,10 @@
         <v>360</v>
       </c>
       <c r="AN49" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="50">
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G50" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J50" t="n">
         <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -7174,37 +7174,37 @@
         <v>4.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R50" t="n">
         <v>1.51</v>
       </c>
       <c r="S50" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T50" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="U50" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V50" t="n">
         <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X50" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
         <v>60</v>
@@ -7213,10 +7213,10 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC50" t="n">
         <v>11</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>11.5</v>
       </c>
       <c r="AD50" t="n">
         <v>30</v>
@@ -7225,10 +7225,10 @@
         <v>210</v>
       </c>
       <c r="AF50" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
         <v>25</v>
@@ -7237,16 +7237,16 @@
         <v>190</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
         <v>7.2</v>
@@ -7282,55 +7282,55 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I51" t="n">
         <v>1.63</v>
       </c>
       <c r="J51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O51" t="n">
         <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S51" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U51" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W51" t="n">
         <v>1.17</v>
@@ -7339,10 +7339,10 @@
         <v>990</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA51" t="n">
         <v>900</v>
@@ -7354,10 +7354,10 @@
         <v>22</v>
       </c>
       <c r="AD51" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF51" t="n">
         <v>1000</v>
@@ -7387,7 +7387,7 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G52" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H52" t="n">
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J52" t="n">
         <v>3.3</v>
@@ -7435,28 +7435,28 @@
         <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T52" t="n">
         <v>2.06</v>
@@ -7465,13 +7465,13 @@
         <v>1.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
         <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y52" t="n">
         <v>34</v>
@@ -7489,7 +7489,7 @@
         <v>9.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
@@ -7507,10 +7507,10 @@
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL52" t="n">
         <v>1000</v>
@@ -7552,97 +7552,97 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G53" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="n">
         <v>22</v>
       </c>
       <c r="J53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="L53" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P53" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T53" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U53" t="n">
         <v>1.84</v>
       </c>
       <c r="V53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W53" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="X53" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y53" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z53" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD53" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH53" t="n">
         <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7651,13 +7651,13 @@
         <v>42</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54">
@@ -7696,7 +7696,7 @@
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J54" t="n">
         <v>5</v>
@@ -7705,7 +7705,7 @@
         <v>5.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7726,13 +7726,13 @@
         <v>1.47</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T54" t="n">
         <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
@@ -7744,16 +7744,16 @@
         <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
@@ -7765,7 +7765,7 @@
         <v>140</v>
       </c>
       <c r="AF54" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG54" t="n">
         <v>9.4</v>
@@ -7789,7 +7789,7 @@
         <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO54" t="n">
         <v>160</v>
@@ -7825,22 +7825,22 @@
         <v>4.1</v>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I55" t="n">
         <v>2.04</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
         <v>3.75</v>
       </c>
       <c r="L55" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -7855,10 +7855,10 @@
         <v>1.86</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R55" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S55" t="n">
         <v>3.95</v>
@@ -7873,7 +7873,7 @@
         <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7888,7 +7888,7 @@
         <v>24</v>
       </c>
       <c r="AB55" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC55" t="n">
         <v>8</v>
@@ -7900,7 +7900,7 @@
         <v>22</v>
       </c>
       <c r="AF55" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG55" t="n">
         <v>16.5</v>
@@ -7912,13 +7912,13 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
         <v>120</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G56" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H56" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I56" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.48</v>
@@ -7981,37 +7981,37 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O56" t="n">
         <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R56" t="n">
         <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T56" t="n">
         <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V56" t="n">
         <v>1.21</v>
       </c>
       <c r="W56" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X56" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y56" t="n">
         <v>16.5</v>
@@ -8035,7 +8035,7 @@
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG56" t="n">
         <v>10.5</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="J57" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8116,34 +8116,34 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O57" t="n">
         <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q57" t="n">
         <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S57" t="n">
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V57" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="W57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X57" t="n">
         <v>11</v>
@@ -8152,10 +8152,10 @@
         <v>10</v>
       </c>
       <c r="Z57" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB57" t="n">
         <v>13</v>
@@ -8167,10 +8167,10 @@
         <v>11</v>
       </c>
       <c r="AE57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF57" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG57" t="n">
         <v>18</v>
@@ -8182,10 +8182,10 @@
         <v>48</v>
       </c>
       <c r="AJ57" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL57" t="n">
         <v>70</v>
@@ -8194,10 +8194,10 @@
         <v>130</v>
       </c>
       <c r="AN57" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -8227,112 +8227,112 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="G58" t="n">
-        <v>44</v>
+        <v>2.56</v>
       </c>
       <c r="H58" t="n">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="K58" t="n">
         <v>3.75</v>
       </c>
       <c r="L58" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>1.25</v>
+        <v>3.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="R58" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S58" t="n">
-        <v>1.38</v>
+        <v>3.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U58" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V58" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="W58" t="n">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -700,37 +700,37 @@
         <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -745,34 +745,34 @@
         <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
         <v>2.52</v>
@@ -844,58 +844,58 @@
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,100 +937,100 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="n">
         <v>1.46</v>
@@ -1105,79 +1105,79 @@
         <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1228,19 +1228,19 @@
         <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,58 +1249,58 @@
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>290</v>
       </c>
       <c r="AJ6" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
         <v>130</v>
@@ -1312,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1366,55 +1366,55 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
         <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>370</v>
@@ -1426,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
         <v>380</v>
@@ -1438,7 +1438,7 @@
         <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="J8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.22</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.16</v>
-      </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
         <v>65</v>
       </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.9</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.38</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1630,46 +1630,46 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
         <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
         <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
         <v>12.5</v>
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>16.5</v>
@@ -1702,22 +1702,22 @@
         <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
         <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.73</v>
@@ -1786,19 +1786,19 @@
         <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1807,31 +1807,31 @@
         <v>6.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
         <v>95</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1903,79 +1903,79 @@
         <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2035,52 +2035,52 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2092,7 +2092,7 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
         <v>18</v>
@@ -2107,10 +2107,10 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2119,10 +2119,10 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
         <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2170,7 +2170,7 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2179,16 +2179,16 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>3.45</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,7 +2224,7 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
@@ -2245,7 +2245,7 @@
         <v>18.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -2311,16 +2311,16 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2332,19 +2332,19 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>36</v>
@@ -2353,13 +2353,13 @@
         <v>180</v>
       </c>
       <c r="AB14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE14" t="n">
         <v>75</v>
@@ -2371,13 +2371,13 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>24</v>
@@ -2392,7 +2392,7 @@
         <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O15" t="n">
         <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2464,22 +2464,22 @@
         <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2491,10 +2491,10 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2590,7 +2590,7 @@
         <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
         <v>1.25</v>
@@ -2632,7 +2632,7 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
         <v>44</v>
@@ -2641,25 +2641,25 @@
         <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
         <v>500</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="n">
         <v>600</v>
@@ -2695,43 +2695,43 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.79</v>
@@ -2743,7 +2743,7 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>2.78</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
         <v>990</v>
       </c>
-      <c r="Y18" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO18" t="n">
         <v>28</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>7.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.45</v>
@@ -3004,13 +3004,13 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
         <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W19" t="n">
         <v>1.17</v>
@@ -3022,7 +3022,7 @@
         <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA19" t="n">
         <v>34</v>
@@ -3031,7 +3031,7 @@
         <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3043,13 +3043,13 @@
         <v>220</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="n">
         <v>46</v>
       </c>
       <c r="AI19" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
         <v>2.4</v>
@@ -3112,7 +3112,7 @@
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3142,7 +3142,7 @@
         <v>1.95</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
@@ -3241,10 +3241,10 @@
         <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
         <v>5.3</v>
@@ -3286,19 +3286,19 @@
         <v>1.12</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="n">
         <v>8.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC21" t="n">
         <v>11.5</v>
@@ -3307,7 +3307,7 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3373,10 +3373,10 @@
         <v>1.27</v>
       </c>
       <c r="H22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -3397,10 +3397,10 @@
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
         <v>1.71</v>
@@ -3409,13 +3409,13 @@
         <v>2.36</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
         <v>4.7</v>
@@ -3430,7 +3430,7 @@
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -3454,7 +3454,7 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.4</v>
@@ -3472,7 +3472,7 @@
         <v>3.95</v>
       </c>
       <c r="AO22" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3514,10 +3514,10 @@
         <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.46</v>
@@ -3532,16 +3532,16 @@
         <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
         <v>1.99</v>
@@ -3550,7 +3550,7 @@
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
@@ -3586,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>85</v>
@@ -3646,7 +3646,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J24" t="n">
         <v>4.2</v>
@@ -3664,10 +3664,10 @@
         <v>3.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q24" t="n">
         <v>2.02</v>
@@ -3694,7 +3694,7 @@
         <v>90</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
         <v>1.94</v>
       </c>
       <c r="I25" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3805,16 +3805,16 @@
         <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3823,13 +3823,13 @@
         <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z25" t="n">
         <v>12</v>
@@ -3838,7 +3838,7 @@
         <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
@@ -3847,10 +3847,10 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
@@ -3865,19 +3865,19 @@
         <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -3916,7 +3916,7 @@
         <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
@@ -3925,31 +3925,31 @@
         <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.29</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -3961,7 +3961,7 @@
         <v>1.63</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -3973,13 +3973,13 @@
         <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>38</v>
@@ -3991,10 +3991,10 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
@@ -4003,13 +4003,13 @@
         <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>42</v>
@@ -4051,7 +4051,7 @@
         <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
@@ -4060,13 +4060,13 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -4075,28 +4075,28 @@
         <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
         <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
         <v>2.06</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>13.5</v>
@@ -4183,7 +4183,7 @@
         <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I28" t="n">
         <v>5.7</v>
@@ -4210,10 +4210,10 @@
         <v>2.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
         <v>3.2</v>
@@ -4222,7 +4222,7 @@
         <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
@@ -4234,13 +4234,13 @@
         <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
         <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4261,7 +4261,7 @@
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
         <v>70</v>
@@ -4312,97 +4312,97 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.99</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.29</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>2.08</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4459,10 +4459,10 @@
         <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.44</v>
@@ -4471,43 +4471,43 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA30" t="n">
         <v>270</v>
@@ -4519,13 +4519,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4534,25 +4534,25 @@
         <v>18</v>
       </c>
       <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM30" t="n">
         <v>150</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4618,10 +4618,10 @@
         <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T31" t="n">
         <v>1.67</v>
@@ -4633,7 +4633,7 @@
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X31" t="n">
         <v>28</v>
@@ -4717,97 +4717,97 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="X32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
         <v>34</v>
@@ -4816,13 +4816,13 @@
         <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="n">
         <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H33" t="n">
         <v>4.6</v>
@@ -4864,7 +4864,7 @@
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
         <v>3.65</v>
@@ -4876,7 +4876,7 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
@@ -4885,7 +4885,7 @@
         <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
@@ -4894,7 +4894,7 @@
         <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
@@ -4933,7 +4933,7 @@
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
@@ -4954,7 +4954,7 @@
         <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5005,7 +5005,7 @@
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -5032,13 +5032,13 @@
         <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5125,19 +5125,19 @@
         <v>1.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
         <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.41</v>
@@ -5152,22 +5152,22 @@
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
         <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
         <v>1.25</v>
@@ -5182,16 +5182,16 @@
         <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="n">
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
         <v>19</v>
@@ -5215,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="AK35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
         <v>34</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
         <v>2.6</v>
@@ -5269,7 +5269,7 @@
         <v>2.88</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
         <v>3.5</v>
@@ -5359,7 +5359,7 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="n">
         <v>34</v>
@@ -5422,7 +5422,7 @@
         <v>1.35</v>
       </c>
       <c r="P37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q37" t="n">
         <v>2.02</v>
@@ -5437,7 +5437,7 @@
         <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
         <v>1.36</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="G38" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K38" t="n">
         <v>3.35</v>
@@ -5566,7 +5566,7 @@
         <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T38" t="n">
         <v>2.02</v>
@@ -5575,28 +5575,28 @@
         <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5608,10 +5608,10 @@
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
         <v>3.9</v>
@@ -5680,7 +5680,7 @@
         <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>2.14</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.53</v>
@@ -5839,7 +5839,7 @@
         <v>4.6</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
         <v>1.87</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G41" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
@@ -5950,22 +5950,22 @@
         <v>3.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M41" t="n">
         <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O41" t="n">
         <v>1.59</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R41" t="n">
         <v>1.19</v>
@@ -5974,16 +5974,16 @@
         <v>5.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X41" t="n">
         <v>8.199999999999999</v>
@@ -6004,10 +6004,10 @@
         <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF41" t="n">
         <v>16.5</v>
@@ -6019,7 +6019,7 @@
         <v>24</v>
       </c>
       <c r="AI41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="n">
         <v>46</v>
@@ -6070,22 +6070,22 @@
         <v>3.3</v>
       </c>
       <c r="G42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H42" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I42" t="n">
         <v>2.74</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K42" t="n">
         <v>3.05</v>
       </c>
       <c r="L42" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M42" t="n">
         <v>1.15</v>
@@ -6094,13 +6094,13 @@
         <v>2.54</v>
       </c>
       <c r="O42" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P42" t="n">
         <v>1.49</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R42" t="n">
         <v>1.17</v>
@@ -6109,31 +6109,31 @@
         <v>6.2</v>
       </c>
       <c r="T42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V42" t="n">
         <v>1.57</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA42" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
         <v>7</v>
@@ -6145,10 +6145,10 @@
         <v>42</v>
       </c>
       <c r="AF42" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
         <v>26</v>
@@ -6157,10 +6157,10 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
         <v>90</v>
@@ -6172,7 +6172,7 @@
         <v>80</v>
       </c>
       <c r="AO42" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6211,7 +6211,7 @@
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
@@ -6247,7 +6247,7 @@
         <v>1.84</v>
       </c>
       <c r="U43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
@@ -6259,19 +6259,19 @@
         <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
         <v>24</v>
       </c>
       <c r="AA43" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
         <v>15</v>
@@ -6292,7 +6292,7 @@
         <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK43" t="n">
         <v>32</v>
@@ -6304,10 +6304,10 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AO43" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -6343,10 +6343,10 @@
         <v>1.99</v>
       </c>
       <c r="H44" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6355,31 +6355,31 @@
         <v>3.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="M44" t="n">
         <v>1.16</v>
       </c>
       <c r="N44" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O44" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P44" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
         <v>1.16</v>
       </c>
       <c r="S44" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U44" t="n">
         <v>1.62</v>
@@ -6403,7 +6403,7 @@
         <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC44" t="n">
         <v>7.4</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G45" t="n">
         <v>2.32</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.34</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.3</v>
@@ -6514,16 +6514,16 @@
         <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6607,91 +6607,91 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G46" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K46" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R46" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S46" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="T46" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="U46" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
         <v>1.09</v>
       </c>
       <c r="W46" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X46" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y46" t="n">
         <v>38</v>
       </c>
       <c r="Z46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA46" t="n">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD46" t="n">
         <v>40</v>
       </c>
       <c r="AE46" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI46" t="n">
         <v>150</v>
@@ -6700,19 +6700,19 @@
         <v>10.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL46" t="n">
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -6745,22 +6745,22 @@
         <v>11.5</v>
       </c>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="I47" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -6769,49 +6769,49 @@
         <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V47" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X47" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="n">
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
         <v>11</v>
@@ -6820,34 +6820,34 @@
         <v>25</v>
       </c>
       <c r="AF47" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG47" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AJ47" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AL47" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AM47" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
         <v>280</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="48">
@@ -6970,16 +6970,16 @@
         <v>17</v>
       </c>
       <c r="AK48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO48" t="n">
         <v>48</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="H49" t="n">
         <v>1.51</v>
@@ -7024,58 +7024,58 @@
         <v>1.52</v>
       </c>
       <c r="J49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.4</v>
       </c>
-      <c r="K49" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="O49" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P49" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="R49" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T49" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="U49" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V49" t="n">
         <v>2.92</v>
       </c>
       <c r="W49" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB49" t="n">
         <v>20</v>
@@ -7087,37 +7087,37 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF49" t="n">
         <v>85</v>
       </c>
       <c r="AG49" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH49" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="AK49" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AO49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G50" t="n">
         <v>1.6</v>
@@ -7189,7 +7189,7 @@
         <v>2.68</v>
       </c>
       <c r="T50" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U50" t="n">
         <v>2.04</v>
@@ -7219,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
         <v>210</v>
@@ -7231,7 +7231,7 @@
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
         <v>190</v>
@@ -7285,19 +7285,19 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J51" t="n">
         <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>1.31</v>
@@ -7309,10 +7309,10 @@
         <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
@@ -7321,16 +7321,16 @@
         <v>1.54</v>
       </c>
       <c r="S51" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T51" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U51" t="n">
         <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W51" t="n">
         <v>1.17</v>
@@ -7354,7 +7354,7 @@
         <v>22</v>
       </c>
       <c r="AD51" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AE51" t="n">
         <v>65</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G52" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I52" t="n">
         <v>6.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.5</v>
@@ -7468,13 +7468,13 @@
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X52" t="n">
         <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
@@ -7486,7 +7486,7 @@
         <v>14.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -7510,7 +7510,7 @@
         <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
         <v>1000</v>
@@ -7555,19 +7555,19 @@
         <v>1.18</v>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L53" t="n">
         <v>1.22</v>
@@ -7576,13 +7576,13 @@
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.11</v>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q53" t="n">
         <v>1.37</v>
@@ -7591,7 +7591,7 @@
         <v>2.02</v>
       </c>
       <c r="S53" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T53" t="n">
         <v>2.12</v>
@@ -7606,13 +7606,13 @@
         <v>6.2</v>
       </c>
       <c r="X53" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="n">
         <v>85</v>
       </c>
       <c r="Z53" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7627,10 +7627,10 @@
         <v>80</v>
       </c>
       <c r="AE53" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG53" t="n">
         <v>14</v>
@@ -7639,10 +7639,10 @@
         <v>38</v>
       </c>
       <c r="AI53" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7651,13 +7651,13 @@
         <v>42</v>
       </c>
       <c r="AM53" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AO53" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
@@ -7690,22 +7690,22 @@
         <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H54" t="n">
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K54" t="n">
         <v>5.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7717,7 +7717,7 @@
         <v>1.26</v>
       </c>
       <c r="P54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q54" t="n">
         <v>1.78</v>
@@ -7732,7 +7732,7 @@
         <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
@@ -7753,7 +7753,7 @@
         <v>280</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
@@ -7777,7 +7777,7 @@
         <v>120</v>
       </c>
       <c r="AJ54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
         <v>15.5</v>
@@ -7792,7 +7792,7 @@
         <v>6.8</v>
       </c>
       <c r="AO54" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55">
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
         <v>2.02</v>
@@ -7834,7 +7834,7 @@
         <v>2.04</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
         <v>3.75</v>
@@ -7861,7 +7861,7 @@
         <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
         <v>1.93</v>
@@ -7873,7 +7873,7 @@
         <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7888,7 +7888,7 @@
         <v>24</v>
       </c>
       <c r="AB55" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC55" t="n">
         <v>8</v>
@@ -7903,7 +7903,7 @@
         <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH55" t="n">
         <v>19.5</v>
@@ -7918,13 +7918,13 @@
         <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM55" t="n">
         <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO55" t="n">
         <v>16.5</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G56" t="n">
         <v>1.86</v>
@@ -7996,13 +7996,13 @@
         <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T56" t="n">
         <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V56" t="n">
         <v>1.21</v>
@@ -8101,19 +8101,19 @@
         <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
         <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
         <v>3.3</v>
@@ -8128,28 +8128,28 @@
         <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S57" t="n">
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U57" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V57" t="n">
         <v>1.84</v>
       </c>
       <c r="W57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X57" t="n">
         <v>11</v>
       </c>
       <c r="Y57" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z57" t="n">
         <v>12.5</v>
@@ -8161,7 +8161,7 @@
         <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>11</v>
@@ -8173,13 +8173,13 @@
         <v>30</v>
       </c>
       <c r="AG57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH57" t="n">
         <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
         <v>90</v>
@@ -8260,7 +8260,7 @@
         <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R58" t="n">
         <v>1.27</v>
@@ -8269,10 +8269,10 @@
         <v>3.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U58" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V58" t="n">
         <v>1.32</v>
@@ -8281,58 +8281,58 @@
         <v>1.64</v>
       </c>
       <c r="X58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z58" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA58" t="n">
         <v>80</v>
       </c>
       <c r="AB58" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF58" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG58" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="n">
         <v>36</v>
       </c>
       <c r="AK58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL58" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO58" t="n">
         <v>55</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.97</v>
+        <v>310</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>3.55</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>1.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>500</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
         <v>2.22</v>
@@ -826,31 +826,31 @@
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T3" t="n">
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
         <v>1.83</v>
@@ -865,10 +865,10 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -877,10 +877,10 @@
         <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -889,10 +889,10 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>30</v>
@@ -907,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.94</v>
       </c>
-      <c r="H5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>22</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>3.1</v>
@@ -1243,76 +1243,76 @@
         <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
         <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO6" t="n">
         <v>42</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>50</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1501,88 +1501,88 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.28</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>9.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1630,7 +1630,7 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
@@ -1642,82 +1642,82 @@
         <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>65</v>
       </c>
       <c r="AJ9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="n">
         <v>95</v>
       </c>
-      <c r="AK9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>90</v>
-      </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>1.56</v>
       </c>
       <c r="I10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1771,7 +1771,7 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
@@ -1780,7 +1780,7 @@
         <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
@@ -1789,19 +1789,19 @@
         <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
         <v>6.8</v>
@@ -1813,10 +1813,10 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1825,7 +1825,7 @@
         <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>510</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
         <v>32</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1906,13 +1906,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -1921,7 +1921,7 @@
         <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
@@ -1930,13 +1930,13 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>36</v>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -2020,37 +2020,37 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.6</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
@@ -2062,19 +2062,19 @@
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>18</v>
@@ -2083,19 +2083,19 @@
         <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2110,19 +2110,19 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.82</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.83</v>
       </c>
       <c r="H13" t="n">
         <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2179,13 +2179,13 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
         <v>1.39</v>
@@ -2194,19 +2194,19 @@
         <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
         <v>2.2</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
         <v>18</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,28 +2224,28 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
         <v>18.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
@@ -2257,7 +2257,7 @@
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -2305,91 +2305,91 @@
         <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="O15" t="n">
         <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2467,46 +2467,46 @@
         <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
         <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>3.4</v>
@@ -2578,7 +2578,7 @@
         <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
         <v>3.05</v>
@@ -2587,7 +2587,7 @@
         <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
         <v>2.28</v>
@@ -2596,7 +2596,7 @@
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
         <v>1.89</v>
@@ -2605,7 +2605,7 @@
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2632,13 +2632,13 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
         <v>44</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>600</v>
@@ -2695,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I17" t="n">
         <v>2.08</v>
@@ -2713,19 +2713,19 @@
         <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
         <v>1.35</v>
@@ -2743,7 +2743,7 @@
         <v>1.92</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2752,19 +2752,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA17" t="n">
         <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="G18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.4</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.62</v>
-      </c>
       <c r="I18" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
         <v>85</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2962,55 +2962,55 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G19" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
         <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
         <v>1.17</v>
@@ -3022,7 +3022,7 @@
         <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>34</v>
@@ -3031,7 +3031,7 @@
         <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3046,10 +3046,10 @@
         <v>48</v>
       </c>
       <c r="AH19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
@@ -3118,37 +3118,37 @@
         <v>1.51</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
         <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3157,10 +3157,10 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
         <v>9.4</v>
@@ -3172,7 +3172,7 @@
         <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
@@ -3181,16 +3181,16 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
         <v>210</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
@@ -3235,10 +3235,10 @@
         <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I21" t="n">
         <v>1.49</v>
@@ -3247,16 +3247,16 @@
         <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3265,10 +3265,10 @@
         <v>2.14</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
@@ -3283,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X21" t="n">
         <v>42</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="n">
         <v>80</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
@@ -3385,7 +3385,7 @@
         <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3394,25 +3394,25 @@
         <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
         <v>1.07</v>
@@ -3421,7 +3421,7 @@
         <v>4.7</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
@@ -3430,7 +3430,7 @@
         <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -3442,22 +3442,22 @@
         <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
         <v>170</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3472,7 +3472,7 @@
         <v>3.95</v>
       </c>
       <c r="AO22" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
@@ -3520,94 +3520,94 @@
         <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.37</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
         <v>80</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="H24" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.02</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.16</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="X24" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>7.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>990</v>
@@ -3715,22 +3715,22 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>4.3</v>
       </c>
-      <c r="G25" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>1.39</v>
@@ -3802,34 +3802,34 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
         <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
         <v>12</v>
@@ -3841,22 +3841,22 @@
         <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
         <v>32</v>
@@ -3865,7 +3865,7 @@
         <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
@@ -3874,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
         <v>12</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G26" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
         <v>3.15</v>
@@ -3919,10 +3919,10 @@
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.51</v>
@@ -3931,40 +3931,40 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
         <v>19.5</v>
@@ -3976,16 +3976,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
@@ -4000,7 +4000,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
         <v>48</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.92</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.93</v>
-      </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
@@ -4060,13 +4060,13 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -4075,52 +4075,52 @@
         <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
         <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,10 +4129,10 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -4141,13 +4141,13 @@
         <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
         <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -4183,16 +4183,16 @@
         <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.39</v>
@@ -4204,13 +4204,13 @@
         <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>2.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R28" t="n">
         <v>1.43</v>
@@ -4219,28 +4219,28 @@
         <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
         <v>9</v>
@@ -4249,22 +4249,22 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
         <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
         <v>16.5</v>
@@ -4276,7 +4276,7 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
         <v>9.4</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I29" t="n">
         <v>1.98</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.04</v>
-      </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K29" t="n">
         <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4342,37 +4342,37 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
         <v>2.08</v>
       </c>
       <c r="V29" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>80</v>
@@ -4387,10 +4387,10 @@
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
         <v>26</v>
@@ -4417,7 +4417,7 @@
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4447,97 +4447,97 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
         <v>3.9</v>
       </c>
       <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.32</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y30" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>15</v>
-      </c>
       <c r="Z30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="n">
         <v>9.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK30" t="n">
         <v>22</v>
@@ -4546,13 +4546,13 @@
         <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -4600,7 +4600,7 @@
         <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4612,10 +4612,10 @@
         <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
         <v>1.74</v>
@@ -4627,16 +4627,16 @@
         <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4645,16 +4645,16 @@
         <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
         <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>75</v>
@@ -4663,13 +4663,13 @@
         <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH31" t="n">
         <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
         <v>14.5</v>
@@ -4681,13 +4681,13 @@
         <v>24</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4735,25 +4735,25 @@
         <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="M32" t="n">
         <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
         <v>5.5</v>
@@ -4762,34 +4762,34 @@
         <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA32" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE32" t="n">
         <v>65</v>
@@ -4798,13 +4798,13 @@
         <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4813,16 +4813,16 @@
         <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
         <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G33" t="n">
         <v>1.98</v>
@@ -4861,7 +4861,7 @@
         <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.55</v>
@@ -4870,37 +4870,37 @@
         <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
         <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
         <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
         <v>2.02</v>
@@ -4918,7 +4918,7 @@
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -4927,16 +4927,16 @@
         <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
         <v>70</v>
@@ -4945,7 +4945,7 @@
         <v>22</v>
       </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
         <v>40</v>
@@ -4954,7 +4954,7 @@
         <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
@@ -5005,7 +5005,7 @@
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -5029,10 +5029,10 @@
         <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>1.34</v>
@@ -5074,7 +5074,7 @@
         <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
         <v>28</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
         <v>1.41</v>
@@ -5146,7 +5146,7 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.31</v>
@@ -5155,25 +5155,25 @@
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R35" t="n">
         <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -5194,13 +5194,13 @@
         <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>9.6</v>
@@ -5212,7 +5212,7 @@
         <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
         <v>19</v>
@@ -5224,7 +5224,7 @@
         <v>100</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO35" t="n">
         <v>65</v>
@@ -5263,13 +5263,13 @@
         <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>3.5</v>
@@ -5281,7 +5281,7 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -5290,7 +5290,7 @@
         <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5305,10 +5305,10 @@
         <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X36" t="n">
         <v>12</v>
@@ -5353,13 +5353,13 @@
         <v>46</v>
       </c>
       <c r="AL36" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO36" t="n">
         <v>34</v>
@@ -5395,7 +5395,7 @@
         <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
         <v>3.35</v>
@@ -5404,7 +5404,7 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
         <v>3.7</v>
@@ -5425,7 +5425,7 @@
         <v>1.87</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
         <v>1.33</v>
@@ -5434,16 +5434,16 @@
         <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
         <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
         <v>13.5</v>
@@ -5455,7 +5455,7 @@
         <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="n">
         <v>9.800000000000001</v>
@@ -5491,13 +5491,13 @@
         <v>42</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="n">
         <v>22</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
@@ -5527,55 +5527,55 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G38" t="n">
         <v>2.74</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L38" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N38" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="O38" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P38" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S38" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W38" t="n">
         <v>1.58</v>
@@ -5584,22 +5584,22 @@
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD38" t="n">
         <v>990</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1000</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5668,13 +5668,13 @@
         <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
         <v>2.46</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
@@ -5689,7 +5689,7 @@
         <v>2.72</v>
       </c>
       <c r="O39" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
         <v>1.55</v>
@@ -5722,7 +5722,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
         <v>36</v>
@@ -5755,10 +5755,10 @@
         <v>95</v>
       </c>
       <c r="AK39" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AL39" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5797,94 +5797,94 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I40" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T40" t="n">
         <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W40" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.88</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
         <v>3.05</v>
@@ -5965,7 +5965,7 @@
         <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="R41" t="n">
         <v>1.19</v>
@@ -5974,16 +5974,16 @@
         <v>5.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U41" t="n">
         <v>1.81</v>
       </c>
       <c r="V41" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
         <v>8.199999999999999</v>
@@ -6007,7 +6007,7 @@
         <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF41" t="n">
         <v>16.5</v>
@@ -6016,7 +6016,7 @@
         <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
         <v>75</v>
@@ -6067,94 +6067,94 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G42" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="I42" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="J42" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M42" t="n">
         <v>1.15</v>
       </c>
       <c r="N42" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O42" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P42" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q42" t="n">
         <v>2.88</v>
       </c>
       <c r="R42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T42" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W42" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X42" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y42" t="n">
         <v>7.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA42" t="n">
         <v>46</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AF42" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG42" t="n">
         <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
         <v>65</v>
@@ -6163,13 +6163,13 @@
         <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM42" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN42" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO42" t="n">
         <v>55</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
         <v>3.2</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L43" t="n">
         <v>1.48</v>
@@ -6244,13 +6244,13 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
         <v>2.06</v>
       </c>
       <c r="V43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
         <v>1.64</v>
@@ -6268,7 +6268,7 @@
         <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC43" t="n">
         <v>7.4</v>
@@ -6277,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AF43" t="n">
         <v>16</v>
@@ -6295,7 +6295,7 @@
         <v>36</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL43" t="n">
         <v>120</v>
@@ -6304,7 +6304,7 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO43" t="n">
         <v>48</v>
@@ -6340,10 +6340,10 @@
         <v>1.97</v>
       </c>
       <c r="G44" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
         <v>5.7</v>
@@ -6355,10 +6355,10 @@
         <v>3.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M44" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N44" t="n">
         <v>2.48</v>
@@ -6382,19 +6382,19 @@
         <v>2.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V44" t="n">
         <v>1.21</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
         <v>7.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
         <v>38</v>
@@ -6403,19 +6403,19 @@
         <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
         <v>25</v>
       </c>
       <c r="AE44" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6424,25 +6424,25 @@
         <v>32</v>
       </c>
       <c r="AI44" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL44" t="n">
         <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
@@ -6484,10 +6484,10 @@
         <v>3.8</v>
       </c>
       <c r="J45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.35</v>
       </c>
       <c r="L45" t="n">
         <v>1.51</v>
@@ -6502,7 +6502,7 @@
         <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q45" t="n">
         <v>2.34</v>
@@ -6517,13 +6517,13 @@
         <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
         <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6553,7 +6553,7 @@
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>20</v>
@@ -6571,10 +6571,10 @@
         <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO45" t="n">
         <v>65</v>
@@ -6619,10 +6619,10 @@
         <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.29</v>
@@ -6631,28 +6631,28 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O46" t="n">
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q46" t="n">
         <v>1.54</v>
       </c>
       <c r="R46" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V46" t="n">
         <v>1.09</v>
@@ -6664,7 +6664,7 @@
         <v>32</v>
       </c>
       <c r="Y46" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z46" t="n">
         <v>120</v>
@@ -6682,13 +6682,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>30</v>
@@ -6712,7 +6712,7 @@
         <v>4.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>11.5</v>
       </c>
       <c r="G47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H47" t="n">
         <v>1.26</v>
@@ -6754,10 +6754,10 @@
         <v>1.28</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.28</v>
@@ -6766,46 +6766,46 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S47" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="U47" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V47" t="n">
         <v>4.5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X47" t="n">
         <v>38</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AB47" t="n">
         <v>55</v>
@@ -6817,37 +6817,37 @@
         <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
         <v>36</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="AK47" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AL47" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN47" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="48">
@@ -6883,10 +6883,10 @@
         <v>1.66</v>
       </c>
       <c r="H48" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I48" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J48" t="n">
         <v>4.6</v>
@@ -6901,10 +6901,10 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
         <v>2.78</v>
@@ -6913,22 +6913,22 @@
         <v>1.54</v>
       </c>
       <c r="R48" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V48" t="n">
         <v>1.21</v>
       </c>
       <c r="W48" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X48" t="n">
         <v>27</v>
@@ -6955,7 +6955,7 @@
         <v>55</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG48" t="n">
         <v>9.800000000000001</v>
@@ -6964,7 +6964,7 @@
         <v>17</v>
       </c>
       <c r="AI48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ48" t="n">
         <v>17</v>
@@ -6973,10 +6973,10 @@
         <v>14</v>
       </c>
       <c r="AL48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN48" t="n">
         <v>6.4</v>
@@ -7012,34 +7012,34 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G49" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.4</v>
       </c>
       <c r="L49" t="n">
         <v>1.55</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
         <v>2.86</v>
       </c>
       <c r="O49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P49" t="n">
         <v>1.62</v>
@@ -7057,10 +7057,10 @@
         <v>2.7</v>
       </c>
       <c r="U49" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V49" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="W49" t="n">
         <v>1.11</v>
@@ -7078,7 +7078,7 @@
         <v>13</v>
       </c>
       <c r="AB49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC49" t="n">
         <v>10.5</v>
@@ -7099,25 +7099,25 @@
         <v>42</v>
       </c>
       <c r="AI49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ49" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="AK49" t="n">
         <v>250</v>
       </c>
       <c r="AL49" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AO49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="50">
@@ -7156,7 +7156,7 @@
         <v>6.2</v>
       </c>
       <c r="I50" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J50" t="n">
         <v>4.4</v>
@@ -7174,22 +7174,22 @@
         <v>4.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q50" t="n">
         <v>1.67</v>
       </c>
       <c r="R50" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S50" t="n">
         <v>2.68</v>
       </c>
       <c r="T50" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U50" t="n">
         <v>2.04</v>
@@ -7219,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
         <v>210</v>
@@ -7231,7 +7231,7 @@
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI50" t="n">
         <v>190</v>
@@ -7291,7 +7291,7 @@
         <v>1.55</v>
       </c>
       <c r="I51" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J51" t="n">
         <v>4.4</v>
@@ -7309,22 +7309,22 @@
         <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P51" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q51" t="n">
         <v>1.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S51" t="n">
         <v>2.58</v>
       </c>
       <c r="T51" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U51" t="n">
         <v>2.16</v>
@@ -7420,16 +7420,16 @@
         <v>1.81</v>
       </c>
       <c r="G52" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H52" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I52" t="n">
         <v>6.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
         <v>3.75</v>
@@ -7447,10 +7447,10 @@
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R52" t="n">
         <v>1.25</v>
@@ -7468,7 +7468,7 @@
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
         <v>23</v>
@@ -7552,25 +7552,25 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G53" t="n">
         <v>1.18</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.19</v>
       </c>
       <c r="H53" t="n">
         <v>22</v>
       </c>
       <c r="I53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J53" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K53" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -7588,22 +7588,22 @@
         <v>1.37</v>
       </c>
       <c r="R53" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S53" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T53" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U53" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
         <v>1.04</v>
       </c>
       <c r="W53" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X53" t="n">
         <v>44</v>
@@ -7630,19 +7630,19 @@
         <v>390</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK53" t="n">
         <v>14</v>
@@ -7651,10 +7651,10 @@
         <v>42</v>
       </c>
       <c r="AM53" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="AO53" t="n">
         <v>440</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.45</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.46</v>
       </c>
       <c r="H54" t="n">
         <v>8.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L54" t="n">
         <v>1.37</v>
@@ -7711,67 +7711,67 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O54" t="n">
         <v>1.26</v>
       </c>
       <c r="P54" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R54" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T54" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V54" t="n">
         <v>1.13</v>
       </c>
       <c r="W54" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE54" t="n">
         <v>140</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG54" t="n">
         <v>9.4</v>
       </c>
       <c r="AH54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI54" t="n">
         <v>120</v>
@@ -7780,13 +7780,13 @@
         <v>12</v>
       </c>
       <c r="AK54" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL54" t="n">
         <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN54" t="n">
         <v>6.8</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G55" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4.3</v>
       </c>
       <c r="H55" t="n">
         <v>2.02</v>
@@ -7840,94 +7840,94 @@
         <v>3.75</v>
       </c>
       <c r="L55" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R55" t="n">
         <v>1.38</v>
       </c>
-      <c r="P55" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="U55" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V55" t="n">
         <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X55" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z55" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB55" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD55" t="n">
         <v>10.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF55" t="n">
         <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK55" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN55" t="n">
         <v>55</v>
       </c>
-      <c r="AL55" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>70</v>
-      </c>
       <c r="AO55" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="56">
@@ -7960,7 +7960,7 @@
         <v>1.81</v>
       </c>
       <c r="G56" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H56" t="n">
         <v>5.3</v>
@@ -7981,28 +7981,28 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R56" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
         <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
         <v>1.21</v>
@@ -8026,7 +8026,7 @@
         <v>7.6</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
         <v>23</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="AJ56" t="n">
         <v>21</v>
@@ -8059,7 +8059,7 @@
         <v>580</v>
       </c>
       <c r="AN56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8101,10 +8101,10 @@
         <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K57" t="n">
         <v>3.4</v>
@@ -8128,13 +8128,13 @@
         <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S57" t="n">
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="n">
         <v>1.99</v>
@@ -8143,13 +8143,13 @@
         <v>1.84</v>
       </c>
       <c r="W57" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X57" t="n">
         <v>11</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z57" t="n">
         <v>12.5</v>
@@ -8161,13 +8161,13 @@
         <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD57" t="n">
         <v>11</v>
       </c>
       <c r="AE57" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF57" t="n">
         <v>30</v>
@@ -8176,7 +8176,7 @@
         <v>17</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI57" t="n">
         <v>60</v>
@@ -8197,7 +8197,7 @@
         <v>70</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -8227,109 +8227,109 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="G58" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J58" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K58" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N58" t="n">
         <v>3.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P58" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S58" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T58" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U58" t="n">
         <v>1.94</v>
       </c>
       <c r="V58" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W58" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X58" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA58" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE58" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF58" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH58" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI58" t="n">
         <v>65</v>
       </c>
       <c r="AJ58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AO58" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>CD Trofense</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Guimaraes B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>310</v>
+        <v>19.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="J2" t="n">
-        <v>110</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,77 +691,77 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="T2" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="V2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
         <v>500</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CD Trofense</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guimaraes B</t>
+          <t>1 Dezembro</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.22</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>5.1</v>
+        <v>310</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
-        <v>9.6</v>
+        <v>1.81</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>820</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>25</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>640</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1 Dezembro</t>
+          <t>AD Marco 09</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>1.82</v>
       </c>
       <c r="L4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
         <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AO4" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AD Marco 09</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>990</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
         <v>1.97</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>4.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>12.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>1.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>2.68</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>1.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>2.76</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Buriram Utd</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>1.21</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>1.24</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>26</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.35</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>5.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>2.32</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>4.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Buriram Utd</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
-        <v>2.26</v>
+        <v>17.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>3.55</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>4.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="I9" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.13</v>
       </c>
-      <c r="N9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X9" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
         <v>90</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.4</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>8.800000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
-        <v>1.56</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X10" t="n">
         <v>4.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Y10" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.800000000000001</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>12</v>
       </c>
-      <c r="AD11" t="n">
-        <v>990</v>
-      </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>440</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
         <v>18</v>
       </c>
-      <c r="AA12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.31</v>
       </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.98</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
@@ -2218,52 +2218,52 @@
         <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,87 +2273,87 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.98</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>2.12</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>2.24</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.77</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.27</v>
       </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>7.6</v>
@@ -2362,37 +2362,37 @@
         <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,112 +2413,112 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="G16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.4</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
         <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.08</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>5.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>1.78</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="W18" t="n">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>9.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AG18" t="n">
         <v>48</v>
       </c>
-      <c r="AF18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.69</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AH19" t="n">
         <v>34</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AI19" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>32</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>220</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Olympiakos Nicosia FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>7.8</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>1.46</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>1.48</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V20" t="n">
         <v>3</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AG20" t="n">
         <v>32</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AH20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI20" t="n">
         <v>110</v>
       </c>
-      <c r="AB20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>210</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia FC</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.8</v>
+        <v>1.26</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>1.27</v>
       </c>
       <c r="H21" t="n">
-        <v>1.45</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>1.49</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>1.13</v>
+        <v>4.7</v>
       </c>
       <c r="X21" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="Z21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK21" t="n">
         <v>13</v>
       </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.4</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X22" t="n">
         <v>14.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>27</v>
-      </c>
       <c r="Y22" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8</v>
-      </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.85</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="G24" t="n">
-        <v>1.71</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>1.93</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>1.94</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>2.06</v>
       </c>
       <c r="W24" t="n">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>44</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>990</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>2.04</v>
+        <v>1.46</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AA25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>19</v>
       </c>
-      <c r="AF25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="n">
         <v>32</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>48</v>
-      </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.2</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>2.44</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC26" t="n">
-        <v>7</v>
-      </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AK26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL26" t="n">
         <v>32</v>
       </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:01:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
         <v>1.92</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
@@ -4060,43 +4060,43 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
         <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>14</v>
@@ -4105,22 +4105,22 @@
         <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,31 +4129,31 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>4.5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>1.95</v>
       </c>
       <c r="I28" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.39</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U28" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>2.38</v>
+        <v>1.28</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.4</v>
+        <v>260</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="H29" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
         <v>1.81</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>25</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AK29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM29" t="n">
         <v>100</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>2.8</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,123 +4568,123 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC31" t="n">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X31" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="AD31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK31" t="n">
         <v>34</v>
       </c>
-      <c r="Z31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
         <v>180</v>
       </c>
-      <c r="AB31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>75</v>
-      </c>
       <c r="AN31" t="n">
-        <v>5.5</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
         <v>75</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,123 +4703,123 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE32" t="n">
         <v>65</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AO32" t="n">
         <v>75</v>
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.97</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AG33" t="n">
         <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN33" t="n">
         <v>22</v>
       </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>15</v>
-      </c>
       <c r="AO33" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -4978,118 +4978,118 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="H34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.8</v>
       </c>
-      <c r="I34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S34" t="n">
         <v>3.4</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC34" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC34" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD34" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI34" t="n">
         <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AO34" t="n">
         <v>65</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>2.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.41</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S35" t="n">
         <v>4.1</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE35" t="n">
         <v>36</v>
       </c>
-      <c r="AA35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>60</v>
-      </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO35" t="n">
         <v>34</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.9</v>
+        <v>2.26</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF36" t="n">
         <v>15</v>
       </c>
-      <c r="AE36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>24</v>
-      </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN36" t="n">
         <v>22</v>
       </c>
-      <c r="AI36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>65</v>
-      </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>FC Guidonia Montecelio 1937</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="O37" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="R37" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="T37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.78</v>
       </c>
-      <c r="U37" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="X37" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="G38" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="I38" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T38" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.35</v>
       </c>
-      <c r="W38" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>990</v>
+        <v>8.4</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD38" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD38" t="n">
-        <v>990</v>
-      </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="I39" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="V39" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="W39" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AB39" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AO39" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.8</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" t="n">
         <v>2.18</v>
       </c>
-      <c r="I40" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG40" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AH40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>48</v>
       </c>
-      <c r="AB40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO40" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,126 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
         <v>3.15</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.66</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="T41" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U41" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="X41" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA41" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ41" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AK41" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AL41" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM41" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -6067,40 +6067,40 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
         <v>2.86</v>
       </c>
       <c r="J42" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.98</v>
       </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
       <c r="L42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M42" t="n">
         <v>1.15</v>
       </c>
       <c r="N42" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.59</v>
       </c>
       <c r="P42" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="R42" t="n">
         <v>1.18</v>
@@ -6112,19 +6112,19 @@
         <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V42" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
         <v>1.44</v>
       </c>
       <c r="X42" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
         <v>16.5</v>
@@ -6133,22 +6133,22 @@
         <v>46</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
         <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AF42" t="n">
         <v>18.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>25</v>
@@ -6163,7 +6163,7 @@
         <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AM42" t="n">
         <v>200</v>
@@ -6205,10 +6205,10 @@
         <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I43" t="n">
         <v>3.45</v>
@@ -6232,10 +6232,10 @@
         <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
         <v>1.3</v>
@@ -6244,16 +6244,16 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -6283,7 +6283,7 @@
         <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>18.5</v>
@@ -6304,7 +6304,7 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO43" t="n">
         <v>48</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.97</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.98</v>
       </c>
       <c r="H44" t="n">
         <v>5.6</v>
@@ -6355,34 +6355,34 @@
         <v>3.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M44" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N44" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="P44" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R44" t="n">
         <v>1.16</v>
       </c>
       <c r="S44" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T44" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="U44" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V44" t="n">
         <v>1.21</v>
@@ -6391,19 +6391,19 @@
         <v>2.02</v>
       </c>
       <c r="X44" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z44" t="n">
         <v>38</v>
       </c>
       <c r="AA44" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB44" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC44" t="n">
         <v>7.6</v>
@@ -6427,28 +6427,28 @@
         <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK44" t="n">
         <v>32</v>
       </c>
       <c r="AL44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO44" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34</v>
+        <v>1.32</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>6.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P45" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.34</v>
+        <v>1.59</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="V45" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="W45" t="n">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="Z45" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AA45" t="n">
-        <v>75</v>
+        <v>590</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AE45" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AG45" t="n">
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK45" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM45" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>25</v>
+        <v>4.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="G46" t="n">
-        <v>1.33</v>
+        <v>16.5</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>1.24</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>1.26</v>
       </c>
       <c r="J46" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K46" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R46" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S46" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="U46" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="W46" t="n">
-        <v>4</v>
+        <v>1.06</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>120</v>
+        <v>8.4</v>
       </c>
       <c r="AA46" t="n">
-        <v>490</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AC46" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AE46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF46" t="n">
         <v>160</v>
       </c>
-      <c r="AF46" t="n">
-        <v>9</v>
-      </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI46" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>13.5</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>190</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11.5</v>
+        <v>1.64</v>
       </c>
       <c r="G47" t="n">
-        <v>14.5</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>1.26</v>
+        <v>5.6</v>
       </c>
       <c r="I47" t="n">
-        <v>1.28</v>
+        <v>5.7</v>
       </c>
       <c r="J47" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="K47" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O47" t="n">
         <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="S47" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T47" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="U47" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="V47" t="n">
-        <v>4.5</v>
+        <v>1.21</v>
       </c>
       <c r="W47" t="n">
-        <v>1.08</v>
+        <v>2.52</v>
       </c>
       <c r="X47" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y47" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="n">
         <v>11</v>
       </c>
-      <c r="Z47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB47" t="n">
+      <c r="AD47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE47" t="n">
         <v>55</v>
       </c>
-      <c r="AC47" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>13</v>
-      </c>
       <c r="AF47" t="n">
-        <v>180</v>
+        <v>12.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>100</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>720</v>
+        <v>17</v>
       </c>
       <c r="AK47" t="n">
-        <v>220</v>
+        <v>13.5</v>
       </c>
       <c r="AL47" t="n">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="AM47" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.65</v>
+        <v>9.6</v>
       </c>
       <c r="G48" t="n">
-        <v>1.66</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>5.6</v>
+        <v>1.52</v>
       </c>
       <c r="I48" t="n">
-        <v>5.7</v>
+        <v>1.54</v>
       </c>
       <c r="J48" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K48" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>6.4</v>
+        <v>2.86</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="P48" t="n">
-        <v>2.78</v>
+        <v>1.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.54</v>
+        <v>2.54</v>
       </c>
       <c r="R48" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>5.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>2.66</v>
       </c>
       <c r="U48" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="V48" t="n">
-        <v>1.21</v>
+        <v>2.86</v>
       </c>
       <c r="W48" t="n">
-        <v>2.52</v>
+        <v>1.11</v>
       </c>
       <c r="X48" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>5.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>50</v>
+        <v>6.8</v>
       </c>
       <c r="AA48" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD48" t="n">
         <v>11</v>
       </c>
-      <c r="AD48" t="n">
-        <v>21</v>
-      </c>
       <c r="AE48" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AH48" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AI48" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17</v>
+        <v>510</v>
       </c>
       <c r="AK48" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="AL48" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="AM48" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.4</v>
+        <v>590</v>
       </c>
       <c r="AO48" t="n">
-        <v>48</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,126 +6998,126 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9.4</v>
+        <v>1.52</v>
       </c>
       <c r="G49" t="n">
-        <v>9.800000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.52</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.22</v>
-      </c>
       <c r="S49" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="T49" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="V49" t="n">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="W49" t="n">
-        <v>1.11</v>
+        <v>2.68</v>
       </c>
       <c r="X49" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF49" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC49" t="n">
+      <c r="AG49" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AH49" t="n">
         <v>22</v>
       </c>
-      <c r="AF49" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>42</v>
-      </c>
       <c r="AI49" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AJ49" t="n">
-        <v>450</v>
+        <v>15.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>250</v>
+        <v>16.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>510</v>
+        <v>7.2</v>
       </c>
       <c r="AO49" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.52</v>
+        <v>5.5</v>
       </c>
       <c r="G50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.6</v>
       </c>
-      <c r="H50" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I50" t="n">
-        <v>7.2</v>
+        <v>1.64</v>
       </c>
       <c r="J50" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R50" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S50" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T50" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="U50" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="V50" t="n">
-        <v>1.16</v>
+        <v>2.48</v>
       </c>
       <c r="W50" t="n">
-        <v>2.66</v>
+        <v>1.19</v>
       </c>
       <c r="X50" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z50" t="n">
         <v>22</v>
       </c>
-      <c r="Y50" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>60</v>
-      </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB50" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE50" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="AF50" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH50" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI50" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,108 +7268,108 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
         <v>6</v>
       </c>
-      <c r="G51" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.63</v>
-      </c>
       <c r="J51" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="L51" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="P51" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="R51" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="V51" t="n">
-        <v>2.58</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>1.17</v>
+        <v>2.06</v>
       </c>
       <c r="X51" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y51" t="n">
         <v>990</v>
       </c>
-      <c r="Y51" t="n">
-        <v>21</v>
-      </c>
       <c r="Z51" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH51" t="n">
         <v>990</v>
       </c>
       <c r="AI51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
         <v>1000</v>
@@ -7378,22 +7378,22 @@
         <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO51" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.81</v>
+        <v>1.17</v>
       </c>
       <c r="G52" t="n">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="H52" t="n">
-        <v>5.1</v>
+        <v>23</v>
       </c>
       <c r="I52" t="n">
-        <v>6.2</v>
+        <v>24</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="M52" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="P52" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.26</v>
+        <v>1.36</v>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="S52" t="n">
-        <v>4.3</v>
+        <v>1.92</v>
       </c>
       <c r="T52" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U52" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>6.6</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Y52" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF52" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="AG52" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>990</v>
+        <v>38</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN52" t="n">
-        <v>55</v>
+        <v>2.68</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="G53" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="H53" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG53" t="n">
         <v>9.4</v>
       </c>
-      <c r="K53" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N53" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W53" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X53" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>280</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB53" t="n">
+      <c r="AH53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK53" t="n">
         <v>15</v>
       </c>
-      <c r="AC53" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>390</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>14</v>
-      </c>
       <c r="AL53" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.74</v>
+        <v>6.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>440</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,126 +7673,126 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sousa EC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Potiguar</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="G54" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="H54" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>8.6</v>
+        <v>870</v>
       </c>
       <c r="J54" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.37</v>
       </c>
       <c r="M54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S54" t="n">
         <v>1.05</v>
       </c>
-      <c r="N54" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U54" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V54" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="X54" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="Z54" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA54" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AD54" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AE54" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AH54" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI54" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AK54" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AL54" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM54" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AO54" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,112 +7822,112 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
         <v>4.1</v>
       </c>
-      <c r="G55" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
         <v>2.04</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R55" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S55" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U55" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V55" t="n">
         <v>1.96</v>
       </c>
       <c r="W55" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X55" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
         <v>23</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE55" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF55" t="n">
         <v>29</v>
       </c>
       <c r="AG55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ55" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM55" t="n">
         <v>85</v>
       </c>
-      <c r="AK55" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>95</v>
-      </c>
       <c r="AN55" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO55" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -7957,40 +7957,40 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G56" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H56" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M56" t="n">
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
@@ -7999,10 +7999,10 @@
         <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U56" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V56" t="n">
         <v>1.21</v>
@@ -8011,58 +8011,58 @@
         <v>2.16</v>
       </c>
       <c r="X56" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y56" t="n">
         <v>16.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA56" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB56" t="n">
         <v>7.6</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF56" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG56" t="n">
         <v>10.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AJ56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM56" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN56" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>2.14</v>
@@ -8104,10 +8104,10 @@
         <v>2.18</v>
       </c>
       <c r="J57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8122,31 +8122,31 @@
         <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S57" t="n">
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X57" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
         <v>8.199999999999999</v>
@@ -8161,13 +8161,13 @@
         <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD57" t="n">
         <v>11</v>
       </c>
       <c r="AE57" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF57" t="n">
         <v>30</v>
@@ -8188,7 +8188,7 @@
         <v>60</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM57" t="n">
         <v>130</v>
@@ -8233,16 +8233,16 @@
         <v>2.64</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
         <v>3.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L58" t="n">
         <v>1.47</v>
@@ -8251,13 +8251,13 @@
         <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P58" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q58" t="n">
         <v>2.22</v>
@@ -8269,7 +8269,7 @@
         <v>3.9</v>
       </c>
       <c r="T58" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U58" t="n">
         <v>1.94</v>
@@ -8278,7 +8278,7 @@
         <v>1.35</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X58" t="n">
         <v>12</v>
@@ -8293,7 +8293,7 @@
         <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC58" t="n">
         <v>7.8</v>
@@ -8308,7 +8308,7 @@
         <v>16.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH58" t="n">
         <v>19.5</v>
@@ -8329,7 +8329,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO58" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="W2" t="n">
-        <v>3.4</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,22 +733,22 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>650</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>880</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>210</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
         <v>990</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Alebrijes de Oaxaca</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Chapulineros de Oaxaca</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>1.94</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>980</v>
-      </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-04</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-04</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Alebrijes de Oaxaca</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Chapulineros de Oaxaca</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
